--- a/doc/sfs/rmj/기본설계서_REDBULL_노명진_20190920.xlsx
+++ b/doc/sfs/rmj/기본설계서_REDBULL_노명진_20190920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12120" tabRatio="875" activeTab="4"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12120" tabRatio="875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation" sheetId="19" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="558">
   <si>
     <t>구분</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1094,28 +1094,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>user/get_retrieve.do</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageSize=10,pageNum=1,searchDiv=,searchWord=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/do_insert.do</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id=jamesol
-name=이상무
-passwd=1234
-hLevel=BASIC
-login=0
-recommend=0
-email=jamesol@paran.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>출력항목정의</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1241,31 +1219,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>구매조건 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아요 담기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>수량 증감</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문페이지 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 보여주기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>별점 필터</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2266,6 +2224,49 @@
   </si>
   <si>
     <t>파람값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션이미지추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션입력추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;IMAGE&gt;, LIST&lt;OPT&gt; 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFNUM,ORG_FILE_NM,SAVE_FILE_NM,FILE_SIZE,EXT_NM</t>
+  </si>
+  <si>
+    <t>IMAGE(REFNUM,ORG_FILE_NM,SAVE_FILE_NM,FILE_SIZE,EXT_NM), OPT(ONAME,OPRICE,PNUM,INUM)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 입력칸 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3493,7 +3494,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4408,6 +4409,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="43" xfId="35" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
@@ -4421,19 +4453,93 @@
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4441,110 +4547,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -9381,6 +9391,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>882015</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>707025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 1047">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4082415" y="5334000"/>
+          <a:ext cx="787035" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43245"/>
+            <a:gd name="adj2" fmla="val 59093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9760,7 +9846,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="334"/>
+      <c r="A1" s="345"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9776,7 +9862,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="335"/>
+      <c r="A2" s="346"/>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -9794,21 +9880,21 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="335"/>
+      <c r="A3" s="346"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="335"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="336"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -10113,7 +10199,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="348" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="1"/>
@@ -10126,7 +10212,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="335"/>
+      <c r="A2" s="346"/>
       <c r="B2" s="3" t="s">
         <v>157</v>
       </c>
@@ -10139,14 +10225,14 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="335"/>
+      <c r="A3" s="346"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="335"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="7" t="s">
         <v>158</v>
       </c>
@@ -10155,7 +10241,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="336"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -10168,13 +10254,13 @@
         <v>223</v>
       </c>
       <c r="P5" s="192" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="192" t="s">
         <v>224</v>
       </c>
       <c r="R5" s="192" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="13" customFormat="1" ht="15" customHeight="1">
@@ -10283,13 +10369,13 @@
         <v>174</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>221</v>
@@ -10380,7 +10466,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="56"/>
       <c r="F8" s="144" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -10388,7 +10474,7 @@
       <c r="J8" s="166"/>
       <c r="K8" s="167"/>
       <c r="L8" s="171" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="52"/>
@@ -10396,13 +10482,13 @@
         <v>225</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="S8" s="82" t="str">
         <f>IF(TRIM(L8)="","",L8)</f>
@@ -10410,17 +10496,17 @@
       </c>
       <c r="T8" s="60"/>
       <c r="U8" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V8" s="64"/>
       <c r="W8" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X8" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y8" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z8" s="145">
         <v>43707</v>
@@ -10454,7 +10540,7 @@
       <c r="D9" s="58"/>
       <c r="E9" s="56"/>
       <c r="F9" s="144" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -10462,7 +10548,7 @@
       <c r="J9" s="166"/>
       <c r="K9" s="167"/>
       <c r="L9" s="171" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="52"/>
@@ -10471,27 +10557,27 @@
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="35" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="T9" s="60"/>
       <c r="U9" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V9" s="64"/>
       <c r="W9" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X9" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y9" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z9" s="145">
         <v>43707</v>
@@ -10525,7 +10611,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="56"/>
       <c r="F10" s="144" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -10533,7 +10619,7 @@
       <c r="J10" s="166"/>
       <c r="K10" s="167"/>
       <c r="L10" s="171" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="52"/>
@@ -10542,7 +10628,7 @@
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="35" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="R10" s="35"/>
       <c r="S10" s="82" t="str">
@@ -10551,17 +10637,17 @@
       </c>
       <c r="T10" s="60"/>
       <c r="U10" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V10" s="64"/>
       <c r="W10" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X10" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y10" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z10" s="145">
         <v>43707</v>
@@ -10595,7 +10681,7 @@
       <c r="D11" s="58"/>
       <c r="E11" s="56"/>
       <c r="F11" s="144" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -10603,21 +10689,21 @@
       <c r="J11" s="166"/>
       <c r="K11" s="167"/>
       <c r="L11" s="171" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="52"/>
       <c r="O11" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="S11" s="82" t="str">
         <f t="shared" ref="S11:S35" si="0">IF(TRIM(L11)="","",L11)</f>
@@ -10625,17 +10711,17 @@
       </c>
       <c r="T11" s="60"/>
       <c r="U11" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V11" s="64"/>
       <c r="W11" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X11" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y11" s="65" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z11" s="145">
         <v>43707</v>
@@ -10669,7 +10755,7 @@
       <c r="D12" s="58"/>
       <c r="E12" s="56"/>
       <c r="F12" s="144" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -10677,19 +10763,19 @@
       <c r="J12" s="166"/>
       <c r="K12" s="167"/>
       <c r="L12" s="171" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="52"/>
       <c r="O12" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="35" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="S12" s="82" t="str">
         <f t="shared" si="0"/>
@@ -10697,17 +10783,17 @@
       </c>
       <c r="T12" s="60"/>
       <c r="U12" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V12" s="64"/>
       <c r="W12" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X12" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y12" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z12" s="145">
         <v>43707</v>
@@ -10741,7 +10827,7 @@
       <c r="D13" s="58"/>
       <c r="E13" s="56"/>
       <c r="F13" s="144" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -10749,16 +10835,16 @@
       <c r="J13" s="166"/>
       <c r="K13" s="167"/>
       <c r="L13" s="171" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="52"/>
       <c r="O13" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="35" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="R13" s="35"/>
       <c r="S13" s="82" t="str">
@@ -10767,17 +10853,17 @@
       </c>
       <c r="T13" s="60"/>
       <c r="U13" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V13" s="64"/>
       <c r="W13" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X13" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y13" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z13" s="145">
         <v>43707</v>
@@ -10811,7 +10897,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="56"/>
       <c r="F14" s="144" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="18"/>
@@ -10819,21 +10905,21 @@
       <c r="J14" s="166"/>
       <c r="K14" s="167"/>
       <c r="L14" s="171" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="52"/>
       <c r="O14" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="P14" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>310</v>
-      </c>
       <c r="R14" s="35" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="S14" s="82" t="str">
         <f t="shared" si="0"/>
@@ -10841,17 +10927,17 @@
       </c>
       <c r="T14" s="60"/>
       <c r="U14" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V14" s="64"/>
       <c r="W14" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X14" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y14" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z14" s="145">
         <v>43707</v>
@@ -10885,7 +10971,7 @@
       <c r="D15" s="58"/>
       <c r="E15" s="56"/>
       <c r="F15" s="144" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="18"/>
@@ -10893,19 +10979,19 @@
       <c r="J15" s="166"/>
       <c r="K15" s="167"/>
       <c r="L15" s="171" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="52"/>
       <c r="O15" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="S15" s="82" t="str">
         <f t="shared" si="0"/>
@@ -10913,17 +10999,17 @@
       </c>
       <c r="T15" s="60"/>
       <c r="U15" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V15" s="64"/>
       <c r="W15" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X15" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y15" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z15" s="145">
         <v>43707</v>
@@ -10957,7 +11043,7 @@
       <c r="D16" s="58"/>
       <c r="E16" s="56"/>
       <c r="F16" s="144" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="18"/>
@@ -10965,16 +11051,16 @@
       <c r="J16" s="166"/>
       <c r="K16" s="167"/>
       <c r="L16" s="171" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="52"/>
       <c r="O16" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="R16" s="35"/>
       <c r="S16" s="82" t="str">
@@ -10983,17 +11069,17 @@
       </c>
       <c r="T16" s="60"/>
       <c r="U16" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V16" s="64"/>
       <c r="W16" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X16" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y16" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z16" s="145">
         <v>43707</v>
@@ -11027,7 +11113,7 @@
       <c r="D17" s="58"/>
       <c r="E17" s="56"/>
       <c r="F17" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="18"/>
@@ -11035,7 +11121,7 @@
       <c r="J17" s="166"/>
       <c r="K17" s="167"/>
       <c r="L17" s="171" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="52"/>
@@ -11043,13 +11129,13 @@
         <v>225</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="35" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="S17" s="82" t="str">
         <f t="shared" si="0"/>
@@ -11057,17 +11143,17 @@
       </c>
       <c r="T17" s="60"/>
       <c r="U17" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V17" s="64"/>
       <c r="W17" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X17" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y17" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z17" s="145">
         <v>43707</v>
@@ -11101,7 +11187,7 @@
       <c r="D18" s="58"/>
       <c r="E18" s="56"/>
       <c r="F18" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="18"/>
@@ -11109,7 +11195,7 @@
       <c r="J18" s="166"/>
       <c r="K18" s="167"/>
       <c r="L18" s="171" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="52"/>
@@ -11118,10 +11204,10 @@
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="S18" s="82" t="str">
         <f t="shared" si="0"/>
@@ -11129,17 +11215,17 @@
       </c>
       <c r="T18" s="60"/>
       <c r="U18" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V18" s="64"/>
       <c r="W18" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X18" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y18" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z18" s="145">
         <v>43707</v>
@@ -11173,7 +11259,7 @@
       <c r="D19" s="58"/>
       <c r="E19" s="56"/>
       <c r="F19" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="18"/>
@@ -11181,7 +11267,7 @@
       <c r="J19" s="166"/>
       <c r="K19" s="167"/>
       <c r="L19" s="171" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="52"/>
@@ -11190,7 +11276,7 @@
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="35" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="R19" s="35"/>
       <c r="S19" s="82" t="str">
@@ -11199,17 +11285,17 @@
       </c>
       <c r="T19" s="60"/>
       <c r="U19" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V19" s="64"/>
       <c r="W19" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X19" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y19" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z19" s="145">
         <v>43707</v>
@@ -11243,7 +11329,7 @@
       <c r="D20" s="253"/>
       <c r="E20" s="252"/>
       <c r="F20" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G20" s="255"/>
       <c r="H20" s="256"/>
@@ -11251,21 +11337,21 @@
       <c r="J20" s="255"/>
       <c r="K20" s="257"/>
       <c r="L20" s="258" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M20" s="256"/>
       <c r="N20" s="259"/>
       <c r="O20" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P20" s="255" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="251" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="R20" s="251" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="S20" s="260" t="str">
         <f t="shared" si="0"/>
@@ -11273,17 +11359,17 @@
       </c>
       <c r="T20" s="261"/>
       <c r="U20" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V20" s="263"/>
       <c r="W20" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X20" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y20" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z20" s="264">
         <v>43707</v>
@@ -11317,7 +11403,7 @@
       <c r="D21" s="253"/>
       <c r="E21" s="252"/>
       <c r="F21" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G21" s="255"/>
       <c r="H21" s="256"/>
@@ -11325,19 +11411,19 @@
       <c r="J21" s="255"/>
       <c r="K21" s="257"/>
       <c r="L21" s="258" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M21" s="256"/>
       <c r="N21" s="259"/>
       <c r="O21" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P21" s="255"/>
       <c r="Q21" s="251" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="R21" s="251" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="S21" s="260" t="str">
         <f t="shared" si="0"/>
@@ -11345,17 +11431,17 @@
       </c>
       <c r="T21" s="261"/>
       <c r="U21" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V21" s="263"/>
       <c r="W21" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X21" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y21" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z21" s="264">
         <v>43707</v>
@@ -11389,7 +11475,7 @@
       <c r="D22" s="253"/>
       <c r="E22" s="252"/>
       <c r="F22" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G22" s="255"/>
       <c r="H22" s="256"/>
@@ -11397,16 +11483,16 @@
       <c r="J22" s="255"/>
       <c r="K22" s="257"/>
       <c r="L22" s="258" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M22" s="256"/>
       <c r="N22" s="259"/>
       <c r="O22" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P22" s="255"/>
       <c r="Q22" s="251" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="R22" s="251"/>
       <c r="S22" s="260" t="str">
@@ -11415,17 +11501,17 @@
       </c>
       <c r="T22" s="261"/>
       <c r="U22" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V22" s="263"/>
       <c r="W22" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X22" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y22" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z22" s="264">
         <v>43707</v>
@@ -11459,7 +11545,7 @@
       <c r="D23" s="253"/>
       <c r="E23" s="252"/>
       <c r="F23" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G23" s="255"/>
       <c r="H23" s="256"/>
@@ -11467,21 +11553,21 @@
       <c r="J23" s="255"/>
       <c r="K23" s="257"/>
       <c r="L23" s="258" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M23" s="256"/>
       <c r="N23" s="259"/>
       <c r="O23" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P23" s="255" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="251" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="R23" s="251" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="S23" s="260" t="str">
         <f t="shared" si="0"/>
@@ -11489,17 +11575,17 @@
       </c>
       <c r="T23" s="261"/>
       <c r="U23" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V23" s="263"/>
       <c r="W23" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X23" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y23" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z23" s="264">
         <v>43707</v>
@@ -11533,7 +11619,7 @@
       <c r="D24" s="253"/>
       <c r="E24" s="252"/>
       <c r="F24" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G24" s="255"/>
       <c r="H24" s="256"/>
@@ -11541,19 +11627,19 @@
       <c r="J24" s="255"/>
       <c r="K24" s="257"/>
       <c r="L24" s="258" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M24" s="256"/>
       <c r="N24" s="259"/>
       <c r="O24" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P24" s="255"/>
       <c r="Q24" s="251" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="R24" s="251" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="S24" s="260" t="str">
         <f t="shared" si="0"/>
@@ -11561,17 +11647,17 @@
       </c>
       <c r="T24" s="261"/>
       <c r="U24" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V24" s="263"/>
       <c r="W24" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X24" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y24" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z24" s="264">
         <v>43707</v>
@@ -11605,7 +11691,7 @@
       <c r="D25" s="253"/>
       <c r="E25" s="252"/>
       <c r="F25" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G25" s="255"/>
       <c r="H25" s="256"/>
@@ -11613,16 +11699,16 @@
       <c r="J25" s="255"/>
       <c r="K25" s="257"/>
       <c r="L25" s="258" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M25" s="256"/>
       <c r="N25" s="259"/>
       <c r="O25" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P25" s="255"/>
       <c r="Q25" s="251" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="R25" s="251"/>
       <c r="S25" s="260" t="str">
@@ -11631,17 +11717,17 @@
       </c>
       <c r="T25" s="261"/>
       <c r="U25" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V25" s="263"/>
       <c r="W25" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X25" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y25" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z25" s="264">
         <v>43707</v>
@@ -11675,7 +11761,7 @@
       <c r="D26" s="253"/>
       <c r="E26" s="252"/>
       <c r="F26" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G26" s="255"/>
       <c r="H26" s="256"/>
@@ -11683,21 +11769,21 @@
       <c r="J26" s="255"/>
       <c r="K26" s="257"/>
       <c r="L26" s="258" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M26" s="256"/>
       <c r="N26" s="259"/>
       <c r="O26" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P26" s="255" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="251" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="R26" s="251" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="S26" s="260" t="str">
         <f t="shared" ref="S26:S28" si="1">IF(TRIM(L26)="","",L26)</f>
@@ -11705,17 +11791,17 @@
       </c>
       <c r="T26" s="261"/>
       <c r="U26" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V26" s="263"/>
       <c r="W26" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X26" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y26" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z26" s="264">
         <v>43707</v>
@@ -11749,7 +11835,7 @@
       <c r="D27" s="253"/>
       <c r="E27" s="252"/>
       <c r="F27" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G27" s="255"/>
       <c r="H27" s="256"/>
@@ -11757,19 +11843,19 @@
       <c r="J27" s="255"/>
       <c r="K27" s="257"/>
       <c r="L27" s="258" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M27" s="256"/>
       <c r="N27" s="259"/>
       <c r="O27" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P27" s="255"/>
       <c r="Q27" s="251" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="R27" s="251" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="S27" s="260" t="str">
         <f t="shared" si="1"/>
@@ -11777,17 +11863,17 @@
       </c>
       <c r="T27" s="261"/>
       <c r="U27" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V27" s="263"/>
       <c r="W27" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X27" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y27" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z27" s="264">
         <v>43707</v>
@@ -11821,7 +11907,7 @@
       <c r="D28" s="253"/>
       <c r="E28" s="252"/>
       <c r="F28" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G28" s="255"/>
       <c r="H28" s="256"/>
@@ -11829,16 +11915,16 @@
       <c r="J28" s="255"/>
       <c r="K28" s="257"/>
       <c r="L28" s="258" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M28" s="256"/>
       <c r="N28" s="259"/>
       <c r="O28" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P28" s="255"/>
       <c r="Q28" s="251" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="R28" s="251"/>
       <c r="S28" s="260" t="str">
@@ -11847,17 +11933,17 @@
       </c>
       <c r="T28" s="261"/>
       <c r="U28" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V28" s="263"/>
       <c r="W28" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X28" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y28" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z28" s="264">
         <v>43707</v>
@@ -11891,7 +11977,7 @@
       <c r="D29" s="253"/>
       <c r="E29" s="252"/>
       <c r="F29" s="254" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G29" s="255"/>
       <c r="H29" s="256"/>
@@ -11899,7 +11985,7 @@
       <c r="J29" s="255"/>
       <c r="K29" s="257"/>
       <c r="L29" s="258" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M29" s="256"/>
       <c r="N29" s="259"/>
@@ -11907,10 +11993,10 @@
         <v>225</v>
       </c>
       <c r="P29" s="255" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="251" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="R29" s="251"/>
       <c r="S29" s="260" t="str">
@@ -11919,17 +12005,17 @@
       </c>
       <c r="T29" s="261"/>
       <c r="U29" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V29" s="263"/>
       <c r="W29" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X29" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y29" s="262" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z29" s="264"/>
       <c r="AA29" s="264"/>
@@ -11967,16 +12053,16 @@
       <c r="J30" s="255"/>
       <c r="K30" s="257"/>
       <c r="L30" s="258" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M30" s="256"/>
       <c r="N30" s="259"/>
       <c r="O30" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P30" s="255"/>
       <c r="Q30" s="251" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="R30" s="251"/>
       <c r="S30" s="260" t="str">
@@ -11985,17 +12071,17 @@
       </c>
       <c r="T30" s="261"/>
       <c r="U30" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V30" s="263"/>
       <c r="W30" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X30" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y30" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z30" s="264">
         <v>43707</v>
@@ -12037,16 +12123,16 @@
       <c r="J31" s="255"/>
       <c r="K31" s="257"/>
       <c r="L31" s="258" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M31" s="256"/>
       <c r="N31" s="259"/>
       <c r="O31" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P31" s="255"/>
       <c r="Q31" s="251" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="R31" s="251"/>
       <c r="S31" s="260" t="str">
@@ -12055,17 +12141,17 @@
       </c>
       <c r="T31" s="261"/>
       <c r="U31" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V31" s="263"/>
       <c r="W31" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X31" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y31" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z31" s="264">
         <v>43707</v>
@@ -12107,16 +12193,16 @@
       <c r="J32" s="255"/>
       <c r="K32" s="257"/>
       <c r="L32" s="258" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M32" s="256"/>
       <c r="N32" s="259"/>
       <c r="O32" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P32" s="255"/>
       <c r="Q32" s="251" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="R32" s="251"/>
       <c r="S32" s="260" t="str">
@@ -12125,17 +12211,17 @@
       </c>
       <c r="T32" s="261"/>
       <c r="U32" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V32" s="263"/>
       <c r="W32" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X32" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y32" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z32" s="264">
         <v>43707</v>
@@ -12177,16 +12263,16 @@
       <c r="J33" s="255"/>
       <c r="K33" s="257"/>
       <c r="L33" s="258" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M33" s="256"/>
       <c r="N33" s="259"/>
       <c r="O33" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P33" s="255"/>
       <c r="Q33" s="251" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="R33" s="251"/>
       <c r="S33" s="260" t="str">
@@ -12195,17 +12281,17 @@
       </c>
       <c r="T33" s="261"/>
       <c r="U33" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V33" s="263"/>
       <c r="W33" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X33" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y33" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z33" s="264">
         <v>43707</v>
@@ -12247,16 +12333,16 @@
       <c r="J34" s="255"/>
       <c r="K34" s="257"/>
       <c r="L34" s="258" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M34" s="256"/>
       <c r="N34" s="259"/>
       <c r="O34" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P34" s="255"/>
       <c r="Q34" s="251" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="R34" s="251"/>
       <c r="S34" s="260" t="str">
@@ -12265,17 +12351,17 @@
       </c>
       <c r="T34" s="261"/>
       <c r="U34" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V34" s="263"/>
       <c r="W34" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X34" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y34" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z34" s="264">
         <v>43707</v>
@@ -12317,16 +12403,16 @@
       <c r="J35" s="255"/>
       <c r="K35" s="257"/>
       <c r="L35" s="258" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M35" s="256"/>
       <c r="N35" s="259"/>
       <c r="O35" s="255" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P35" s="255"/>
       <c r="Q35" s="251" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="R35" s="251"/>
       <c r="S35" s="260" t="str">
@@ -12335,17 +12421,17 @@
       </c>
       <c r="T35" s="261"/>
       <c r="U35" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="V35" s="263"/>
       <c r="W35" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X35" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y35" s="262" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z35" s="264">
         <v>43707</v>
@@ -12379,7 +12465,7 @@
       <c r="D36" s="58"/>
       <c r="E36" s="56"/>
       <c r="F36" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="18"/>
@@ -12387,38 +12473,38 @@
       <c r="J36" s="166"/>
       <c r="K36" s="167"/>
       <c r="L36" s="229" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="52"/>
       <c r="O36" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="R36" s="35" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="S36" s="82" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="T36" s="60"/>
       <c r="U36" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V36" s="64"/>
       <c r="W36" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X36" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y36" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z36" s="145">
         <v>43707</v>
@@ -12452,7 +12538,7 @@
       <c r="D37" s="58"/>
       <c r="E37" s="56"/>
       <c r="F37" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="18"/>
@@ -12460,34 +12546,34 @@
       <c r="J37" s="166"/>
       <c r="K37" s="167"/>
       <c r="L37" s="229" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="52"/>
       <c r="O37" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="35" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="R37" s="35" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="S37" s="82"/>
       <c r="T37" s="60"/>
       <c r="U37" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V37" s="64"/>
       <c r="W37" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X37" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y37" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z37" s="145">
         <v>43707</v>
@@ -12521,7 +12607,7 @@
       <c r="D38" s="58"/>
       <c r="E38" s="56"/>
       <c r="F38" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="18"/>
@@ -12529,32 +12615,32 @@
       <c r="J38" s="166"/>
       <c r="K38" s="167"/>
       <c r="L38" s="229" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="52"/>
       <c r="O38" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="35" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="R38" s="35"/>
       <c r="S38" s="82"/>
       <c r="T38" s="60"/>
       <c r="U38" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X38" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y38" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z38" s="145">
         <v>43707</v>
@@ -12588,7 +12674,7 @@
       <c r="D39" s="58"/>
       <c r="E39" s="56"/>
       <c r="F39" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="18"/>
@@ -12596,38 +12682,38 @@
       <c r="J39" s="166"/>
       <c r="K39" s="167"/>
       <c r="L39" s="171" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M39" s="18"/>
       <c r="N39" s="52"/>
       <c r="O39" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="Q39" s="35" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="R39" s="35" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="S39" s="82" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="T39" s="60"/>
       <c r="U39" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X39" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y39" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z39" s="145">
         <v>43707</v>
@@ -12661,7 +12747,7 @@
       <c r="D40" s="58"/>
       <c r="E40" s="56"/>
       <c r="F40" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="18"/>
@@ -12669,34 +12755,34 @@
       <c r="J40" s="166"/>
       <c r="K40" s="167"/>
       <c r="L40" s="171" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M40" s="18"/>
       <c r="N40" s="52"/>
       <c r="O40" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="35" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="S40" s="82"/>
       <c r="T40" s="60"/>
       <c r="U40" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X40" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y40" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z40" s="145">
         <v>43707</v>
@@ -12730,7 +12816,7 @@
       <c r="D41" s="58"/>
       <c r="E41" s="56"/>
       <c r="F41" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="18"/>
@@ -12738,32 +12824,32 @@
       <c r="J41" s="166"/>
       <c r="K41" s="167"/>
       <c r="L41" s="171" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M41" s="18"/>
       <c r="N41" s="52"/>
       <c r="O41" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="35" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="R41" s="35"/>
       <c r="S41" s="82"/>
       <c r="T41" s="60"/>
       <c r="U41" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X41" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y41" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z41" s="145">
         <v>43707</v>
@@ -12797,7 +12883,7 @@
       <c r="D42" s="58"/>
       <c r="E42" s="56"/>
       <c r="F42" s="144" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="18"/>
@@ -12805,38 +12891,38 @@
       <c r="J42" s="166"/>
       <c r="K42" s="167"/>
       <c r="L42" s="171" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M42" s="18"/>
       <c r="N42" s="52"/>
       <c r="O42" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P42" s="232" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="R42" s="35" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="S42" s="82" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="T42" s="60"/>
       <c r="U42" s="63" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="63" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="X42" s="63" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Y42" s="63" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Z42" s="145">
         <v>43707</v>
@@ -12917,7 +13003,7 @@
       <c r="D44" s="58"/>
       <c r="E44" s="56"/>
       <c r="F44" s="144" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -12925,7 +13011,7 @@
       <c r="J44" s="166"/>
       <c r="K44" s="167"/>
       <c r="L44" s="178" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="M44" s="18"/>
       <c r="N44" s="52"/>
@@ -12933,7 +13019,7 @@
         <v>226</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
@@ -12943,17 +13029,17 @@
       </c>
       <c r="T44" s="60"/>
       <c r="U44" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V44" s="64"/>
       <c r="W44" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X44" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y44" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z44" s="145">
         <v>43707</v>
@@ -12987,7 +13073,7 @@
       <c r="D45" s="58"/>
       <c r="E45" s="56"/>
       <c r="F45" s="144" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -12995,7 +13081,7 @@
       <c r="J45" s="166"/>
       <c r="K45" s="167"/>
       <c r="L45" s="178" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="M45" s="18"/>
       <c r="N45" s="52"/>
@@ -13003,7 +13089,7 @@
         <v>226</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
@@ -13013,17 +13099,17 @@
       </c>
       <c r="T45" s="60"/>
       <c r="U45" s="64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V45" s="64"/>
       <c r="W45" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X45" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y45" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z45" s="145">
         <v>43707</v>
@@ -13057,7 +13143,7 @@
       <c r="D46" s="58"/>
       <c r="E46" s="56"/>
       <c r="F46" s="144" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -13065,7 +13151,7 @@
       <c r="J46" s="166"/>
       <c r="K46" s="167"/>
       <c r="L46" s="178" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M46" s="18"/>
       <c r="N46" s="52"/>
@@ -13073,7 +13159,7 @@
         <v>226</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
@@ -13083,17 +13169,17 @@
       </c>
       <c r="T46" s="60"/>
       <c r="U46" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V46" s="64"/>
       <c r="W46" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X46" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y46" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z46" s="145">
         <v>43707</v>
@@ -13127,7 +13213,7 @@
       <c r="D47" s="58"/>
       <c r="E47" s="56"/>
       <c r="F47" s="144" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -13135,7 +13221,7 @@
       <c r="J47" s="166"/>
       <c r="K47" s="167"/>
       <c r="L47" s="178" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="52"/>
@@ -13143,7 +13229,7 @@
         <v>226</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
@@ -13153,17 +13239,17 @@
       </c>
       <c r="T47" s="60"/>
       <c r="U47" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X47" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y47" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z47" s="145">
         <v>43707</v>
@@ -13197,7 +13283,7 @@
       <c r="D48" s="58"/>
       <c r="E48" s="56"/>
       <c r="F48" s="144" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -13205,7 +13291,7 @@
       <c r="J48" s="166"/>
       <c r="K48" s="167"/>
       <c r="L48" s="178" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M48" s="18"/>
       <c r="N48" s="52"/>
@@ -13213,7 +13299,7 @@
         <v>226</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
@@ -13223,17 +13309,17 @@
       </c>
       <c r="T48" s="60"/>
       <c r="U48" s="64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V48" s="64"/>
       <c r="W48" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X48" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y48" s="65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z48" s="145">
         <v>43707</v>
@@ -13267,7 +13353,7 @@
       <c r="D49" s="58"/>
       <c r="E49" s="56"/>
       <c r="F49" s="144" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -13275,7 +13361,7 @@
       <c r="J49" s="166"/>
       <c r="K49" s="167"/>
       <c r="L49" s="178" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="52"/>
@@ -13283,7 +13369,7 @@
         <v>226</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
@@ -13293,17 +13379,17 @@
       </c>
       <c r="T49" s="60"/>
       <c r="U49" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V49" s="64"/>
       <c r="W49" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X49" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y49" s="64" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Z49" s="145">
         <v>43707</v>
@@ -13337,7 +13423,7 @@
       <c r="D50" s="58"/>
       <c r="E50" s="56"/>
       <c r="F50" s="144" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -13345,7 +13431,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="167"/>
       <c r="L50" s="178" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M50" s="18"/>
       <c r="N50" s="52"/>
@@ -13353,7 +13439,7 @@
         <v>226</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
@@ -13363,17 +13449,17 @@
       </c>
       <c r="T50" s="60"/>
       <c r="U50" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V50" s="64"/>
       <c r="W50" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X50" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y50" s="65" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z50" s="145">
         <v>43707</v>
@@ -13407,7 +13493,7 @@
       <c r="D51" s="58"/>
       <c r="E51" s="56"/>
       <c r="F51" s="144" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -13415,7 +13501,7 @@
       <c r="J51" s="166"/>
       <c r="K51" s="167"/>
       <c r="L51" s="178" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="52"/>
@@ -13423,7 +13509,7 @@
         <v>226</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
@@ -13433,17 +13519,17 @@
       </c>
       <c r="T51" s="60"/>
       <c r="U51" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V51" s="64"/>
       <c r="W51" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X51" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y51" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z51" s="145">
         <v>43707</v>
@@ -13477,7 +13563,7 @@
       <c r="D52" s="58"/>
       <c r="E52" s="56"/>
       <c r="F52" s="144" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -13485,7 +13571,7 @@
       <c r="J52" s="166"/>
       <c r="K52" s="167"/>
       <c r="L52" s="178" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="52"/>
@@ -13493,7 +13579,7 @@
         <v>226</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
@@ -13503,17 +13589,17 @@
       </c>
       <c r="T52" s="60"/>
       <c r="U52" s="64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V52" s="64"/>
       <c r="W52" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X52" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y52" s="64" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Z52" s="145">
         <v>43707</v>
@@ -13547,7 +13633,7 @@
       <c r="D53" s="58"/>
       <c r="E53" s="56"/>
       <c r="F53" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -13555,7 +13641,7 @@
       <c r="J53" s="166"/>
       <c r="K53" s="167"/>
       <c r="L53" s="178" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M53" s="18"/>
       <c r="N53" s="52"/>
@@ -13563,7 +13649,7 @@
         <v>226</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
@@ -13573,17 +13659,17 @@
       </c>
       <c r="T53" s="60"/>
       <c r="U53" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V53" s="64"/>
       <c r="W53" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X53" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y53" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z53" s="145">
         <v>43707</v>
@@ -13617,7 +13703,7 @@
       <c r="D54" s="58"/>
       <c r="E54" s="56"/>
       <c r="F54" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -13625,7 +13711,7 @@
       <c r="J54" s="166"/>
       <c r="K54" s="167"/>
       <c r="L54" s="179" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M54" s="18"/>
       <c r="N54" s="52"/>
@@ -13633,7 +13719,7 @@
         <v>226</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
@@ -13643,17 +13729,17 @@
       </c>
       <c r="T54" s="60"/>
       <c r="U54" s="64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V54" s="64"/>
       <c r="W54" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X54" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y54" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z54" s="145">
         <v>43707</v>
@@ -13687,7 +13773,7 @@
       <c r="D55" s="58"/>
       <c r="E55" s="56"/>
       <c r="F55" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="18"/>
@@ -13695,7 +13781,7 @@
       <c r="J55" s="166"/>
       <c r="K55" s="167"/>
       <c r="L55" s="179" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M55" s="18"/>
       <c r="N55" s="52"/>
@@ -13703,7 +13789,7 @@
         <v>226</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
@@ -13713,17 +13799,17 @@
       </c>
       <c r="T55" s="60"/>
       <c r="U55" s="64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V55" s="64"/>
       <c r="W55" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X55" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y55" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z55" s="145">
         <v>43707</v>
@@ -13757,7 +13843,7 @@
       <c r="D56" s="58"/>
       <c r="E56" s="56"/>
       <c r="F56" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="18"/>
@@ -13765,7 +13851,7 @@
       <c r="J56" s="166"/>
       <c r="K56" s="167"/>
       <c r="L56" s="179" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M56" s="18"/>
       <c r="N56" s="52"/>
@@ -13773,7 +13859,7 @@
         <v>226</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
@@ -13783,17 +13869,17 @@
       </c>
       <c r="T56" s="60"/>
       <c r="U56" s="64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V56" s="64"/>
       <c r="W56" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X56" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y56" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z56" s="145">
         <v>43707</v>
@@ -13827,7 +13913,7 @@
       <c r="D57" s="58"/>
       <c r="E57" s="56"/>
       <c r="F57" s="144" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="18"/>
@@ -13835,7 +13921,7 @@
       <c r="J57" s="166"/>
       <c r="K57" s="167"/>
       <c r="L57" s="179" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M57" s="18"/>
       <c r="N57" s="52"/>
@@ -13843,7 +13929,7 @@
         <v>226</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
@@ -13853,17 +13939,17 @@
       </c>
       <c r="T57" s="60"/>
       <c r="U57" s="64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V57" s="64"/>
       <c r="W57" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="X57" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Y57" s="64" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z57" s="145">
         <v>43707</v>
@@ -13897,7 +13983,7 @@
       <c r="D58" s="253"/>
       <c r="E58" s="252"/>
       <c r="F58" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G58" s="255"/>
       <c r="H58" s="256"/>
@@ -13905,15 +13991,15 @@
       <c r="J58" s="255"/>
       <c r="K58" s="257"/>
       <c r="L58" s="271" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M58" s="256"/>
       <c r="N58" s="259"/>
       <c r="O58" s="255" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P58" s="293" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q58" s="251"/>
       <c r="R58" s="251"/>
@@ -13923,17 +14009,17 @@
       </c>
       <c r="T58" s="261"/>
       <c r="U58" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V58" s="263"/>
       <c r="W58" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X58" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y58" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z58" s="264">
         <v>43707</v>
@@ -13967,7 +14053,7 @@
       <c r="D59" s="253"/>
       <c r="E59" s="252"/>
       <c r="F59" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G59" s="255"/>
       <c r="H59" s="256"/>
@@ -13975,15 +14061,15 @@
       <c r="J59" s="255"/>
       <c r="K59" s="257"/>
       <c r="L59" s="271" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M59" s="256"/>
       <c r="N59" s="259"/>
       <c r="O59" s="255" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P59" s="293" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="Q59" s="251"/>
       <c r="R59" s="251"/>
@@ -13993,17 +14079,17 @@
       </c>
       <c r="T59" s="261"/>
       <c r="U59" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V59" s="263"/>
       <c r="W59" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X59" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y59" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z59" s="264">
         <v>43707</v>
@@ -14037,7 +14123,7 @@
       <c r="D60" s="253"/>
       <c r="E60" s="252"/>
       <c r="F60" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G60" s="255"/>
       <c r="H60" s="256"/>
@@ -14045,15 +14131,15 @@
       <c r="J60" s="255"/>
       <c r="K60" s="257"/>
       <c r="L60" s="271" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M60" s="256"/>
       <c r="N60" s="259"/>
       <c r="O60" s="255" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P60" s="255" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q60" s="251"/>
       <c r="R60" s="251"/>
@@ -14063,17 +14149,17 @@
       </c>
       <c r="T60" s="261"/>
       <c r="U60" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V60" s="263"/>
       <c r="W60" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X60" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y60" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z60" s="264">
         <v>43707</v>
@@ -14107,7 +14193,7 @@
       <c r="D61" s="253"/>
       <c r="E61" s="252"/>
       <c r="F61" s="254" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G61" s="255"/>
       <c r="H61" s="256"/>
@@ -14115,15 +14201,15 @@
       <c r="J61" s="255"/>
       <c r="K61" s="257"/>
       <c r="L61" s="271" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="M61" s="256"/>
       <c r="N61" s="259"/>
       <c r="O61" s="255" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P61" s="255" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Q61" s="251"/>
       <c r="R61" s="251"/>
@@ -14133,17 +14219,17 @@
       </c>
       <c r="T61" s="261"/>
       <c r="U61" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="V61" s="263"/>
       <c r="W61" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X61" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y61" s="263" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Z61" s="264">
         <v>43707</v>
@@ -14177,7 +14263,7 @@
       <c r="D62" s="58"/>
       <c r="E62" s="56"/>
       <c r="F62" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="18"/>
@@ -14185,34 +14271,34 @@
       <c r="J62" s="166"/>
       <c r="K62" s="167"/>
       <c r="L62" s="178" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M62" s="18"/>
       <c r="N62" s="52"/>
       <c r="O62" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P62" s="14" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
       <c r="S62" s="82" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="T62" s="60"/>
       <c r="U62" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V62" s="64"/>
       <c r="W62" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X62" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y62" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z62" s="145">
         <v>43707</v>
@@ -14246,7 +14332,7 @@
       <c r="D63" s="58"/>
       <c r="E63" s="56"/>
       <c r="F63" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="18"/>
@@ -14254,34 +14340,34 @@
       <c r="J63" s="166"/>
       <c r="K63" s="167"/>
       <c r="L63" s="178" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M63" s="18"/>
       <c r="N63" s="52"/>
       <c r="O63" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P63" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="82" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="T63" s="60"/>
       <c r="U63" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V63" s="64"/>
       <c r="W63" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X63" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y63" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z63" s="145">
         <v>43707</v>
@@ -14315,7 +14401,7 @@
       <c r="D64" s="58"/>
       <c r="E64" s="56"/>
       <c r="F64" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="18"/>
@@ -14323,34 +14409,34 @@
       <c r="J64" s="166"/>
       <c r="K64" s="167"/>
       <c r="L64" s="178" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M64" s="18"/>
       <c r="N64" s="52"/>
       <c r="O64" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="82" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="T64" s="60"/>
       <c r="U64" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V64" s="64"/>
       <c r="W64" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X64" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y64" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z64" s="145">
         <v>43707</v>
@@ -14384,7 +14470,7 @@
       <c r="D65" s="58"/>
       <c r="E65" s="56"/>
       <c r="F65" s="144" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="18"/>
@@ -14392,34 +14478,34 @@
       <c r="J65" s="166"/>
       <c r="K65" s="167"/>
       <c r="L65" s="178" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="52"/>
       <c r="O65" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
       <c r="S65" s="82" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="T65" s="60"/>
       <c r="U65" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V65" s="64"/>
       <c r="W65" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X65" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y65" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z65" s="145">
         <v>43707</v>
@@ -14453,7 +14539,7 @@
       <c r="D66" s="58"/>
       <c r="E66" s="56"/>
       <c r="F66" s="144" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="18"/>
@@ -14461,34 +14547,34 @@
       <c r="J66" s="166"/>
       <c r="K66" s="167"/>
       <c r="L66" s="178" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M66" s="18"/>
       <c r="N66" s="52"/>
       <c r="O66" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="82" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="T66" s="60"/>
       <c r="U66" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V66" s="64"/>
       <c r="W66" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X66" s="64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Y66" s="63" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z66" s="145">
         <v>43707</v>
@@ -14522,7 +14608,7 @@
       <c r="D67" s="58"/>
       <c r="E67" s="56"/>
       <c r="F67" s="144" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="18"/>
@@ -14530,34 +14616,34 @@
       <c r="J67" s="166"/>
       <c r="K67" s="167"/>
       <c r="L67" s="178" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M67" s="18"/>
       <c r="N67" s="52"/>
       <c r="O67" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="82" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="T67" s="60"/>
       <c r="U67" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V67" s="64"/>
       <c r="W67" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="X67" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Y67" s="63" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Z67" s="145">
         <v>43707</v>
@@ -14591,7 +14677,7 @@
       <c r="D68" s="58"/>
       <c r="E68" s="56"/>
       <c r="F68" s="144" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="18"/>
@@ -14599,34 +14685,34 @@
       <c r="J68" s="166"/>
       <c r="K68" s="167"/>
       <c r="L68" s="179" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M68" s="18"/>
       <c r="N68" s="52"/>
       <c r="O68" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="82" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="T68" s="60"/>
       <c r="U68" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V68" s="64"/>
       <c r="W68" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="X68" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Y68" s="63" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Z68" s="145">
         <v>43707</v>
@@ -14660,7 +14746,7 @@
       <c r="D69" s="58"/>
       <c r="E69" s="56"/>
       <c r="F69" s="144" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="18"/>
@@ -14668,34 +14754,34 @@
       <c r="J69" s="166"/>
       <c r="K69" s="167"/>
       <c r="L69" s="179" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M69" s="18"/>
       <c r="N69" s="52"/>
       <c r="O69" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="82" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="T69" s="60"/>
       <c r="U69" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V69" s="64"/>
       <c r="W69" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="X69" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Y69" s="63" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Z69" s="145">
         <v>43707</v>
@@ -14729,7 +14815,7 @@
       <c r="D70" s="58"/>
       <c r="E70" s="56"/>
       <c r="F70" s="144" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="18"/>
@@ -14737,34 +14823,34 @@
       <c r="J70" s="166"/>
       <c r="K70" s="167"/>
       <c r="L70" s="178" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="52"/>
       <c r="O70" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="82" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="T70" s="60"/>
       <c r="U70" s="64" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V70" s="64"/>
       <c r="W70" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="X70" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Y70" s="64" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Z70" s="145">
         <v>43707</v>
@@ -14914,7 +15000,7 @@
         <v>160</v>
       </c>
       <c r="D76" s="76" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E76" s="75">
         <f>COUNTIF($O$8:$O$71,D76)</f>
@@ -14952,7 +15038,7 @@
     <row r="77" spans="1:45" ht="15" customHeight="1">
       <c r="C77" s="70"/>
       <c r="D77" s="76" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E77" s="75">
         <f>COUNTIF($O$8:$O$71,D77)</f>
@@ -15178,8 +15264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -15201,7 +15287,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="345" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1"/>
@@ -15212,7 +15298,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="335"/>
+      <c r="A2" s="346"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -15223,18 +15309,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="335"/>
+      <c r="A3" s="346"/>
       <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="335"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="7" t="s">
         <v>228</v>
       </c>
       <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="336"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -15249,10 +15335,10 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="357" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="358"/>
+      <c r="C6" s="360" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="361"/>
       <c r="E6" s="150" t="str">
         <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE))</f>
         <v>상품 상세</v>
@@ -15312,7 +15398,7 @@
       <c r="E9" s="199"/>
       <c r="F9" s="209"/>
       <c r="G9" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -15327,7 +15413,7 @@
       <c r="E10" s="199"/>
       <c r="F10" s="209"/>
       <c r="G10" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="155"/>
       <c r="I10" s="155"/>
@@ -15342,7 +15428,7 @@
       <c r="E11" s="199"/>
       <c r="F11" s="209"/>
       <c r="G11" s="67" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
@@ -15351,19 +15437,19 @@
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="380" t="s">
-        <v>540</v>
+      <c r="B12" s="343" t="s">
+        <v>531</v>
       </c>
       <c r="C12" s="201"/>
       <c r="D12" s="222" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E12" s="199"/>
-      <c r="F12" s="381" t="s">
-        <v>541</v>
+      <c r="F12" s="344" t="s">
+        <v>532</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H12" s="155"/>
       <c r="I12" s="155"/>
@@ -15382,7 +15468,7 @@
       <c r="I13" s="155"/>
       <c r="J13" s="32"/>
       <c r="K13" s="106" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="156"/>
@@ -15400,7 +15486,7 @@
       <c r="I14" s="155"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>2</v>
@@ -15419,7 +15505,7 @@
       <c r="I15" s="155"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="158"/>
@@ -15437,7 +15523,7 @@
       <c r="I16" s="155"/>
       <c r="J16" s="16"/>
       <c r="K16" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>2</v>
@@ -15469,13 +15555,13 @@
       <c r="A18" s="13"/>
       <c r="B18" s="87"/>
       <c r="C18" s="223" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D18" s="223" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E18" s="207" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F18" s="209"/>
       <c r="H18" s="155"/>
@@ -15496,11 +15582,11 @@
       <c r="E19" s="208"/>
       <c r="F19" s="209"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="359"/>
-      <c r="I19" s="359"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="362"/>
       <c r="J19" s="16"/>
       <c r="K19" s="106" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="147"/>
@@ -15518,7 +15604,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="16"/>
       <c r="K20" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>2</v>
@@ -15529,23 +15615,23 @@
       <c r="A21" s="13"/>
       <c r="B21" s="87"/>
       <c r="C21" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="16"/>
       <c r="K21" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="156"/>
@@ -15573,7 +15659,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="H23" s="210" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J23" s="32"/>
       <c r="L23" s="16"/>
@@ -15626,10 +15712,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="219"/>
       <c r="C28" s="32"/>
-      <c r="E28" s="364" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" s="365"/>
+      <c r="E28" s="374" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="375"/>
       <c r="H28" s="210"/>
       <c r="J28" s="32"/>
       <c r="L28" s="16"/>
@@ -15639,10 +15725,10 @@
       <c r="A29" s="13"/>
       <c r="B29" s="219"/>
       <c r="C29" s="32"/>
-      <c r="E29" s="363"/>
+      <c r="E29" s="337"/>
       <c r="F29" s="90"/>
       <c r="H29" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J29" s="32"/>
       <c r="L29" s="16"/>
@@ -15676,7 +15762,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -15693,7 +15779,7 @@
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="221" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>2</v>
@@ -15756,17 +15842,17 @@
       <c r="B37" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="360"/>
-      <c r="D37" s="361"/>
-      <c r="E37" s="361"/>
-      <c r="F37" s="361"/>
-      <c r="G37" s="361"/>
-      <c r="H37" s="361"/>
-      <c r="I37" s="361"/>
-      <c r="J37" s="361"/>
-      <c r="K37" s="361"/>
-      <c r="L37" s="361"/>
-      <c r="M37" s="361"/>
+      <c r="C37" s="363"/>
+      <c r="D37" s="364"/>
+      <c r="E37" s="364"/>
+      <c r="F37" s="364"/>
+      <c r="G37" s="364"/>
+      <c r="H37" s="364"/>
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="364"/>
+      <c r="L37" s="364"/>
+      <c r="M37" s="364"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="13"/>
@@ -15774,7 +15860,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="297" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D38" s="298"/>
       <c r="E38" s="298"/>
@@ -15793,7 +15879,7 @@
         <v>231</v>
       </c>
       <c r="C39" s="297" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D39" s="298"/>
       <c r="E39" s="298"/>
@@ -15809,10 +15895,10 @@
     <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="75" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C40" s="297" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D40" s="298"/>
       <c r="E40" s="298"/>
@@ -15828,10 +15914,10 @@
     <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="75" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C41" s="297" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D41" s="298"/>
       <c r="E41" s="298"/>
@@ -15846,10 +15932,10 @@
     </row>
     <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B42" s="75" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C42" s="297" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D42" s="298"/>
       <c r="E42" s="298"/>
@@ -15864,10 +15950,10 @@
     </row>
     <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B43" s="81" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C43" s="297" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D43" s="298"/>
       <c r="E43" s="298"/>
@@ -15882,10 +15968,10 @@
     </row>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B44" s="81" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C44" s="297" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D44" s="298"/>
       <c r="E44" s="298"/>
@@ -15900,10 +15986,10 @@
     </row>
     <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B45" s="81" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C45" s="297" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D45" s="298"/>
       <c r="E45" s="298"/>
@@ -15918,10 +16004,10 @@
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B46" s="75" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C46" s="297" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D46" s="298"/>
       <c r="E46" s="298"/>
@@ -15949,7 +16035,7 @@
       <c r="M47" s="169"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="B48" s="368" t="s">
+      <c r="B48" s="338" t="s">
         <v>232</v>
       </c>
       <c r="C48" s="93" t="s">
@@ -15958,41 +16044,41 @@
     </row>
     <row r="49" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="369" t="s">
+      <c r="B49" s="339" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="370" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="371"/>
-      <c r="E49" s="371"/>
-      <c r="F49" s="371"/>
-      <c r="G49" s="372"/>
+      <c r="C49" s="377" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="378"/>
+      <c r="E49" s="378"/>
+      <c r="F49" s="378"/>
+      <c r="G49" s="379"/>
       <c r="H49" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="I49" s="373" t="s">
+      <c r="I49" s="340" t="s">
         <v>37</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="K49" s="374"/>
-      <c r="L49" s="375"/>
-      <c r="M49" s="376"/>
+      <c r="K49" s="371"/>
+      <c r="L49" s="372"/>
+      <c r="M49" s="373"/>
     </row>
     <row r="50" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="377" t="s">
-        <v>482</v>
-      </c>
-      <c r="C50" s="349" t="s">
-        <v>497</v>
-      </c>
-      <c r="D50" s="351"/>
-      <c r="E50" s="351"/>
-      <c r="F50" s="351"/>
-      <c r="G50" s="352"/>
+      <c r="B50" s="341" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" s="365" t="s">
+        <v>488</v>
+      </c>
+      <c r="D50" s="366"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="366"/>
+      <c r="G50" s="367"/>
       <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
@@ -16002,22 +16088,22 @@
       <c r="J50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K50" s="343"/>
-      <c r="L50" s="344"/>
-      <c r="M50" s="378"/>
+      <c r="K50" s="380"/>
+      <c r="L50" s="381"/>
+      <c r="M50" s="382"/>
     </row>
     <row r="51" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="379" t="s">
-        <v>494</v>
-      </c>
-      <c r="C51" s="346" t="s">
-        <v>495</v>
-      </c>
-      <c r="D51" s="347"/>
-      <c r="E51" s="347"/>
-      <c r="F51" s="347"/>
-      <c r="G51" s="348"/>
+      <c r="B51" s="342" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51" s="368" t="s">
+        <v>486</v>
+      </c>
+      <c r="D51" s="369"/>
+      <c r="E51" s="369"/>
+      <c r="F51" s="369"/>
+      <c r="G51" s="370"/>
       <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
@@ -16027,22 +16113,22 @@
       <c r="J51" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K51" s="343"/>
-      <c r="L51" s="344"/>
-      <c r="M51" s="378"/>
+      <c r="K51" s="380"/>
+      <c r="L51" s="381"/>
+      <c r="M51" s="382"/>
     </row>
     <row r="52" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="379" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="346" t="s">
-        <v>496</v>
-      </c>
-      <c r="D52" s="347"/>
-      <c r="E52" s="347"/>
-      <c r="F52" s="347"/>
-      <c r="G52" s="348"/>
+      <c r="B52" s="342" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="368" t="s">
+        <v>487</v>
+      </c>
+      <c r="D52" s="369"/>
+      <c r="E52" s="369"/>
+      <c r="F52" s="369"/>
+      <c r="G52" s="370"/>
       <c r="H52" s="12" t="s">
         <v>234</v>
       </c>
@@ -16052,11 +16138,11 @@
       <c r="J52" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K52" s="343">
+      <c r="K52" s="380">
         <v>1</v>
       </c>
-      <c r="L52" s="344"/>
-      <c r="M52" s="378"/>
+      <c r="L52" s="381"/>
+      <c r="M52" s="382"/>
     </row>
     <row r="53" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
@@ -16070,7 +16156,7 @@
         <v>238</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="17.100000000000001" customHeight="1">
@@ -16104,24 +16190,24 @@
         <v>1</v>
       </c>
       <c r="C56" s="294" t="s">
-        <v>519</v>
-      </c>
-      <c r="D56" s="341" t="s">
-        <v>492</v>
-      </c>
-      <c r="E56" s="354"/>
-      <c r="F56" s="354"/>
-      <c r="G56" s="354"/>
-      <c r="H56" s="354"/>
-      <c r="I56" s="355"/>
-      <c r="J56" s="338" t="s">
-        <v>493</v>
-      </c>
-      <c r="K56" s="340"/>
-      <c r="L56" s="341" t="s">
-        <v>481</v>
-      </c>
-      <c r="M56" s="340"/>
+        <v>510</v>
+      </c>
+      <c r="D56" s="349" t="s">
+        <v>483</v>
+      </c>
+      <c r="E56" s="356"/>
+      <c r="F56" s="356"/>
+      <c r="G56" s="356"/>
+      <c r="H56" s="356"/>
+      <c r="I56" s="357"/>
+      <c r="J56" s="352" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" s="355"/>
+      <c r="L56" s="349" t="s">
+        <v>472</v>
+      </c>
+      <c r="M56" s="355"/>
     </row>
     <row r="57" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="13"/>
@@ -16129,18 +16215,18 @@
         <v>2</v>
       </c>
       <c r="C57" s="294" t="s">
-        <v>520</v>
-      </c>
-      <c r="D57" s="349" t="s">
-        <v>282</v>
-      </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="351"/>
-      <c r="I57" s="352"/>
-      <c r="J57" s="338"/>
-      <c r="K57" s="340"/>
+        <v>511</v>
+      </c>
+      <c r="D57" s="365" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" s="366"/>
+      <c r="F57" s="366"/>
+      <c r="G57" s="366"/>
+      <c r="H57" s="366"/>
+      <c r="I57" s="367"/>
+      <c r="J57" s="352"/>
+      <c r="K57" s="355"/>
       <c r="L57" s="300"/>
       <c r="M57" s="303"/>
     </row>
@@ -16150,22 +16236,22 @@
         <v>3</v>
       </c>
       <c r="C58" s="294" t="s">
-        <v>469</v>
-      </c>
-      <c r="D58" s="341" t="s">
-        <v>531</v>
-      </c>
-      <c r="E58" s="354"/>
-      <c r="F58" s="354"/>
-      <c r="G58" s="354"/>
-      <c r="H58" s="354"/>
-      <c r="I58" s="355"/>
-      <c r="J58" s="338"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="341" t="s">
-        <v>488</v>
-      </c>
-      <c r="M58" s="356"/>
+        <v>460</v>
+      </c>
+      <c r="D58" s="349" t="s">
+        <v>522</v>
+      </c>
+      <c r="E58" s="356"/>
+      <c r="F58" s="356"/>
+      <c r="G58" s="356"/>
+      <c r="H58" s="356"/>
+      <c r="I58" s="357"/>
+      <c r="J58" s="352"/>
+      <c r="K58" s="355"/>
+      <c r="L58" s="349" t="s">
+        <v>479</v>
+      </c>
+      <c r="M58" s="354"/>
       <c r="N58" s="70"/>
     </row>
     <row r="59" spans="1:21" ht="17.100000000000001" customHeight="1">
@@ -16174,30 +16260,30 @@
         <v>4</v>
       </c>
       <c r="C59" s="294" t="s">
-        <v>472</v>
-      </c>
-      <c r="D59" s="341" t="s">
-        <v>281</v>
+        <v>463</v>
+      </c>
+      <c r="D59" s="349" t="s">
+        <v>276</v>
       </c>
       <c r="E59" s="350"/>
       <c r="F59" s="350"/>
       <c r="G59" s="350"/>
       <c r="H59" s="350"/>
-      <c r="I59" s="342"/>
-      <c r="J59" s="338" t="s">
+      <c r="I59" s="351"/>
+      <c r="J59" s="352" t="s">
+        <v>471</v>
+      </c>
+      <c r="K59" s="355"/>
+      <c r="L59" s="349" t="s">
         <v>480</v>
       </c>
-      <c r="K59" s="340"/>
-      <c r="L59" s="341" t="s">
-        <v>489</v>
-      </c>
-      <c r="M59" s="356"/>
-      <c r="P59" s="366"/>
-      <c r="Q59" s="367"/>
-      <c r="R59" s="367"/>
-      <c r="S59" s="367"/>
-      <c r="T59" s="367"/>
-      <c r="U59" s="367"/>
+      <c r="M59" s="354"/>
+      <c r="P59" s="358"/>
+      <c r="Q59" s="359"/>
+      <c r="R59" s="359"/>
+      <c r="S59" s="359"/>
+      <c r="T59" s="359"/>
+      <c r="U59" s="359"/>
     </row>
     <row r="60" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13"/>
@@ -16205,22 +16291,22 @@
         <v>5</v>
       </c>
       <c r="C60" s="294" t="s">
-        <v>521</v>
-      </c>
-      <c r="D60" s="341" t="s">
-        <v>507</v>
-      </c>
-      <c r="E60" s="353"/>
-      <c r="F60" s="353"/>
-      <c r="G60" s="353"/>
-      <c r="H60" s="353"/>
-      <c r="I60" s="339"/>
+        <v>512</v>
+      </c>
+      <c r="D60" s="349" t="s">
+        <v>498</v>
+      </c>
+      <c r="E60" s="376"/>
+      <c r="F60" s="376"/>
+      <c r="G60" s="376"/>
+      <c r="H60" s="376"/>
+      <c r="I60" s="353"/>
       <c r="J60" s="302" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K60" s="173"/>
       <c r="L60" s="300" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M60" s="172"/>
     </row>
@@ -16230,24 +16316,24 @@
         <v>6</v>
       </c>
       <c r="C61" s="294" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D61" s="300" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E61" s="305"/>
       <c r="F61" s="305"/>
       <c r="G61" s="305"/>
       <c r="H61" s="305"/>
       <c r="I61" s="306"/>
-      <c r="J61" s="338" t="s">
-        <v>500</v>
-      </c>
-      <c r="K61" s="339"/>
-      <c r="L61" s="341" t="s">
-        <v>481</v>
-      </c>
-      <c r="M61" s="340"/>
+      <c r="J61" s="352" t="s">
+        <v>491</v>
+      </c>
+      <c r="K61" s="353"/>
+      <c r="L61" s="349" t="s">
+        <v>472</v>
+      </c>
+      <c r="M61" s="355"/>
     </row>
     <row r="62" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13"/>
@@ -16255,24 +16341,24 @@
         <v>7</v>
       </c>
       <c r="C62" s="294" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D62" s="300" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E62" s="305"/>
       <c r="F62" s="305"/>
       <c r="G62" s="305"/>
       <c r="H62" s="305"/>
       <c r="I62" s="306"/>
-      <c r="J62" s="338" t="s">
-        <v>505</v>
-      </c>
-      <c r="K62" s="339"/>
-      <c r="L62" s="341" t="s">
-        <v>481</v>
-      </c>
-      <c r="M62" s="340"/>
+      <c r="J62" s="352" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" s="353"/>
+      <c r="L62" s="349" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" s="355"/>
     </row>
     <row r="63" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
@@ -16280,24 +16366,24 @@
         <v>8</v>
       </c>
       <c r="C63" s="294" t="s">
-        <v>524</v>
-      </c>
-      <c r="D63" s="341" t="s">
-        <v>504</v>
+        <v>515</v>
+      </c>
+      <c r="D63" s="349" t="s">
+        <v>495</v>
       </c>
       <c r="E63" s="350"/>
       <c r="F63" s="350"/>
       <c r="G63" s="350"/>
       <c r="H63" s="350"/>
-      <c r="I63" s="342"/>
-      <c r="J63" s="338" t="s">
-        <v>506</v>
-      </c>
-      <c r="K63" s="339"/>
-      <c r="L63" s="341" t="s">
-        <v>481</v>
-      </c>
-      <c r="M63" s="340"/>
+      <c r="I63" s="351"/>
+      <c r="J63" s="352" t="s">
+        <v>497</v>
+      </c>
+      <c r="K63" s="353"/>
+      <c r="L63" s="349" t="s">
+        <v>472</v>
+      </c>
+      <c r="M63" s="355"/>
     </row>
     <row r="64" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
@@ -16305,16 +16391,16 @@
         <v>9</v>
       </c>
       <c r="C64" s="294" t="s">
-        <v>525</v>
-      </c>
-      <c r="D64" s="341" t="s">
-        <v>483</v>
-      </c>
-      <c r="E64" s="354"/>
-      <c r="F64" s="354"/>
-      <c r="G64" s="354"/>
-      <c r="H64" s="354"/>
-      <c r="I64" s="355"/>
+        <v>516</v>
+      </c>
+      <c r="D64" s="349" t="s">
+        <v>474</v>
+      </c>
+      <c r="E64" s="356"/>
+      <c r="F64" s="356"/>
+      <c r="G64" s="356"/>
+      <c r="H64" s="356"/>
+      <c r="I64" s="357"/>
       <c r="J64" s="302"/>
       <c r="K64" s="304"/>
       <c r="L64" s="300"/>
@@ -16326,24 +16412,24 @@
         <v>10</v>
       </c>
       <c r="C65" s="294" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" s="349" t="s">
         <v>476</v>
-      </c>
-      <c r="D65" s="341" t="s">
-        <v>485</v>
       </c>
       <c r="E65" s="350"/>
       <c r="F65" s="350"/>
       <c r="G65" s="350"/>
       <c r="H65" s="350"/>
-      <c r="I65" s="342"/>
-      <c r="J65" s="338" t="s">
-        <v>484</v>
-      </c>
-      <c r="K65" s="339"/>
-      <c r="L65" s="341" t="s">
-        <v>490</v>
-      </c>
-      <c r="M65" s="356"/>
+      <c r="I65" s="351"/>
+      <c r="J65" s="352" t="s">
+        <v>475</v>
+      </c>
+      <c r="K65" s="353"/>
+      <c r="L65" s="349" t="s">
+        <v>481</v>
+      </c>
+      <c r="M65" s="354"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
@@ -16351,24 +16437,24 @@
         <v>11</v>
       </c>
       <c r="C66" s="294" t="s">
-        <v>526</v>
-      </c>
-      <c r="D66" s="341" t="s">
-        <v>499</v>
+        <v>517</v>
+      </c>
+      <c r="D66" s="349" t="s">
+        <v>490</v>
       </c>
       <c r="E66" s="350"/>
       <c r="F66" s="350"/>
       <c r="G66" s="350"/>
       <c r="H66" s="350"/>
-      <c r="I66" s="342"/>
-      <c r="J66" s="338" t="s">
-        <v>501</v>
-      </c>
-      <c r="K66" s="339"/>
-      <c r="L66" s="341" t="s">
-        <v>502</v>
-      </c>
-      <c r="M66" s="340"/>
+      <c r="I66" s="351"/>
+      <c r="J66" s="352" t="s">
+        <v>492</v>
+      </c>
+      <c r="K66" s="353"/>
+      <c r="L66" s="349" t="s">
+        <v>493</v>
+      </c>
+      <c r="M66" s="355"/>
     </row>
     <row r="67" spans="1:15" ht="30" customHeight="1">
       <c r="A67" s="13"/>
@@ -16376,24 +16462,24 @@
         <v>12</v>
       </c>
       <c r="C67" s="294" t="s">
-        <v>477</v>
-      </c>
-      <c r="D67" s="341" t="s">
-        <v>278</v>
+        <v>468</v>
+      </c>
+      <c r="D67" s="349" t="s">
+        <v>274</v>
       </c>
       <c r="E67" s="350"/>
       <c r="F67" s="350"/>
       <c r="G67" s="350"/>
       <c r="H67" s="350"/>
-      <c r="I67" s="342"/>
-      <c r="J67" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="K67" s="339"/>
-      <c r="L67" s="341" t="s">
-        <v>487</v>
-      </c>
-      <c r="M67" s="356"/>
+      <c r="I67" s="351"/>
+      <c r="J67" s="352" t="s">
+        <v>477</v>
+      </c>
+      <c r="K67" s="353"/>
+      <c r="L67" s="349" t="s">
+        <v>478</v>
+      </c>
+      <c r="M67" s="354"/>
     </row>
     <row r="68" spans="1:15" ht="24" customHeight="1">
       <c r="A68" s="13"/>
@@ -16401,33 +16487,33 @@
         <v>13</v>
       </c>
       <c r="C68" s="294" t="s">
-        <v>527</v>
-      </c>
-      <c r="D68" s="341" t="s">
-        <v>288</v>
+        <v>518</v>
+      </c>
+      <c r="D68" s="349" t="s">
+        <v>279</v>
       </c>
       <c r="E68" s="350"/>
       <c r="F68" s="350"/>
       <c r="G68" s="350"/>
       <c r="H68" s="350"/>
-      <c r="I68" s="342"/>
-      <c r="J68" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="K68" s="339"/>
-      <c r="L68" s="341" t="s">
-        <v>491</v>
-      </c>
-      <c r="M68" s="356"/>
+      <c r="I68" s="351"/>
+      <c r="J68" s="352" t="s">
+        <v>477</v>
+      </c>
+      <c r="K68" s="353"/>
+      <c r="L68" s="349" t="s">
+        <v>482</v>
+      </c>
+      <c r="M68" s="354"/>
     </row>
     <row r="69" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="13"/>
       <c r="B70" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -16441,16 +16527,16 @@
       <c r="H71" s="124"/>
       <c r="I71" s="124"/>
       <c r="J71" s="125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K71" s="125" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L71" s="125" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M71" s="125" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N71" s="126"/>
       <c r="O71" s="16"/>
@@ -16458,17 +16544,17 @@
     <row r="72" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="75" t="s">
-        <v>538</v>
-      </c>
-      <c r="C72" s="346" t="s">
-        <v>542</v>
-      </c>
-      <c r="D72" s="347"/>
-      <c r="E72" s="347"/>
-      <c r="F72" s="347"/>
-      <c r="G72" s="347"/>
-      <c r="H72" s="347"/>
-      <c r="I72" s="348"/>
+        <v>529</v>
+      </c>
+      <c r="C72" s="368" t="s">
+        <v>533</v>
+      </c>
+      <c r="D72" s="369"/>
+      <c r="E72" s="369"/>
+      <c r="F72" s="369"/>
+      <c r="G72" s="369"/>
+      <c r="H72" s="369"/>
+      <c r="I72" s="370"/>
       <c r="J72" s="75"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
@@ -16478,20 +16564,20 @@
     </row>
     <row r="73" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>519</v>
-      </c>
-      <c r="C73" s="346" t="s">
-        <v>543</v>
-      </c>
-      <c r="D73" s="347"/>
-      <c r="E73" s="347"/>
-      <c r="F73" s="347"/>
-      <c r="G73" s="347"/>
-      <c r="H73" s="347"/>
-      <c r="I73" s="348"/>
+        <v>510</v>
+      </c>
+      <c r="C73" s="368" t="s">
+        <v>534</v>
+      </c>
+      <c r="D73" s="369"/>
+      <c r="E73" s="369"/>
+      <c r="F73" s="369"/>
+      <c r="G73" s="369"/>
+      <c r="H73" s="369"/>
+      <c r="I73" s="370"/>
       <c r="J73" s="75"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -16502,17 +16588,17 @@
     <row r="74" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="75" t="s">
-        <v>544</v>
-      </c>
-      <c r="C74" s="349" t="s">
-        <v>545</v>
-      </c>
-      <c r="D74" s="347"/>
-      <c r="E74" s="347"/>
-      <c r="F74" s="347"/>
-      <c r="G74" s="347"/>
-      <c r="H74" s="347"/>
-      <c r="I74" s="348"/>
+        <v>535</v>
+      </c>
+      <c r="C74" s="365" t="s">
+        <v>536</v>
+      </c>
+      <c r="D74" s="369"/>
+      <c r="E74" s="369"/>
+      <c r="F74" s="369"/>
+      <c r="G74" s="369"/>
+      <c r="H74" s="369"/>
+      <c r="I74" s="370"/>
       <c r="J74" s="75"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -16526,7 +16612,7 @@
     <row r="76" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A76" s="13"/>
       <c r="B76" s="99" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C76" s="100"/>
       <c r="D76" s="101"/>
@@ -16915,6 +17001,46 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C73:I73"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
     <mergeCell ref="D67:I67"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:K68"/>
@@ -16922,48 +17048,8 @@
     <mergeCell ref="D66:I66"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="L66:M66"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C37:M37"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="C72:I72"/>
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="L67:M67"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
@@ -16998,11 +17084,11 @@
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:A5"/>
       <selection pane="topRight" sqref="A1:A5"/>
       <selection pane="bottomLeft" sqref="A1:A5"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="L59:M59"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -17024,7 +17110,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="345" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -17035,7 +17121,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="335"/>
+      <c r="A2" s="346"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -17046,18 +17132,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="335"/>
+      <c r="A3" s="346"/>
       <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="335"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="336"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -17072,10 +17158,10 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="357" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="358"/>
+      <c r="C6" s="360" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="361"/>
       <c r="E6" s="150" t="str">
         <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE))</f>
         <v>상품 등록 및 수정</v>
@@ -17116,7 +17202,7 @@
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B8" s="284"/>
       <c r="C8" s="292" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D8" s="288"/>
       <c r="E8" s="281"/>
@@ -17162,8 +17248,8 @@
     <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="13"/>
       <c r="B11" s="273"/>
-      <c r="C11" s="362"/>
-      <c r="D11" s="362"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="384"/>
       <c r="E11" s="274"/>
       <c r="F11" s="274"/>
       <c r="G11" s="274"/>
@@ -17173,7 +17259,7 @@
       <c r="A12" s="13"/>
       <c r="B12" s="273"/>
       <c r="C12" s="314" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D12" s="317"/>
       <c r="E12" s="318"/>
@@ -17198,7 +17284,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="273"/>
       <c r="C14" s="315" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D14" s="322"/>
       <c r="E14" s="323"/>
@@ -17297,7 +17383,7 @@
       <c r="A21" s="13"/>
       <c r="B21" s="273"/>
       <c r="C21" s="316" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D21" s="317"/>
       <c r="E21" s="318"/>
@@ -17331,7 +17417,7 @@
       <c r="A23" s="13"/>
       <c r="B23" s="273"/>
       <c r="C23" s="316" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D23" s="317"/>
       <c r="E23" s="318"/>
@@ -17365,7 +17451,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="273"/>
       <c r="C25" s="316" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D25" s="317"/>
       <c r="E25" s="318"/>
@@ -17399,7 +17485,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="273"/>
       <c r="C27" s="316" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D27" s="317"/>
       <c r="E27" s="318"/>
@@ -17433,10 +17519,10 @@
       <c r="A29" s="13"/>
       <c r="B29" s="273"/>
       <c r="C29" s="316" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D29" s="317" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E29" s="318"/>
       <c r="F29" s="318"/>
@@ -17454,7 +17540,7 @@
       <c r="B30" s="273"/>
       <c r="C30" s="274"/>
       <c r="D30" s="317" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E30" s="318"/>
       <c r="F30" s="318"/>
@@ -17472,7 +17558,7 @@
       <c r="B31" s="273"/>
       <c r="C31" s="274"/>
       <c r="D31" s="317" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E31" s="318"/>
       <c r="F31" s="318"/>
@@ -17490,7 +17576,7 @@
       <c r="B32" s="273"/>
       <c r="C32" s="274"/>
       <c r="D32" s="317" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E32" s="318"/>
       <c r="F32" s="318"/>
@@ -17618,17 +17704,17 @@
       <c r="B40" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="360"/>
-      <c r="D40" s="361"/>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
-      <c r="G40" s="361"/>
-      <c r="H40" s="361"/>
-      <c r="I40" s="361"/>
-      <c r="J40" s="361"/>
-      <c r="K40" s="361"/>
-      <c r="L40" s="361"/>
-      <c r="M40" s="361"/>
+      <c r="C40" s="363"/>
+      <c r="D40" s="364"/>
+      <c r="E40" s="364"/>
+      <c r="F40" s="364"/>
+      <c r="G40" s="364"/>
+      <c r="H40" s="364"/>
+      <c r="I40" s="364"/>
+      <c r="J40" s="364"/>
+      <c r="K40" s="364"/>
+      <c r="L40" s="364"/>
+      <c r="M40" s="364"/>
     </row>
     <row r="41" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13"/>
@@ -17636,7 +17722,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D41" s="235"/>
       <c r="E41" s="235"/>
@@ -17652,10 +17738,10 @@
     <row r="42" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="75" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C42" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D42" s="235"/>
       <c r="E42" s="235"/>
@@ -17671,10 +17757,10 @@
     <row r="43" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="75" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C43" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D43" s="235"/>
       <c r="E43" s="235"/>
@@ -17690,10 +17776,10 @@
     <row r="44" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="75" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C44" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D44" s="235"/>
       <c r="E44" s="235"/>
@@ -17733,13 +17819,13 @@
       <c r="B47" s="233" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="346" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="347"/>
-      <c r="E47" s="347"/>
-      <c r="F47" s="347"/>
-      <c r="G47" s="348"/>
+      <c r="C47" s="368" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="369"/>
+      <c r="E47" s="369"/>
+      <c r="F47" s="369"/>
+      <c r="G47" s="370"/>
       <c r="H47" s="12" t="s">
         <v>18</v>
       </c>
@@ -17749,22 +17835,22 @@
       <c r="J47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="343"/>
-      <c r="L47" s="344"/>
-      <c r="M47" s="345"/>
+      <c r="K47" s="380"/>
+      <c r="L47" s="381"/>
+      <c r="M47" s="383"/>
     </row>
     <row r="48" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="296" t="s">
-        <v>512</v>
-      </c>
-      <c r="C48" s="346" t="s">
-        <v>532</v>
-      </c>
-      <c r="D48" s="347"/>
-      <c r="E48" s="347"/>
-      <c r="F48" s="347"/>
-      <c r="G48" s="348"/>
+        <v>503</v>
+      </c>
+      <c r="C48" s="368" t="s">
+        <v>523</v>
+      </c>
+      <c r="D48" s="369"/>
+      <c r="E48" s="369"/>
+      <c r="F48" s="369"/>
+      <c r="G48" s="370"/>
       <c r="H48" s="12" t="s">
         <v>18</v>
       </c>
@@ -17774,22 +17860,22 @@
       <c r="J48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="343"/>
-      <c r="L48" s="344"/>
-      <c r="M48" s="345"/>
+      <c r="K48" s="380"/>
+      <c r="L48" s="381"/>
+      <c r="M48" s="383"/>
     </row>
     <row r="49" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="296" t="s">
-        <v>514</v>
-      </c>
-      <c r="C49" s="346" t="s">
-        <v>535</v>
-      </c>
-      <c r="D49" s="347"/>
-      <c r="E49" s="347"/>
-      <c r="F49" s="347"/>
-      <c r="G49" s="348"/>
+        <v>505</v>
+      </c>
+      <c r="C49" s="368" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="369"/>
+      <c r="E49" s="369"/>
+      <c r="F49" s="369"/>
+      <c r="G49" s="370"/>
       <c r="H49" s="12" t="s">
         <v>18</v>
       </c>
@@ -17799,22 +17885,22 @@
       <c r="J49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="343"/>
-      <c r="L49" s="344"/>
-      <c r="M49" s="345"/>
+      <c r="K49" s="380"/>
+      <c r="L49" s="381"/>
+      <c r="M49" s="383"/>
     </row>
     <row r="50" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="296" t="s">
-        <v>513</v>
-      </c>
-      <c r="C50" s="346" t="s">
-        <v>532</v>
-      </c>
-      <c r="D50" s="347"/>
-      <c r="E50" s="347"/>
-      <c r="F50" s="347"/>
-      <c r="G50" s="348"/>
+        <v>504</v>
+      </c>
+      <c r="C50" s="368" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" s="369"/>
+      <c r="E50" s="369"/>
+      <c r="F50" s="369"/>
+      <c r="G50" s="370"/>
       <c r="H50" s="12" t="s">
         <v>18</v>
       </c>
@@ -17824,22 +17910,22 @@
       <c r="J50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="343"/>
-      <c r="L50" s="344"/>
-      <c r="M50" s="345"/>
+      <c r="K50" s="380"/>
+      <c r="L50" s="381"/>
+      <c r="M50" s="383"/>
     </row>
     <row r="51" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="296" t="s">
-        <v>515</v>
-      </c>
-      <c r="C51" s="346" t="s">
-        <v>532</v>
-      </c>
-      <c r="D51" s="347"/>
-      <c r="E51" s="347"/>
-      <c r="F51" s="347"/>
-      <c r="G51" s="348"/>
+        <v>506</v>
+      </c>
+      <c r="C51" s="368" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" s="369"/>
+      <c r="E51" s="369"/>
+      <c r="F51" s="369"/>
+      <c r="G51" s="370"/>
       <c r="H51" s="12" t="s">
         <v>18</v>
       </c>
@@ -17849,24 +17935,24 @@
       <c r="J51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="343">
+      <c r="K51" s="380">
         <v>0</v>
       </c>
-      <c r="L51" s="344"/>
-      <c r="M51" s="345"/>
+      <c r="L51" s="381"/>
+      <c r="M51" s="383"/>
     </row>
     <row r="52" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="296" t="s">
-        <v>516</v>
-      </c>
-      <c r="C52" s="346" t="s">
-        <v>532</v>
-      </c>
-      <c r="D52" s="347"/>
-      <c r="E52" s="347"/>
-      <c r="F52" s="347"/>
-      <c r="G52" s="348"/>
+        <v>507</v>
+      </c>
+      <c r="C52" s="368" t="s">
+        <v>523</v>
+      </c>
+      <c r="D52" s="369"/>
+      <c r="E52" s="369"/>
+      <c r="F52" s="369"/>
+      <c r="G52" s="370"/>
       <c r="H52" s="12" t="s">
         <v>18</v>
       </c>
@@ -17876,24 +17962,24 @@
       <c r="J52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="343">
+      <c r="K52" s="380">
         <v>0</v>
       </c>
-      <c r="L52" s="344"/>
-      <c r="M52" s="345"/>
+      <c r="L52" s="381"/>
+      <c r="M52" s="383"/>
     </row>
     <row r="53" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="296" t="s">
-        <v>517</v>
-      </c>
-      <c r="C53" s="346" t="s">
-        <v>532</v>
-      </c>
-      <c r="D53" s="347"/>
-      <c r="E53" s="347"/>
-      <c r="F53" s="347"/>
-      <c r="G53" s="348"/>
+        <v>508</v>
+      </c>
+      <c r="C53" s="368" t="s">
+        <v>523</v>
+      </c>
+      <c r="D53" s="369"/>
+      <c r="E53" s="369"/>
+      <c r="F53" s="369"/>
+      <c r="G53" s="370"/>
       <c r="H53" s="12" t="s">
         <v>18</v>
       </c>
@@ -17903,22 +17989,22 @@
       <c r="J53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="343"/>
-      <c r="L53" s="344"/>
-      <c r="M53" s="345"/>
+      <c r="K53" s="380"/>
+      <c r="L53" s="381"/>
+      <c r="M53" s="383"/>
     </row>
     <row r="54" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="84" t="s">
-        <v>533</v>
-      </c>
-      <c r="C54" s="346" t="s">
-        <v>536</v>
-      </c>
-      <c r="D54" s="347"/>
-      <c r="E54" s="347"/>
-      <c r="F54" s="347"/>
-      <c r="G54" s="348"/>
+        <v>524</v>
+      </c>
+      <c r="C54" s="368" t="s">
+        <v>527</v>
+      </c>
+      <c r="D54" s="369"/>
+      <c r="E54" s="369"/>
+      <c r="F54" s="369"/>
+      <c r="G54" s="370"/>
       <c r="H54" s="12" t="s">
         <v>18</v>
       </c>
@@ -17928,9 +18014,9 @@
       <c r="J54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="343"/>
-      <c r="L54" s="344"/>
-      <c r="M54" s="345"/>
+      <c r="K54" s="380"/>
+      <c r="L54" s="381"/>
+      <c r="M54" s="383"/>
     </row>
     <row r="55" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="13"/>
@@ -17944,7 +18030,7 @@
         <v>21</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -17978,22 +18064,22 @@
         <v>1</v>
       </c>
       <c r="C58" s="294" t="s">
-        <v>528</v>
-      </c>
-      <c r="D58" s="341" t="s">
-        <v>548</v>
-      </c>
-      <c r="E58" s="354"/>
-      <c r="F58" s="354"/>
-      <c r="G58" s="354"/>
-      <c r="H58" s="354"/>
-      <c r="I58" s="355"/>
-      <c r="J58" s="338"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="341" t="s">
-        <v>549</v>
-      </c>
-      <c r="M58" s="340"/>
+        <v>519</v>
+      </c>
+      <c r="D58" s="349" t="s">
+        <v>539</v>
+      </c>
+      <c r="E58" s="356"/>
+      <c r="F58" s="356"/>
+      <c r="G58" s="356"/>
+      <c r="H58" s="356"/>
+      <c r="I58" s="357"/>
+      <c r="J58" s="352"/>
+      <c r="K58" s="355"/>
+      <c r="L58" s="349" t="s">
+        <v>540</v>
+      </c>
+      <c r="M58" s="355"/>
     </row>
     <row r="59" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="13"/>
@@ -18001,24 +18087,24 @@
         <v>2</v>
       </c>
       <c r="C59" s="294" t="s">
-        <v>529</v>
-      </c>
-      <c r="D59" s="341" t="s">
-        <v>530</v>
+        <v>520</v>
+      </c>
+      <c r="D59" s="349" t="s">
+        <v>521</v>
       </c>
       <c r="E59" s="350"/>
       <c r="F59" s="350"/>
       <c r="G59" s="350"/>
       <c r="H59" s="350"/>
-      <c r="I59" s="342"/>
-      <c r="J59" s="338" t="s">
-        <v>534</v>
-      </c>
-      <c r="K59" s="340"/>
-      <c r="L59" s="341" t="s">
-        <v>550</v>
-      </c>
-      <c r="M59" s="356"/>
+      <c r="I59" s="351"/>
+      <c r="J59" s="352" t="s">
+        <v>525</v>
+      </c>
+      <c r="K59" s="355"/>
+      <c r="L59" s="349" t="s">
+        <v>541</v>
+      </c>
+      <c r="M59" s="354"/>
     </row>
     <row r="60" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="61" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -18027,7 +18113,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -18047,7 +18133,7 @@
         <v>25</v>
       </c>
       <c r="L62" s="125" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M62" s="125" t="s">
         <v>53</v>
@@ -18058,17 +18144,17 @@
     <row r="63" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="75" t="s">
-        <v>514</v>
-      </c>
-      <c r="C63" s="346" t="s">
-        <v>546</v>
-      </c>
-      <c r="D63" s="347"/>
-      <c r="E63" s="347"/>
-      <c r="F63" s="347"/>
-      <c r="G63" s="347"/>
-      <c r="H63" s="347"/>
-      <c r="I63" s="348"/>
+        <v>505</v>
+      </c>
+      <c r="C63" s="368" t="s">
+        <v>537</v>
+      </c>
+      <c r="D63" s="369"/>
+      <c r="E63" s="369"/>
+      <c r="F63" s="369"/>
+      <c r="G63" s="369"/>
+      <c r="H63" s="369"/>
+      <c r="I63" s="370"/>
       <c r="J63" s="75"/>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
@@ -18081,17 +18167,17 @@
         <v>13</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>533</v>
-      </c>
-      <c r="C64" s="346" t="s">
-        <v>537</v>
-      </c>
-      <c r="D64" s="347"/>
-      <c r="E64" s="347"/>
-      <c r="F64" s="347"/>
-      <c r="G64" s="347"/>
-      <c r="H64" s="347"/>
-      <c r="I64" s="348"/>
+        <v>524</v>
+      </c>
+      <c r="C64" s="368" t="s">
+        <v>528</v>
+      </c>
+      <c r="D64" s="369"/>
+      <c r="E64" s="369"/>
+      <c r="F64" s="369"/>
+      <c r="G64" s="369"/>
+      <c r="H64" s="369"/>
+      <c r="I64" s="370"/>
       <c r="J64" s="75"/>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
@@ -18102,17 +18188,17 @@
     <row r="65" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="75" t="s">
-        <v>538</v>
-      </c>
-      <c r="C65" s="349" t="s">
-        <v>539</v>
-      </c>
-      <c r="D65" s="347"/>
-      <c r="E65" s="347"/>
-      <c r="F65" s="347"/>
-      <c r="G65" s="347"/>
-      <c r="H65" s="347"/>
-      <c r="I65" s="348"/>
+        <v>529</v>
+      </c>
+      <c r="C65" s="365" t="s">
+        <v>530</v>
+      </c>
+      <c r="D65" s="369"/>
+      <c r="E65" s="369"/>
+      <c r="F65" s="369"/>
+      <c r="G65" s="369"/>
+      <c r="H65" s="369"/>
+      <c r="I65" s="370"/>
       <c r="J65" s="75"/>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
@@ -18126,7 +18212,7 @@
     <row r="67" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A67" s="13"/>
       <c r="B67" s="99" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C67" s="100"/>
       <c r="D67" s="101"/>
@@ -18515,35 +18601,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="K53:M53"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="K54:M54"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18571,12 +18657,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:A5"/>
       <selection pane="topRight" sqref="A1:A5"/>
       <selection pane="bottomLeft" sqref="A1:A5"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43:G43"/>
+      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -18598,7 +18684,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="345" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -18609,7 +18695,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="335"/>
+      <c r="A2" s="346"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -18620,18 +18706,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="335"/>
+      <c r="A3" s="346"/>
       <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="335"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="7" t="s">
         <v>228</v>
       </c>
       <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="336"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -18646,10 +18732,10 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="357" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="358"/>
+      <c r="C6" s="360" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="361"/>
       <c r="E6" s="150" t="str">
         <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE))</f>
         <v>옵션추가</v>
@@ -18735,7 +18821,7 @@
       <c r="B11" s="87"/>
       <c r="C11" s="307"/>
       <c r="D11" s="333" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
@@ -18767,18 +18853,18 @@
       <c r="B13" s="87"/>
       <c r="C13" s="308"/>
       <c r="D13" s="327" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E13" s="328"/>
       <c r="F13" s="329"/>
       <c r="G13" s="330" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H13" s="331" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="I13" s="332" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -18789,18 +18875,18 @@
       <c r="B14" s="87"/>
       <c r="C14" s="308"/>
       <c r="D14" s="327" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E14" s="328"/>
       <c r="F14" s="329"/>
       <c r="G14" s="330" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H14" s="331" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="I14" s="332" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -18812,18 +18898,18 @@
       <c r="B15" s="87"/>
       <c r="C15" s="308"/>
       <c r="D15" s="327" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E15" s="328"/>
       <c r="F15" s="329"/>
       <c r="G15" s="330" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H15" s="331" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="I15" s="332" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
@@ -18893,8 +18979,8 @@
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="359"/>
-      <c r="I19" s="359"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="362"/>
       <c r="J19" s="16"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -19111,17 +19197,17 @@
       <c r="B35" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="360"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="361"/>
-      <c r="G35" s="361"/>
-      <c r="H35" s="361"/>
-      <c r="I35" s="361"/>
-      <c r="J35" s="361"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="361"/>
-      <c r="M35" s="361"/>
+      <c r="C35" s="363"/>
+      <c r="D35" s="364"/>
+      <c r="E35" s="364"/>
+      <c r="F35" s="364"/>
+      <c r="G35" s="364"/>
+      <c r="H35" s="364"/>
+      <c r="I35" s="364"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="364"/>
+      <c r="L35" s="364"/>
+      <c r="M35" s="364"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
@@ -19129,7 +19215,7 @@
         <v>231</v>
       </c>
       <c r="C36" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D36" s="241"/>
       <c r="E36" s="241"/>
@@ -19145,10 +19231,10 @@
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="75" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C37" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D37" s="298"/>
       <c r="E37" s="298"/>
@@ -19164,10 +19250,10 @@
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="75" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C38" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D38" s="241"/>
       <c r="E38" s="241"/>
@@ -19183,10 +19269,10 @@
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="75" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C39" s="297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D39" s="241"/>
       <c r="E39" s="241"/>
@@ -19226,13 +19312,13 @@
       <c r="B42" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="346" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="347"/>
-      <c r="E42" s="347"/>
-      <c r="F42" s="347"/>
-      <c r="G42" s="348"/>
+      <c r="C42" s="368" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="369"/>
+      <c r="E42" s="369"/>
+      <c r="F42" s="369"/>
+      <c r="G42" s="370"/>
       <c r="H42" s="12" t="s">
         <v>234</v>
       </c>
@@ -19242,22 +19328,22 @@
       <c r="J42" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K42" s="343"/>
-      <c r="L42" s="344"/>
-      <c r="M42" s="345"/>
+      <c r="K42" s="380"/>
+      <c r="L42" s="381"/>
+      <c r="M42" s="383"/>
     </row>
     <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="296" t="s">
-        <v>553</v>
-      </c>
-      <c r="C43" s="349" t="s">
-        <v>532</v>
-      </c>
-      <c r="D43" s="351"/>
-      <c r="E43" s="351"/>
-      <c r="F43" s="351"/>
-      <c r="G43" s="352"/>
+        <v>544</v>
+      </c>
+      <c r="C43" s="365" t="s">
+        <v>523</v>
+      </c>
+      <c r="D43" s="366"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="366"/>
+      <c r="G43" s="367"/>
       <c r="H43" s="12" t="s">
         <v>234</v>
       </c>
@@ -19267,22 +19353,22 @@
       <c r="J43" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K43" s="343"/>
-      <c r="L43" s="344"/>
-      <c r="M43" s="345"/>
+      <c r="K43" s="380"/>
+      <c r="L43" s="381"/>
+      <c r="M43" s="383"/>
     </row>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="296" t="s">
-        <v>554</v>
-      </c>
-      <c r="C44" s="349" t="s">
-        <v>532</v>
-      </c>
-      <c r="D44" s="351"/>
-      <c r="E44" s="351"/>
-      <c r="F44" s="351"/>
-      <c r="G44" s="352"/>
+        <v>545</v>
+      </c>
+      <c r="C44" s="365" t="s">
+        <v>523</v>
+      </c>
+      <c r="D44" s="366"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="366"/>
+      <c r="G44" s="367"/>
       <c r="H44" s="12" t="s">
         <v>234</v>
       </c>
@@ -19292,22 +19378,22 @@
       <c r="J44" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K44" s="343"/>
-      <c r="L44" s="344"/>
-      <c r="M44" s="345"/>
+      <c r="K44" s="380"/>
+      <c r="L44" s="381"/>
+      <c r="M44" s="383"/>
     </row>
     <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="296" t="s">
-        <v>482</v>
-      </c>
-      <c r="C45" s="346" t="s">
-        <v>555</v>
-      </c>
-      <c r="D45" s="347"/>
-      <c r="E45" s="347"/>
-      <c r="F45" s="347"/>
-      <c r="G45" s="348"/>
+        <v>473</v>
+      </c>
+      <c r="C45" s="368" t="s">
+        <v>546</v>
+      </c>
+      <c r="D45" s="369"/>
+      <c r="E45" s="369"/>
+      <c r="F45" s="369"/>
+      <c r="G45" s="370"/>
       <c r="H45" s="12" t="s">
         <v>234</v>
       </c>
@@ -19317,37 +19403,43 @@
       <c r="J45" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K45" s="343"/>
-      <c r="L45" s="344"/>
-      <c r="M45" s="345"/>
+      <c r="K45" s="380"/>
+      <c r="L45" s="381"/>
+      <c r="M45" s="383"/>
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="240"/>
-      <c r="C46" s="346"/>
-      <c r="D46" s="347"/>
-      <c r="E46" s="347"/>
-      <c r="F46" s="347"/>
-      <c r="G46" s="348"/>
+      <c r="B46" s="336" t="s">
+        <v>555</v>
+      </c>
+      <c r="C46" s="368" t="s">
+        <v>556</v>
+      </c>
+      <c r="D46" s="369"/>
+      <c r="E46" s="369"/>
+      <c r="F46" s="369"/>
+      <c r="G46" s="370"/>
       <c r="H46" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I46" s="239"/>
+      <c r="I46" s="335" t="s">
+        <v>557</v>
+      </c>
       <c r="J46" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K46" s="343"/>
-      <c r="L46" s="344"/>
-      <c r="M46" s="345"/>
+      <c r="K46" s="380"/>
+      <c r="L46" s="381"/>
+      <c r="M46" s="383"/>
     </row>
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="240"/>
-      <c r="C47" s="346"/>
-      <c r="D47" s="347"/>
-      <c r="E47" s="347"/>
-      <c r="F47" s="347"/>
-      <c r="G47" s="348"/>
+      <c r="C47" s="368"/>
+      <c r="D47" s="369"/>
+      <c r="E47" s="369"/>
+      <c r="F47" s="369"/>
+      <c r="G47" s="370"/>
       <c r="H47" s="12" t="s">
         <v>234</v>
       </c>
@@ -19355,18 +19447,18 @@
       <c r="J47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K47" s="343"/>
-      <c r="L47" s="344"/>
-      <c r="M47" s="345"/>
+      <c r="K47" s="380"/>
+      <c r="L47" s="381"/>
+      <c r="M47" s="383"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="240"/>
-      <c r="C48" s="346"/>
-      <c r="D48" s="347"/>
-      <c r="E48" s="347"/>
-      <c r="F48" s="347"/>
-      <c r="G48" s="348"/>
+      <c r="C48" s="368"/>
+      <c r="D48" s="369"/>
+      <c r="E48" s="369"/>
+      <c r="F48" s="369"/>
+      <c r="G48" s="370"/>
       <c r="H48" s="12" t="s">
         <v>234</v>
       </c>
@@ -19374,18 +19466,18 @@
       <c r="J48" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K48" s="343"/>
-      <c r="L48" s="344"/>
-      <c r="M48" s="345"/>
+      <c r="K48" s="380"/>
+      <c r="L48" s="381"/>
+      <c r="M48" s="383"/>
     </row>
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="84"/>
-      <c r="C49" s="346"/>
-      <c r="D49" s="347"/>
-      <c r="E49" s="347"/>
-      <c r="F49" s="347"/>
-      <c r="G49" s="348"/>
+      <c r="C49" s="368"/>
+      <c r="D49" s="369"/>
+      <c r="E49" s="369"/>
+      <c r="F49" s="369"/>
+      <c r="G49" s="370"/>
       <c r="H49" s="12" t="s">
         <v>234</v>
       </c>
@@ -19393,18 +19485,18 @@
       <c r="J49" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K49" s="343"/>
-      <c r="L49" s="344"/>
-      <c r="M49" s="345"/>
+      <c r="K49" s="380"/>
+      <c r="L49" s="381"/>
+      <c r="M49" s="383"/>
     </row>
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="349"/>
-      <c r="D50" s="351"/>
-      <c r="E50" s="351"/>
-      <c r="F50" s="351"/>
-      <c r="G50" s="352"/>
+      <c r="C50" s="365"/>
+      <c r="D50" s="366"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="366"/>
+      <c r="G50" s="367"/>
       <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
@@ -19412,18 +19504,18 @@
       <c r="J50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K50" s="343"/>
-      <c r="L50" s="344"/>
-      <c r="M50" s="345"/>
+      <c r="K50" s="380"/>
+      <c r="L50" s="381"/>
+      <c r="M50" s="383"/>
     </row>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="224"/>
-      <c r="C51" s="346"/>
-      <c r="D51" s="347"/>
-      <c r="E51" s="347"/>
-      <c r="F51" s="347"/>
-      <c r="G51" s="348"/>
+      <c r="C51" s="368"/>
+      <c r="D51" s="369"/>
+      <c r="E51" s="369"/>
+      <c r="F51" s="369"/>
+      <c r="G51" s="370"/>
       <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
@@ -19431,18 +19523,18 @@
       <c r="J51" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K51" s="343"/>
-      <c r="L51" s="344"/>
-      <c r="M51" s="345"/>
+      <c r="K51" s="380"/>
+      <c r="L51" s="381"/>
+      <c r="M51" s="383"/>
     </row>
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="224"/>
-      <c r="C52" s="346"/>
-      <c r="D52" s="347"/>
-      <c r="E52" s="347"/>
-      <c r="F52" s="347"/>
-      <c r="G52" s="348"/>
+      <c r="C52" s="368"/>
+      <c r="D52" s="369"/>
+      <c r="E52" s="369"/>
+      <c r="F52" s="369"/>
+      <c r="G52" s="370"/>
       <c r="H52" s="12" t="s">
         <v>234</v>
       </c>
@@ -19450,18 +19542,18 @@
       <c r="J52" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K52" s="343"/>
-      <c r="L52" s="344"/>
-      <c r="M52" s="345"/>
+      <c r="K52" s="380"/>
+      <c r="L52" s="381"/>
+      <c r="M52" s="383"/>
     </row>
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="224"/>
-      <c r="C53" s="346"/>
-      <c r="D53" s="347"/>
-      <c r="E53" s="347"/>
-      <c r="F53" s="347"/>
-      <c r="G53" s="348"/>
+      <c r="C53" s="368"/>
+      <c r="D53" s="369"/>
+      <c r="E53" s="369"/>
+      <c r="F53" s="369"/>
+      <c r="G53" s="370"/>
       <c r="H53" s="12" t="s">
         <v>234</v>
       </c>
@@ -19469,9 +19561,9 @@
       <c r="J53" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K53" s="343"/>
-      <c r="L53" s="344"/>
-      <c r="M53" s="345"/>
+      <c r="K53" s="380"/>
+      <c r="L53" s="381"/>
+      <c r="M53" s="383"/>
     </row>
     <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="13"/>
@@ -19485,7 +19577,7 @@
         <v>238</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
@@ -19513,100 +19605,98 @@
       </c>
       <c r="M56" s="121"/>
     </row>
-    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:13" ht="27" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="84">
         <v>1</v>
       </c>
-      <c r="C57" s="238"/>
-      <c r="D57" s="341" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57" s="354"/>
-      <c r="F57" s="354"/>
-      <c r="G57" s="354"/>
-      <c r="H57" s="354"/>
-      <c r="I57" s="355"/>
-      <c r="J57" s="338"/>
-      <c r="K57" s="340"/>
-      <c r="L57" s="341"/>
-      <c r="M57" s="340"/>
+      <c r="C57" s="334" t="s">
+        <v>547</v>
+      </c>
+      <c r="D57" s="349" t="s">
+        <v>551</v>
+      </c>
+      <c r="E57" s="356"/>
+      <c r="F57" s="356"/>
+      <c r="G57" s="356"/>
+      <c r="H57" s="356"/>
+      <c r="I57" s="357"/>
+      <c r="J57" s="352"/>
+      <c r="K57" s="355"/>
+      <c r="L57" s="349" t="s">
+        <v>552</v>
+      </c>
+      <c r="M57" s="355"/>
     </row>
     <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13"/>
       <c r="B58" s="84">
         <v>2</v>
       </c>
-      <c r="C58" s="238"/>
-      <c r="D58" s="341" t="s">
-        <v>281</v>
+      <c r="C58" s="334" t="s">
+        <v>548</v>
+      </c>
+      <c r="D58" s="349" t="s">
+        <v>554</v>
       </c>
       <c r="E58" s="350"/>
       <c r="F58" s="350"/>
       <c r="G58" s="350"/>
       <c r="H58" s="350"/>
-      <c r="I58" s="342"/>
-      <c r="J58" s="338" t="s">
-        <v>244</v>
-      </c>
-      <c r="K58" s="340"/>
-      <c r="L58" s="341" t="s">
-        <v>245</v>
-      </c>
-      <c r="M58" s="356"/>
-    </row>
-    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="I58" s="351"/>
+      <c r="J58" s="352"/>
+      <c r="K58" s="355"/>
+      <c r="L58" s="349"/>
+      <c r="M58" s="354"/>
+    </row>
+    <row r="59" spans="1:13" ht="50.25" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="84">
         <v>3</v>
       </c>
-      <c r="C59" s="238"/>
-      <c r="D59" s="349" t="s">
-        <v>282</v>
-      </c>
-      <c r="E59" s="351"/>
-      <c r="F59" s="351"/>
-      <c r="G59" s="351"/>
-      <c r="H59" s="351"/>
-      <c r="I59" s="352"/>
-      <c r="J59" s="338"/>
-      <c r="K59" s="340"/>
-      <c r="L59" s="341"/>
-      <c r="M59" s="356"/>
+      <c r="C59" s="334" t="s">
+        <v>549</v>
+      </c>
+      <c r="D59" s="365" t="s">
+        <v>550</v>
+      </c>
+      <c r="E59" s="366"/>
+      <c r="F59" s="366"/>
+      <c r="G59" s="366"/>
+      <c r="H59" s="366"/>
+      <c r="I59" s="367"/>
+      <c r="J59" s="352"/>
+      <c r="K59" s="355"/>
+      <c r="L59" s="349" t="s">
+        <v>553</v>
+      </c>
+      <c r="M59" s="355"/>
     </row>
     <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="84">
-        <v>4</v>
-      </c>
+      <c r="B60" s="84"/>
       <c r="C60" s="238"/>
-      <c r="D60" s="341" t="s">
-        <v>283</v>
-      </c>
-      <c r="E60" s="354"/>
-      <c r="F60" s="354"/>
-      <c r="G60" s="354"/>
-      <c r="H60" s="354"/>
-      <c r="I60" s="355"/>
-      <c r="J60" s="338"/>
-      <c r="K60" s="340"/>
-      <c r="L60" s="341"/>
-      <c r="M60" s="356"/>
+      <c r="D60" s="349"/>
+      <c r="E60" s="356"/>
+      <c r="F60" s="356"/>
+      <c r="G60" s="356"/>
+      <c r="H60" s="356"/>
+      <c r="I60" s="357"/>
+      <c r="J60" s="352"/>
+      <c r="K60" s="355"/>
+      <c r="L60" s="349"/>
+      <c r="M60" s="354"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="84">
-        <v>5</v>
-      </c>
+      <c r="B61" s="84"/>
       <c r="C61" s="238"/>
-      <c r="D61" s="341" t="s">
-        <v>284</v>
-      </c>
-      <c r="E61" s="353"/>
-      <c r="F61" s="353"/>
-      <c r="G61" s="353"/>
-      <c r="H61" s="353"/>
-      <c r="I61" s="339"/>
+      <c r="D61" s="349"/>
+      <c r="E61" s="376"/>
+      <c r="F61" s="376"/>
+      <c r="G61" s="376"/>
+      <c r="H61" s="376"/>
+      <c r="I61" s="353"/>
       <c r="J61" s="243"/>
       <c r="K61" s="245"/>
       <c r="L61" s="246"/>
@@ -19614,94 +19704,74 @@
     </row>
     <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="84">
-        <v>6</v>
-      </c>
+      <c r="B62" s="84"/>
       <c r="C62" s="238"/>
-      <c r="D62" s="341" t="s">
-        <v>285</v>
-      </c>
+      <c r="D62" s="349"/>
       <c r="E62" s="350"/>
       <c r="F62" s="350"/>
       <c r="G62" s="350"/>
       <c r="H62" s="350"/>
-      <c r="I62" s="342"/>
+      <c r="I62" s="351"/>
       <c r="J62" s="243"/>
       <c r="K62" s="245"/>
-      <c r="L62" s="349"/>
-      <c r="M62" s="352"/>
+      <c r="L62" s="365"/>
+      <c r="M62" s="367"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="84">
-        <v>7</v>
-      </c>
+      <c r="B63" s="84"/>
       <c r="C63" s="238"/>
-      <c r="D63" s="341" t="s">
-        <v>286</v>
-      </c>
-      <c r="E63" s="354"/>
-      <c r="F63" s="354"/>
-      <c r="G63" s="354"/>
-      <c r="H63" s="354"/>
-      <c r="I63" s="355"/>
-      <c r="J63" s="338" t="s">
-        <v>246</v>
-      </c>
-      <c r="K63" s="355"/>
-      <c r="L63" s="341" t="s">
-        <v>247</v>
-      </c>
-      <c r="M63" s="355"/>
+      <c r="D63" s="349"/>
+      <c r="E63" s="356"/>
+      <c r="F63" s="356"/>
+      <c r="G63" s="356"/>
+      <c r="H63" s="356"/>
+      <c r="I63" s="357"/>
+      <c r="J63" s="352"/>
+      <c r="K63" s="357"/>
+      <c r="L63" s="349"/>
+      <c r="M63" s="357"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="84">
-        <v>8</v>
-      </c>
+      <c r="B64" s="84"/>
       <c r="C64" s="238"/>
-      <c r="D64" s="341" t="s">
-        <v>278</v>
-      </c>
+      <c r="D64" s="349"/>
       <c r="E64" s="350"/>
       <c r="F64" s="350"/>
       <c r="G64" s="350"/>
       <c r="H64" s="350"/>
-      <c r="I64" s="342"/>
-      <c r="J64" s="338"/>
-      <c r="K64" s="339"/>
-      <c r="L64" s="341"/>
-      <c r="M64" s="356"/>
+      <c r="I64" s="351"/>
+      <c r="J64" s="352"/>
+      <c r="K64" s="353"/>
+      <c r="L64" s="349"/>
+      <c r="M64" s="354"/>
     </row>
     <row r="65" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="84">
-        <v>9</v>
-      </c>
+      <c r="B65" s="84"/>
       <c r="C65" s="238"/>
-      <c r="D65" s="341" t="s">
-        <v>288</v>
-      </c>
+      <c r="D65" s="349"/>
       <c r="E65" s="350"/>
       <c r="F65" s="350"/>
       <c r="G65" s="350"/>
       <c r="H65" s="350"/>
-      <c r="I65" s="342"/>
-      <c r="J65" s="338"/>
-      <c r="K65" s="339"/>
-      <c r="L65" s="338"/>
-      <c r="M65" s="339"/>
+      <c r="I65" s="351"/>
+      <c r="J65" s="352"/>
+      <c r="K65" s="353"/>
+      <c r="L65" s="352"/>
+      <c r="M65" s="353"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="84"/>
       <c r="C66" s="238"/>
-      <c r="D66" s="349"/>
-      <c r="E66" s="351"/>
-      <c r="F66" s="351"/>
-      <c r="G66" s="351"/>
-      <c r="H66" s="351"/>
-      <c r="I66" s="352"/>
+      <c r="D66" s="365"/>
+      <c r="E66" s="366"/>
+      <c r="F66" s="366"/>
+      <c r="G66" s="366"/>
+      <c r="H66" s="366"/>
+      <c r="I66" s="367"/>
       <c r="J66" s="243"/>
       <c r="K66" s="244"/>
       <c r="L66" s="243"/>
@@ -19711,12 +19781,12 @@
       <c r="A67" s="13"/>
       <c r="B67" s="84"/>
       <c r="C67" s="238"/>
-      <c r="D67" s="349"/>
-      <c r="E67" s="351"/>
-      <c r="F67" s="351"/>
-      <c r="G67" s="351"/>
-      <c r="H67" s="351"/>
-      <c r="I67" s="352"/>
+      <c r="D67" s="365"/>
+      <c r="E67" s="366"/>
+      <c r="F67" s="366"/>
+      <c r="G67" s="366"/>
+      <c r="H67" s="366"/>
+      <c r="I67" s="367"/>
       <c r="J67" s="243"/>
       <c r="K67" s="244"/>
       <c r="L67" s="243"/>
@@ -19726,25 +19796,25 @@
       <c r="A68" s="13"/>
       <c r="B68" s="84"/>
       <c r="C68" s="225"/>
-      <c r="D68" s="341"/>
-      <c r="E68" s="353"/>
-      <c r="F68" s="353"/>
-      <c r="G68" s="353"/>
-      <c r="H68" s="353"/>
-      <c r="I68" s="339"/>
-      <c r="J68" s="338"/>
-      <c r="K68" s="340"/>
-      <c r="L68" s="341"/>
-      <c r="M68" s="342"/>
+      <c r="D68" s="349"/>
+      <c r="E68" s="376"/>
+      <c r="F68" s="376"/>
+      <c r="G68" s="376"/>
+      <c r="H68" s="376"/>
+      <c r="I68" s="353"/>
+      <c r="J68" s="352"/>
+      <c r="K68" s="355"/>
+      <c r="L68" s="349"/>
+      <c r="M68" s="351"/>
     </row>
     <row r="69" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="13"/>
       <c r="B70" s="159" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -19758,16 +19828,16 @@
       <c r="H71" s="124"/>
       <c r="I71" s="124"/>
       <c r="J71" s="125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K71" s="125" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L71" s="125" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M71" s="125" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N71" s="126"/>
       <c r="O71" s="16"/>
@@ -19775,13 +19845,13 @@
     <row r="72" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="75"/>
-      <c r="C72" s="346"/>
-      <c r="D72" s="347"/>
-      <c r="E72" s="347"/>
-      <c r="F72" s="347"/>
-      <c r="G72" s="347"/>
-      <c r="H72" s="347"/>
-      <c r="I72" s="348"/>
+      <c r="C72" s="368"/>
+      <c r="D72" s="369"/>
+      <c r="E72" s="369"/>
+      <c r="F72" s="369"/>
+      <c r="G72" s="369"/>
+      <c r="H72" s="369"/>
+      <c r="I72" s="370"/>
       <c r="J72" s="75"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
@@ -19794,13 +19864,13 @@
         <v>13</v>
       </c>
       <c r="B73" s="75"/>
-      <c r="C73" s="346"/>
-      <c r="D73" s="347"/>
-      <c r="E73" s="347"/>
-      <c r="F73" s="347"/>
-      <c r="G73" s="347"/>
-      <c r="H73" s="347"/>
-      <c r="I73" s="348"/>
+      <c r="C73" s="368"/>
+      <c r="D73" s="369"/>
+      <c r="E73" s="369"/>
+      <c r="F73" s="369"/>
+      <c r="G73" s="369"/>
+      <c r="H73" s="369"/>
+      <c r="I73" s="370"/>
       <c r="J73" s="75"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -19811,13 +19881,13 @@
     <row r="74" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="75"/>
-      <c r="C74" s="349"/>
-      <c r="D74" s="347"/>
-      <c r="E74" s="347"/>
-      <c r="F74" s="347"/>
-      <c r="G74" s="347"/>
-      <c r="H74" s="347"/>
-      <c r="I74" s="348"/>
+      <c r="C74" s="365"/>
+      <c r="D74" s="369"/>
+      <c r="E74" s="369"/>
+      <c r="F74" s="369"/>
+      <c r="G74" s="369"/>
+      <c r="H74" s="369"/>
+      <c r="I74" s="370"/>
       <c r="J74" s="75"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -19981,13 +20051,13 @@
     <row r="84" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="75"/>
-      <c r="C84" s="346"/>
-      <c r="D84" s="347"/>
-      <c r="E84" s="347"/>
-      <c r="F84" s="347"/>
-      <c r="G84" s="347"/>
-      <c r="H84" s="347"/>
-      <c r="I84" s="348"/>
+      <c r="C84" s="368"/>
+      <c r="D84" s="369"/>
+      <c r="E84" s="369"/>
+      <c r="F84" s="369"/>
+      <c r="G84" s="369"/>
+      <c r="H84" s="369"/>
+      <c r="I84" s="370"/>
       <c r="J84" s="75"/>
       <c r="K84" s="84"/>
       <c r="L84" s="84"/>
@@ -19998,13 +20068,13 @@
     <row r="85" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="75"/>
-      <c r="C85" s="346"/>
-      <c r="D85" s="347"/>
-      <c r="E85" s="347"/>
-      <c r="F85" s="347"/>
-      <c r="G85" s="347"/>
-      <c r="H85" s="347"/>
-      <c r="I85" s="348"/>
+      <c r="C85" s="368"/>
+      <c r="D85" s="369"/>
+      <c r="E85" s="369"/>
+      <c r="F85" s="369"/>
+      <c r="G85" s="369"/>
+      <c r="H85" s="369"/>
+      <c r="I85" s="370"/>
       <c r="J85" s="75"/>
       <c r="K85" s="84"/>
       <c r="L85" s="84"/>
@@ -20035,7 +20105,7 @@
     <row r="88" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A88" s="13"/>
       <c r="B88" s="99" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C88" s="100"/>
       <c r="D88" s="101"/>
@@ -20424,49 +20494,11 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="C73:I73"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="C85:I85"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="L68:M68"/>
@@ -20481,11 +20513,49 @@
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="D66:I66"/>
     <mergeCell ref="D67:I67"/>
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="K42:M42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
@@ -20549,7 +20619,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="345" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="1"/>
@@ -20565,7 +20635,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="335"/>
+      <c r="A2" s="346"/>
       <c r="B2" s="3" t="s">
         <v>54</v>
       </c>
@@ -20581,14 +20651,14 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="335"/>
+      <c r="A3" s="346"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="335"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
@@ -20597,7 +20667,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:24" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="336"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>

--- a/doc/sfs/rmj/기본설계서_REDBULL_노명진_20190920.xlsx
+++ b/doc/sfs/rmj/기본설계서_REDBULL_노명진_20190920.xlsx
@@ -20,7 +20,7 @@
     <definedName name="AP코드번호" localSheetId="4">#REF!</definedName>
     <definedName name="AP코드번호">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Navigation!$A$1:$O$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'프로그램 목록'!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'프로그램 목록'!$A$1:$AO$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">프로그램사양서_product_detail.jsp!$A$1:$N$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">프로그램사양서_product_mng.jsp!$A$1:$N$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">프로그램사양서_product_option.jsp!$A$1:$N$108</definedName>
@@ -47,7 +47,7 @@
     <definedName name="모듈코드" localSheetId="2">#REF!</definedName>
     <definedName name="모듈코드" localSheetId="3">#REF!</definedName>
     <definedName name="모듈코드" localSheetId="4">#REF!</definedName>
-    <definedName name="모듈코드">'프로그램 목록'!$D$76:$D$80</definedName>
+    <definedName name="모듈코드">'프로그램 목록'!$D$77:$D$81</definedName>
     <definedName name="모듈코드번호" localSheetId="3">#REF!</definedName>
     <definedName name="모듈코드번호" localSheetId="4">#REF!</definedName>
     <definedName name="모듈코드번호">#REF!</definedName>
@@ -96,18 +96,18 @@
     <definedName name="프로그램구분" localSheetId="2">#REF!</definedName>
     <definedName name="프로그램구분" localSheetId="3">#REF!</definedName>
     <definedName name="프로그램구분" localSheetId="4">#REF!</definedName>
-    <definedName name="프로그램구분">'프로그램 목록'!$M$76:$M$79</definedName>
+    <definedName name="프로그램구분">'프로그램 목록'!$M$77:$M$80</definedName>
     <definedName name="프로그램유형" localSheetId="2">#REF!</definedName>
     <definedName name="프로그램유형" localSheetId="3">#REF!</definedName>
     <definedName name="프로그램유형" localSheetId="4">#REF!</definedName>
-    <definedName name="프로그램유형">'프로그램 목록'!$O$76:$O$80</definedName>
+    <definedName name="프로그램유형">'프로그램 목록'!$O$77:$O$81</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="565">
   <si>
     <t>구분</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1429,10 +1429,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ProductDao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>노명진</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1766,10 +1762,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>File</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FileController</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1782,14 +1774,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_file</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진업로드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_option</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1852,9 +1836,6 @@
     <t>ReviewServiceImpl</t>
   </si>
   <si>
-    <t>ReviewDao</t>
-  </si>
-  <si>
     <t>ReviewDaoImpl</t>
   </si>
   <si>
@@ -1870,9 +1851,6 @@
     <t>OptServiceImpl</t>
   </si>
   <si>
-    <t>OptDao</t>
-  </si>
-  <si>
     <t>OptDaoImpl</t>
   </si>
   <si>
@@ -2267,6 +2245,51 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_option</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageController</t>
+  </si>
+  <si>
+    <t>ImageService</t>
+  </si>
+  <si>
+    <t>ImageServiceImpl</t>
+  </si>
+  <si>
+    <t>ImageDaoImpl</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeService</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeServiceImpl</t>
+  </si>
+  <si>
+    <t>CodeDaoImpl</t>
+  </si>
+  <si>
+    <t>FileVO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4453,6 +4476,27 @@
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4461,94 +4505,73 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4597,7 +4620,28 @@
     <cellStyle name="하이퍼링크" xfId="35" builtinId="8"/>
     <cellStyle name="하이퍼링크 2" xfId="37"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -9826,7 +9870,7 @@
       <selection activeCell="E78" sqref="E78"/>
       <selection pane="topRight" activeCell="E78" sqref="E78"/>
       <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
-      <selection pane="bottomRight" sqref="A1:A5"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -10133,13 +10177,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="M7:M11">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"미진행"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"지연"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"완료(지연)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10162,10 +10206,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AS82"/>
+  <dimension ref="A1:AS83"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Z7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -10466,7 +10510,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="56"/>
       <c r="F8" s="144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -10474,7 +10518,7 @@
       <c r="J8" s="166"/>
       <c r="K8" s="167"/>
       <c r="L8" s="171" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="52"/>
@@ -10482,13 +10526,13 @@
         <v>225</v>
       </c>
       <c r="P8" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q8" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="Q8" s="35" t="s">
-        <v>410</v>
-      </c>
       <c r="R8" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S8" s="82" t="str">
         <f>IF(TRIM(L8)="","",L8)</f>
@@ -10540,7 +10584,7 @@
       <c r="D9" s="58"/>
       <c r="E9" s="56"/>
       <c r="F9" s="144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -10548,7 +10592,7 @@
       <c r="J9" s="166"/>
       <c r="K9" s="167"/>
       <c r="L9" s="171" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="52"/>
@@ -10557,13 +10601,13 @@
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T9" s="60"/>
       <c r="U9" s="63" t="s">
@@ -10611,7 +10655,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="56"/>
       <c r="F10" s="144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -10619,7 +10663,7 @@
       <c r="J10" s="166"/>
       <c r="K10" s="167"/>
       <c r="L10" s="171" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="52"/>
@@ -10628,7 +10672,7 @@
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R10" s="35"/>
       <c r="S10" s="82" t="str">
@@ -10706,7 +10750,7 @@
         <v>295</v>
       </c>
       <c r="S11" s="82" t="str">
-        <f t="shared" ref="S11:S35" si="0">IF(TRIM(L11)="","",L11)</f>
+        <f t="shared" ref="S11:S37" si="0">IF(TRIM(L11)="","",L11)</f>
         <v>장바구니</v>
       </c>
       <c r="T11" s="60"/>
@@ -11329,7 +11373,7 @@
       <c r="D20" s="253"/>
       <c r="E20" s="252"/>
       <c r="F20" s="254" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="G20" s="255"/>
       <c r="H20" s="256"/>
@@ -11337,7 +11381,7 @@
       <c r="J20" s="255"/>
       <c r="K20" s="257"/>
       <c r="L20" s="258" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="M20" s="256"/>
       <c r="N20" s="259"/>
@@ -11345,31 +11389,30 @@
         <v>324</v>
       </c>
       <c r="P20" s="255" t="s">
-        <v>325</v>
+        <v>554</v>
       </c>
       <c r="Q20" s="251" t="s">
-        <v>327</v>
+        <v>555</v>
       </c>
       <c r="R20" s="251" t="s">
-        <v>328</v>
-      </c>
-      <c r="S20" s="260" t="str">
-        <f t="shared" si="0"/>
-        <v>상품</v>
+        <v>556</v>
+      </c>
+      <c r="S20" s="260" t="s">
+        <v>553</v>
       </c>
       <c r="T20" s="261"/>
       <c r="U20" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V20" s="263"/>
+        <v>329</v>
+      </c>
+      <c r="V20" s="262"/>
       <c r="W20" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X20" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y20" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z20" s="264">
         <v>43707</v>
@@ -11403,7 +11446,7 @@
       <c r="D21" s="253"/>
       <c r="E21" s="252"/>
       <c r="F21" s="254" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="G21" s="255"/>
       <c r="H21" s="256"/>
@@ -11411,7 +11454,7 @@
       <c r="J21" s="255"/>
       <c r="K21" s="257"/>
       <c r="L21" s="258" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="M21" s="256"/>
       <c r="N21" s="259"/>
@@ -11420,28 +11463,27 @@
       </c>
       <c r="P21" s="255"/>
       <c r="Q21" s="251" t="s">
-        <v>329</v>
+        <v>558</v>
       </c>
       <c r="R21" s="251" t="s">
-        <v>331</v>
-      </c>
-      <c r="S21" s="260" t="str">
-        <f t="shared" si="0"/>
-        <v>상품</v>
+        <v>557</v>
+      </c>
+      <c r="S21" s="260" t="s">
+        <v>553</v>
       </c>
       <c r="T21" s="261"/>
       <c r="U21" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V21" s="263"/>
+        <v>329</v>
+      </c>
+      <c r="V21" s="262"/>
       <c r="W21" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X21" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y21" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z21" s="264">
         <v>43707</v>
@@ -11475,7 +11517,7 @@
       <c r="D22" s="253"/>
       <c r="E22" s="252"/>
       <c r="F22" s="254" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="G22" s="255"/>
       <c r="H22" s="256"/>
@@ -11483,7 +11525,7 @@
       <c r="J22" s="255"/>
       <c r="K22" s="257"/>
       <c r="L22" s="258" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="M22" s="256"/>
       <c r="N22" s="259"/>
@@ -11491,27 +11533,23 @@
         <v>324</v>
       </c>
       <c r="P22" s="255"/>
-      <c r="Q22" s="251" t="s">
-        <v>326</v>
-      </c>
       <c r="R22" s="251"/>
-      <c r="S22" s="260" t="str">
-        <f t="shared" si="0"/>
-        <v>상품</v>
+      <c r="S22" s="260" t="s">
+        <v>553</v>
       </c>
       <c r="T22" s="261"/>
       <c r="U22" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" s="263"/>
+        <v>329</v>
+      </c>
+      <c r="V22" s="262"/>
       <c r="W22" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X22" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y22" s="262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z22" s="264">
         <v>43707</v>
@@ -11553,7 +11591,7 @@
       <c r="J23" s="255"/>
       <c r="K23" s="257"/>
       <c r="L23" s="258" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="M23" s="256"/>
       <c r="N23" s="259"/>
@@ -11561,31 +11599,31 @@
         <v>324</v>
       </c>
       <c r="P23" s="255" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q23" s="251" t="s">
-        <v>449</v>
+        <v>325</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="R23" s="251" t="s">
-        <v>450</v>
+        <v>328</v>
       </c>
       <c r="S23" s="260" t="str">
         <f t="shared" si="0"/>
-        <v>리뷰</v>
+        <v>상품</v>
       </c>
       <c r="T23" s="261"/>
       <c r="U23" s="262" t="s">
-        <v>286</v>
-      </c>
-      <c r="V23" s="263"/>
+        <v>329</v>
+      </c>
+      <c r="V23" s="262"/>
       <c r="W23" s="262" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="X23" s="262" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="Y23" s="262" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="Z23" s="264">
         <v>43707</v>
@@ -11627,7 +11665,7 @@
       <c r="J24" s="255"/>
       <c r="K24" s="257"/>
       <c r="L24" s="258" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="M24" s="256"/>
       <c r="N24" s="259"/>
@@ -11635,29 +11673,29 @@
         <v>324</v>
       </c>
       <c r="P24" s="255"/>
-      <c r="Q24" s="251" t="s">
-        <v>451</v>
+      <c r="Q24" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="R24" s="251" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="S24" s="260" t="str">
         <f t="shared" si="0"/>
-        <v>리뷰</v>
+        <v>상품</v>
       </c>
       <c r="T24" s="261"/>
       <c r="U24" s="262" t="s">
-        <v>286</v>
-      </c>
-      <c r="V24" s="263"/>
+        <v>329</v>
+      </c>
+      <c r="V24" s="262"/>
       <c r="W24" s="262" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="X24" s="262" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="Y24" s="262" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="Z24" s="264">
         <v>43707</v>
@@ -11699,18 +11737,22 @@
       <c r="J25" s="255"/>
       <c r="K25" s="257"/>
       <c r="L25" s="258" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M25" s="256"/>
       <c r="N25" s="259"/>
       <c r="O25" s="255" t="s">
         <v>324</v>
       </c>
-      <c r="P25" s="255"/>
+      <c r="P25" s="255" t="s">
+        <v>444</v>
+      </c>
       <c r="Q25" s="251" t="s">
-        <v>453</v>
-      </c>
-      <c r="R25" s="251"/>
+        <v>445</v>
+      </c>
+      <c r="R25" s="251" t="s">
+        <v>446</v>
+      </c>
       <c r="S25" s="260" t="str">
         <f t="shared" si="0"/>
         <v>리뷰</v>
@@ -11719,7 +11761,7 @@
       <c r="U25" s="262" t="s">
         <v>286</v>
       </c>
-      <c r="V25" s="263"/>
+      <c r="V25" s="262"/>
       <c r="W25" s="262" t="s">
         <v>286</v>
       </c>
@@ -11769,31 +11811,29 @@
       <c r="J26" s="255"/>
       <c r="K26" s="257"/>
       <c r="L26" s="258" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M26" s="256"/>
       <c r="N26" s="259"/>
       <c r="O26" s="255" t="s">
         <v>324</v>
       </c>
-      <c r="P26" s="255" t="s">
-        <v>454</v>
-      </c>
+      <c r="P26" s="255"/>
       <c r="Q26" s="251" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="R26" s="251" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="S26" s="260" t="str">
-        <f t="shared" ref="S26:S28" si="1">IF(TRIM(L26)="","",L26)</f>
-        <v>옵션</v>
+        <f t="shared" si="0"/>
+        <v>리뷰</v>
       </c>
       <c r="T26" s="261"/>
       <c r="U26" s="262" t="s">
         <v>286</v>
       </c>
-      <c r="V26" s="263"/>
+      <c r="V26" s="262"/>
       <c r="W26" s="262" t="s">
         <v>286</v>
       </c>
@@ -11843,29 +11883,31 @@
       <c r="J27" s="255"/>
       <c r="K27" s="257"/>
       <c r="L27" s="258" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M27" s="256"/>
       <c r="N27" s="259"/>
       <c r="O27" s="255" t="s">
         <v>324</v>
       </c>
-      <c r="P27" s="255"/>
+      <c r="P27" s="255" t="s">
+        <v>449</v>
+      </c>
       <c r="Q27" s="251" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="R27" s="251" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="S27" s="260" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S27:S28" si="1">IF(TRIM(L27)="","",L27)</f>
         <v>옵션</v>
       </c>
       <c r="T27" s="261"/>
       <c r="U27" s="262" t="s">
         <v>286</v>
       </c>
-      <c r="V27" s="263"/>
+      <c r="V27" s="262"/>
       <c r="W27" s="262" t="s">
         <v>286</v>
       </c>
@@ -11915,7 +11957,7 @@
       <c r="J28" s="255"/>
       <c r="K28" s="257"/>
       <c r="L28" s="258" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M28" s="256"/>
       <c r="N28" s="259"/>
@@ -11924,9 +11966,11 @@
       </c>
       <c r="P28" s="255"/>
       <c r="Q28" s="251" t="s">
-        <v>459</v>
-      </c>
-      <c r="R28" s="251"/>
+        <v>453</v>
+      </c>
+      <c r="R28" s="251" t="s">
+        <v>452</v>
+      </c>
       <c r="S28" s="260" t="str">
         <f t="shared" si="1"/>
         <v>옵션</v>
@@ -11935,7 +11979,7 @@
       <c r="U28" s="262" t="s">
         <v>286</v>
       </c>
-      <c r="V28" s="263"/>
+      <c r="V28" s="262"/>
       <c r="W28" s="262" t="s">
         <v>286</v>
       </c>
@@ -11970,493 +12014,501 @@
       <c r="AR28" s="269"/>
       <c r="AS28" s="269"/>
     </row>
-    <row r="29" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="250"/>
-      <c r="B29" s="251"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="254" t="s">
-        <v>430</v>
-      </c>
-      <c r="G29" s="255"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="258" t="s">
-        <v>431</v>
-      </c>
-      <c r="M29" s="256"/>
-      <c r="N29" s="259"/>
-      <c r="O29" s="255" t="s">
+    <row r="29" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="171" t="s">
+        <v>429</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="P29" s="255" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q29" s="251" t="s">
-        <v>428</v>
-      </c>
-      <c r="R29" s="251"/>
-      <c r="S29" s="260" t="str">
+      <c r="P29" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q29" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="R29" s="35"/>
+      <c r="S29" s="82" t="str">
         <f>IF(TRIM(L29)="","",L29)</f>
         <v>파일</v>
       </c>
-      <c r="T29" s="261"/>
-      <c r="U29" s="262" t="s">
+      <c r="T29" s="60"/>
+      <c r="U29" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="V29" s="263"/>
-      <c r="W29" s="262" t="s">
+      <c r="V29" s="64"/>
+      <c r="W29" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="X29" s="262" t="s">
+      <c r="X29" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="Y29" s="262" t="s">
+      <c r="Y29" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="Z29" s="264"/>
-      <c r="AA29" s="264"/>
-      <c r="AB29" s="264"/>
-      <c r="AC29" s="264"/>
-      <c r="AD29" s="264"/>
-      <c r="AE29" s="264"/>
-      <c r="AF29" s="265"/>
-      <c r="AG29" s="266"/>
-      <c r="AH29" s="265"/>
-      <c r="AI29" s="265"/>
-      <c r="AJ29" s="265"/>
-      <c r="AK29" s="265"/>
-      <c r="AL29" s="265"/>
-      <c r="AM29" s="267"/>
-      <c r="AN29" s="264"/>
-      <c r="AO29" s="268"/>
-      <c r="AP29" s="269"/>
-      <c r="AQ29" s="269"/>
-      <c r="AR29" s="269"/>
-      <c r="AS29" s="269"/>
-    </row>
-    <row r="30" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="250"/>
-      <c r="B30" s="251"/>
-      <c r="C30" s="252"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="254" t="s">
+      <c r="Z29" s="145">
+        <v>43707</v>
+      </c>
+      <c r="AA29" s="145">
+        <v>43767</v>
+      </c>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="186"/>
+      <c r="AH29" s="187"/>
+      <c r="AI29" s="187"/>
+      <c r="AJ29" s="187"/>
+      <c r="AK29" s="187"/>
+      <c r="AL29" s="187"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="145"/>
+      <c r="AO29" s="228"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+    </row>
+    <row r="30" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="255"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="257"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="258" t="s">
-        <v>338</v>
-      </c>
-      <c r="M30" s="256"/>
-      <c r="N30" s="259"/>
-      <c r="O30" s="255" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="171" t="s">
+        <v>337</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P30" s="255"/>
-      <c r="Q30" s="251" t="s">
-        <v>332</v>
-      </c>
-      <c r="R30" s="251"/>
-      <c r="S30" s="260" t="str">
+      <c r="P30" s="14"/>
+      <c r="Q30" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="R30" s="35"/>
+      <c r="S30" s="82" t="str">
         <f t="shared" si="0"/>
         <v>엑셀다운</v>
       </c>
-      <c r="T30" s="261"/>
-      <c r="U30" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V30" s="263"/>
-      <c r="W30" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="X30" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y30" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z30" s="264">
+      <c r="T30" s="60"/>
+      <c r="U30" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="V30" s="64"/>
+      <c r="W30" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X30" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y30" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z30" s="145">
         <v>43707</v>
       </c>
-      <c r="AA30" s="264">
+      <c r="AA30" s="145">
         <v>43767</v>
       </c>
-      <c r="AB30" s="264"/>
-      <c r="AC30" s="264"/>
-      <c r="AD30" s="264"/>
-      <c r="AE30" s="264"/>
-      <c r="AF30" s="265"/>
-      <c r="AG30" s="266"/>
-      <c r="AH30" s="265"/>
-      <c r="AI30" s="265"/>
-      <c r="AJ30" s="265"/>
-      <c r="AK30" s="265"/>
-      <c r="AL30" s="265"/>
-      <c r="AM30" s="267"/>
-      <c r="AN30" s="264"/>
-      <c r="AO30" s="268"/>
-      <c r="AP30" s="269"/>
-      <c r="AQ30" s="269"/>
-      <c r="AR30" s="269"/>
-      <c r="AS30" s="269"/>
-    </row>
-    <row r="31" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="250"/>
-      <c r="B31" s="251"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="254" t="s">
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="186"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="145"/>
+      <c r="AO30" s="228"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+    </row>
+    <row r="31" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="255"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="258" t="s">
-        <v>339</v>
-      </c>
-      <c r="M31" s="256"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="255" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="171" t="s">
+        <v>559</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P31" s="255"/>
-      <c r="Q31" s="251" t="s">
-        <v>333</v>
-      </c>
-      <c r="R31" s="251"/>
-      <c r="S31" s="260" t="str">
+      <c r="P31" s="14"/>
+      <c r="Q31" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="R31" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="S31" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>코드</v>
+      </c>
+      <c r="T31" s="60"/>
+      <c r="U31" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="V31" s="64"/>
+      <c r="W31" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X31" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y31" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z31" s="145">
+        <v>43707</v>
+      </c>
+      <c r="AA31" s="145">
+        <v>43767</v>
+      </c>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="187"/>
+      <c r="AG31" s="186"/>
+      <c r="AH31" s="187"/>
+      <c r="AI31" s="187"/>
+      <c r="AJ31" s="187"/>
+      <c r="AK31" s="187"/>
+      <c r="AL31" s="187"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="145"/>
+      <c r="AO31" s="228"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+    </row>
+    <row r="32" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="171" t="s">
+        <v>559</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="R32" s="35" t="s">
+        <v>563</v>
+      </c>
+      <c r="S32" s="82" t="str">
+        <f t="shared" ref="S32" si="2">IF(TRIM(L32)="","",L32)</f>
+        <v>코드</v>
+      </c>
+      <c r="T32" s="60"/>
+      <c r="U32" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="V32" s="64"/>
+      <c r="W32" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X32" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y32" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z32" s="145">
+        <v>43707</v>
+      </c>
+      <c r="AA32" s="145">
+        <v>43767</v>
+      </c>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="187"/>
+      <c r="AG32" s="186"/>
+      <c r="AH32" s="187"/>
+      <c r="AI32" s="187"/>
+      <c r="AJ32" s="187"/>
+      <c r="AK32" s="187"/>
+      <c r="AL32" s="187"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="228"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+    </row>
+    <row r="33" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="171" t="s">
+        <v>338</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="R33" s="35"/>
+      <c r="S33" s="82" t="str">
         <f t="shared" si="0"/>
         <v>공통유틸</v>
       </c>
-      <c r="T31" s="261"/>
-      <c r="U31" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V31" s="263"/>
-      <c r="W31" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="X31" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y31" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z31" s="264">
+      <c r="T33" s="60"/>
+      <c r="U33" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="V33" s="64"/>
+      <c r="W33" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X33" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y33" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z33" s="145">
         <v>43707</v>
       </c>
-      <c r="AA31" s="264">
+      <c r="AA33" s="145">
         <v>43767</v>
       </c>
-      <c r="AB31" s="264"/>
-      <c r="AC31" s="264"/>
-      <c r="AD31" s="264"/>
-      <c r="AE31" s="264"/>
-      <c r="AF31" s="265"/>
-      <c r="AG31" s="266"/>
-      <c r="AH31" s="265"/>
-      <c r="AI31" s="265"/>
-      <c r="AJ31" s="265"/>
-      <c r="AK31" s="265"/>
-      <c r="AL31" s="265"/>
-      <c r="AM31" s="267"/>
-      <c r="AN31" s="264"/>
-      <c r="AO31" s="268"/>
-      <c r="AP31" s="269"/>
-      <c r="AQ31" s="269"/>
-      <c r="AR31" s="269"/>
-      <c r="AS31" s="269"/>
-    </row>
-    <row r="32" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="250"/>
-      <c r="B32" s="251"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="254" t="s">
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="187"/>
+      <c r="AG33" s="186"/>
+      <c r="AH33" s="187"/>
+      <c r="AI33" s="187"/>
+      <c r="AJ33" s="187"/>
+      <c r="AK33" s="187"/>
+      <c r="AL33" s="187"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="145"/>
+      <c r="AO33" s="228"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+    </row>
+    <row r="34" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="255"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="257"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="257"/>
-      <c r="L32" s="258" t="s">
-        <v>340</v>
-      </c>
-      <c r="M32" s="256"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="255" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="171" t="s">
+        <v>339</v>
+      </c>
+      <c r="M34" s="18"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P32" s="255"/>
-      <c r="Q32" s="251" t="s">
-        <v>334</v>
-      </c>
-      <c r="R32" s="251"/>
-      <c r="S32" s="260" t="str">
+      <c r="P34" s="14"/>
+      <c r="Q34" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="R34" s="35"/>
+      <c r="S34" s="82" t="str">
         <f t="shared" si="0"/>
         <v>공통VO</v>
       </c>
-      <c r="T32" s="261"/>
-      <c r="U32" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V32" s="263"/>
-      <c r="W32" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="X32" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y32" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z32" s="264">
+      <c r="T34" s="60"/>
+      <c r="U34" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="V34" s="64"/>
+      <c r="W34" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X34" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y34" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z34" s="145">
         <v>43707</v>
       </c>
-      <c r="AA32" s="264">
+      <c r="AA34" s="145">
         <v>43767</v>
       </c>
-      <c r="AB32" s="264"/>
-      <c r="AC32" s="264"/>
-      <c r="AD32" s="264"/>
-      <c r="AE32" s="264"/>
-      <c r="AF32" s="265"/>
-      <c r="AG32" s="266"/>
-      <c r="AH32" s="265"/>
-      <c r="AI32" s="265"/>
-      <c r="AJ32" s="265"/>
-      <c r="AK32" s="265"/>
-      <c r="AL32" s="265"/>
-      <c r="AM32" s="267"/>
-      <c r="AN32" s="264"/>
-      <c r="AO32" s="268"/>
-      <c r="AP32" s="269"/>
-      <c r="AQ32" s="269"/>
-      <c r="AR32" s="269"/>
-      <c r="AS32" s="269"/>
-    </row>
-    <row r="33" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="250"/>
-      <c r="B33" s="251"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="254" t="s">
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="187"/>
+      <c r="AG34" s="186"/>
+      <c r="AH34" s="187"/>
+      <c r="AI34" s="187"/>
+      <c r="AJ34" s="187"/>
+      <c r="AK34" s="187"/>
+      <c r="AL34" s="187"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="145"/>
+      <c r="AO34" s="228"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+    </row>
+    <row r="35" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="255"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="257"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="257"/>
-      <c r="L33" s="258" t="s">
-        <v>341</v>
-      </c>
-      <c r="M33" s="256"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="255" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="171" t="s">
+        <v>340</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P33" s="255"/>
-      <c r="Q33" s="251" t="s">
-        <v>335</v>
-      </c>
-      <c r="R33" s="251"/>
-      <c r="S33" s="260" t="str">
+      <c r="P35" s="14"/>
+      <c r="Q35" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="R35" s="35"/>
+      <c r="S35" s="82" t="str">
         <f t="shared" si="0"/>
         <v>공통메소드</v>
       </c>
-      <c r="T33" s="261"/>
-      <c r="U33" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V33" s="263"/>
-      <c r="W33" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="X33" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y33" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z33" s="264">
+      <c r="T35" s="60"/>
+      <c r="U35" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="V35" s="64"/>
+      <c r="W35" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X35" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z35" s="145">
         <v>43707</v>
       </c>
-      <c r="AA33" s="264">
+      <c r="AA35" s="145">
         <v>43767</v>
       </c>
-      <c r="AB33" s="264"/>
-      <c r="AC33" s="264"/>
-      <c r="AD33" s="264"/>
-      <c r="AE33" s="264"/>
-      <c r="AF33" s="265"/>
-      <c r="AG33" s="266"/>
-      <c r="AH33" s="265"/>
-      <c r="AI33" s="265"/>
-      <c r="AJ33" s="265"/>
-      <c r="AK33" s="265"/>
-      <c r="AL33" s="265"/>
-      <c r="AM33" s="267"/>
-      <c r="AN33" s="264"/>
-      <c r="AO33" s="268"/>
-      <c r="AP33" s="269"/>
-      <c r="AQ33" s="269"/>
-      <c r="AR33" s="269"/>
-      <c r="AS33" s="269"/>
-    </row>
-    <row r="34" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="250"/>
-      <c r="B34" s="251"/>
-      <c r="C34" s="252"/>
-      <c r="D34" s="253"/>
-      <c r="E34" s="252"/>
-      <c r="F34" s="254" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="255"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="257"/>
-      <c r="J34" s="255"/>
-      <c r="K34" s="257"/>
-      <c r="L34" s="258" t="s">
-        <v>342</v>
-      </c>
-      <c r="M34" s="256"/>
-      <c r="N34" s="259"/>
-      <c r="O34" s="255" t="s">
-        <v>324</v>
-      </c>
-      <c r="P34" s="255"/>
-      <c r="Q34" s="251" t="s">
-        <v>336</v>
-      </c>
-      <c r="R34" s="251"/>
-      <c r="S34" s="260" t="str">
-        <f t="shared" si="0"/>
-        <v>메세지</v>
-      </c>
-      <c r="T34" s="261"/>
-      <c r="U34" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V34" s="263"/>
-      <c r="W34" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="X34" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y34" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z34" s="264">
-        <v>43707</v>
-      </c>
-      <c r="AA34" s="264">
-        <v>43767</v>
-      </c>
-      <c r="AB34" s="264"/>
-      <c r="AC34" s="264"/>
-      <c r="AD34" s="264"/>
-      <c r="AE34" s="264"/>
-      <c r="AF34" s="265"/>
-      <c r="AG34" s="266"/>
-      <c r="AH34" s="265"/>
-      <c r="AI34" s="265"/>
-      <c r="AJ34" s="265"/>
-      <c r="AK34" s="265"/>
-      <c r="AL34" s="265"/>
-      <c r="AM34" s="267"/>
-      <c r="AN34" s="264"/>
-      <c r="AO34" s="268"/>
-      <c r="AP34" s="269"/>
-      <c r="AQ34" s="269"/>
-      <c r="AR34" s="269"/>
-      <c r="AS34" s="269"/>
-    </row>
-    <row r="35" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="250"/>
-      <c r="B35" s="251"/>
-      <c r="C35" s="252"/>
-      <c r="D35" s="253"/>
-      <c r="E35" s="252"/>
-      <c r="F35" s="254" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="255"/>
-      <c r="H35" s="256"/>
-      <c r="I35" s="257"/>
-      <c r="J35" s="255"/>
-      <c r="K35" s="257"/>
-      <c r="L35" s="258" t="s">
-        <v>343</v>
-      </c>
-      <c r="M35" s="256"/>
-      <c r="N35" s="259"/>
-      <c r="O35" s="255" t="s">
-        <v>324</v>
-      </c>
-      <c r="P35" s="255"/>
-      <c r="Q35" s="251" t="s">
-        <v>337</v>
-      </c>
-      <c r="R35" s="251"/>
-      <c r="S35" s="260" t="str">
-        <f t="shared" si="0"/>
-        <v>다운로드</v>
-      </c>
-      <c r="T35" s="261"/>
-      <c r="U35" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="V35" s="263"/>
-      <c r="W35" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="X35" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y35" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z35" s="264">
-        <v>43707</v>
-      </c>
-      <c r="AA35" s="264">
-        <v>43767</v>
-      </c>
-      <c r="AB35" s="264"/>
-      <c r="AC35" s="264"/>
-      <c r="AD35" s="264"/>
-      <c r="AE35" s="264"/>
-      <c r="AF35" s="265"/>
-      <c r="AG35" s="266"/>
-      <c r="AH35" s="265"/>
-      <c r="AI35" s="265"/>
-      <c r="AJ35" s="265"/>
-      <c r="AK35" s="265"/>
-      <c r="AL35" s="265"/>
-      <c r="AM35" s="267"/>
-      <c r="AN35" s="264"/>
-      <c r="AO35" s="268"/>
-      <c r="AP35" s="269"/>
-      <c r="AQ35" s="269"/>
-      <c r="AR35" s="269"/>
-      <c r="AS35" s="269"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="187"/>
+      <c r="AG35" s="186"/>
+      <c r="AH35" s="187"/>
+      <c r="AI35" s="187"/>
+      <c r="AJ35" s="187"/>
+      <c r="AK35" s="187"/>
+      <c r="AL35" s="187"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="145"/>
+      <c r="AO35" s="228"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
     </row>
     <row r="36" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="32"/>
@@ -12465,46 +12517,43 @@
       <c r="D36" s="58"/>
       <c r="E36" s="56"/>
       <c r="F36" s="144" t="s">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="167"/>
-      <c r="L36" s="229" t="s">
-        <v>390</v>
+      <c r="L36" s="171" t="s">
+        <v>341</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="52"/>
       <c r="O36" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P36" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="R36" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="S36" s="82" t="s">
-        <v>366</v>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="R36" s="35"/>
+      <c r="S36" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>메세지</v>
       </c>
       <c r="T36" s="60"/>
       <c r="U36" s="63" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="V36" s="64"/>
-      <c r="W36" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="X36" s="64" t="s">
-        <v>368</v>
+      <c r="W36" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X36" s="63" t="s">
+        <v>329</v>
       </c>
       <c r="Y36" s="63" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="Z36" s="145">
         <v>43707</v>
@@ -12518,14 +12567,14 @@
       <c r="AE36" s="145"/>
       <c r="AF36" s="187"/>
       <c r="AG36" s="186"/>
-      <c r="AH36" s="188"/>
-      <c r="AI36" s="188"/>
-      <c r="AJ36" s="188"/>
-      <c r="AK36" s="188"/>
-      <c r="AL36" s="188"/>
-      <c r="AM36" s="78"/>
-      <c r="AN36" s="146"/>
-      <c r="AO36" s="79"/>
+      <c r="AH36" s="187"/>
+      <c r="AI36" s="187"/>
+      <c r="AJ36" s="187"/>
+      <c r="AK36" s="187"/>
+      <c r="AL36" s="187"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="145"/>
+      <c r="AO36" s="228"/>
       <c r="AP36" s="62"/>
       <c r="AQ36" s="62"/>
       <c r="AR36" s="62"/>
@@ -12538,15 +12587,15 @@
       <c r="D37" s="58"/>
       <c r="E37" s="56"/>
       <c r="F37" s="144" t="s">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="166"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="167"/>
-      <c r="L37" s="229" t="s">
-        <v>390</v>
+      <c r="L37" s="171" t="s">
+        <v>342</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="52"/>
@@ -12555,25 +12604,26 @@
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="R37" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="S37" s="82"/>
+        <v>336</v>
+      </c>
+      <c r="R37" s="35"/>
+      <c r="S37" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>다운로드</v>
+      </c>
       <c r="T37" s="60"/>
       <c r="U37" s="63" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="V37" s="64"/>
-      <c r="W37" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="X37" s="64" t="s">
-        <v>368</v>
+      <c r="W37" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="X37" s="63" t="s">
+        <v>329</v>
       </c>
       <c r="Y37" s="63" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="Z37" s="145">
         <v>43707</v>
@@ -12587,14 +12637,14 @@
       <c r="AE37" s="145"/>
       <c r="AF37" s="187"/>
       <c r="AG37" s="186"/>
-      <c r="AH37" s="188"/>
-      <c r="AI37" s="188"/>
-      <c r="AJ37" s="188"/>
-      <c r="AK37" s="188"/>
-      <c r="AL37" s="188"/>
-      <c r="AM37" s="78"/>
-      <c r="AN37" s="146"/>
-      <c r="AO37" s="79"/>
+      <c r="AH37" s="187"/>
+      <c r="AI37" s="187"/>
+      <c r="AJ37" s="187"/>
+      <c r="AK37" s="187"/>
+      <c r="AL37" s="187"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="145"/>
+      <c r="AO37" s="228"/>
       <c r="AP37" s="62"/>
       <c r="AQ37" s="62"/>
       <c r="AR37" s="62"/>
@@ -12607,7 +12657,7 @@
       <c r="D38" s="58"/>
       <c r="E38" s="56"/>
       <c r="F38" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="18"/>
@@ -12615,32 +12665,38 @@
       <c r="J38" s="166"/>
       <c r="K38" s="167"/>
       <c r="L38" s="229" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="52"/>
       <c r="O38" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="R38" s="35"/>
-      <c r="S38" s="82"/>
+      <c r="P38" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q38" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="R38" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="S38" s="82" t="s">
+        <v>365</v>
+      </c>
       <c r="T38" s="60"/>
       <c r="U38" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X38" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y38" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z38" s="145">
         <v>43707</v>
@@ -12674,46 +12730,42 @@
       <c r="D39" s="58"/>
       <c r="E39" s="56"/>
       <c r="F39" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="18"/>
       <c r="I39" s="165"/>
       <c r="J39" s="166"/>
       <c r="K39" s="167"/>
-      <c r="L39" s="171" t="s">
-        <v>372</v>
+      <c r="L39" s="229" t="s">
+        <v>389</v>
       </c>
       <c r="M39" s="18"/>
       <c r="N39" s="52"/>
       <c r="O39" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P39" s="14" t="s">
-        <v>373</v>
-      </c>
+      <c r="P39" s="14"/>
       <c r="Q39" s="35" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="R39" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="S39" s="82" t="s">
-        <v>372</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="S39" s="82"/>
       <c r="T39" s="60"/>
       <c r="U39" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X39" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y39" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z39" s="145">
         <v>43707</v>
@@ -12747,15 +12799,15 @@
       <c r="D40" s="58"/>
       <c r="E40" s="56"/>
       <c r="F40" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="18"/>
       <c r="I40" s="165"/>
       <c r="J40" s="166"/>
       <c r="K40" s="167"/>
-      <c r="L40" s="171" t="s">
-        <v>372</v>
+      <c r="L40" s="229" t="s">
+        <v>389</v>
       </c>
       <c r="M40" s="18"/>
       <c r="N40" s="52"/>
@@ -12764,25 +12816,23 @@
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="R40" s="35" t="s">
-        <v>377</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="R40" s="35"/>
       <c r="S40" s="82"/>
       <c r="T40" s="60"/>
       <c r="U40" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X40" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y40" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z40" s="145">
         <v>43707</v>
@@ -12816,7 +12866,7 @@
       <c r="D41" s="58"/>
       <c r="E41" s="56"/>
       <c r="F41" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="18"/>
@@ -12824,32 +12874,38 @@
       <c r="J41" s="166"/>
       <c r="K41" s="167"/>
       <c r="L41" s="171" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M41" s="18"/>
       <c r="N41" s="52"/>
       <c r="O41" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P41" s="14"/>
+      <c r="P41" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="Q41" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="82"/>
+        <v>373</v>
+      </c>
+      <c r="R41" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="S41" s="82" t="s">
+        <v>371</v>
+      </c>
       <c r="T41" s="60"/>
       <c r="U41" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X41" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y41" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z41" s="145">
         <v>43707</v>
@@ -12883,7 +12939,7 @@
       <c r="D42" s="58"/>
       <c r="E42" s="56"/>
       <c r="F42" s="144" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="18"/>
@@ -12891,38 +12947,34 @@
       <c r="J42" s="166"/>
       <c r="K42" s="167"/>
       <c r="L42" s="171" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="M42" s="18"/>
       <c r="N42" s="52"/>
       <c r="O42" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P42" s="232" t="s">
-        <v>407</v>
-      </c>
+      <c r="P42" s="14"/>
       <c r="Q42" s="35" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="R42" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="S42" s="82" t="s">
-        <v>394</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="S42" s="82"/>
       <c r="T42" s="60"/>
       <c r="U42" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="V42" s="64"/>
-      <c r="W42" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="X42" s="63" t="s">
-        <v>397</v>
+      <c r="X42" s="64" t="s">
+        <v>367</v>
       </c>
       <c r="Y42" s="63" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="Z42" s="145">
         <v>43707</v>
@@ -12949,52 +13001,72 @@
       <c r="AR42" s="62"/>
       <c r="AS42" s="62"/>
     </row>
-    <row r="43" spans="1:45" s="66" customFormat="1" ht="5.0999999999999996" customHeight="1">
+    <row r="43" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="32"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="134"/>
-      <c r="P43" s="134"/>
-      <c r="Q43" s="134"/>
-      <c r="R43" s="134"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="143"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="139"/>
-      <c r="W43" s="139"/>
-      <c r="X43" s="139"/>
-      <c r="Y43" s="140"/>
-      <c r="Z43" s="141"/>
-      <c r="AA43" s="142"/>
-      <c r="AB43" s="141"/>
-      <c r="AC43" s="142"/>
-      <c r="AD43" s="141"/>
-      <c r="AE43" s="142"/>
-      <c r="AF43" s="141"/>
-      <c r="AG43" s="142"/>
-      <c r="AH43" s="175"/>
-      <c r="AI43" s="176"/>
-      <c r="AJ43" s="175"/>
-      <c r="AK43" s="177"/>
-      <c r="AL43" s="191"/>
-      <c r="AM43" s="177"/>
-      <c r="AN43" s="175"/>
-      <c r="AO43" s="176"/>
-      <c r="AP43" s="138"/>
-      <c r="AQ43" s="139"/>
-      <c r="AR43" s="139"/>
-      <c r="AS43" s="139"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="144" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="171" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" s="18"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="R43" s="35"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y43" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z43" s="145">
+        <v>43707</v>
+      </c>
+      <c r="AA43" s="145">
+        <v>43767</v>
+      </c>
+      <c r="AB43" s="145"/>
+      <c r="AC43" s="145"/>
+      <c r="AD43" s="145"/>
+      <c r="AE43" s="145"/>
+      <c r="AF43" s="187"/>
+      <c r="AG43" s="186"/>
+      <c r="AH43" s="188"/>
+      <c r="AI43" s="188"/>
+      <c r="AJ43" s="188"/>
+      <c r="AK43" s="188"/>
+      <c r="AL43" s="188"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="146"/>
+      <c r="AO43" s="79"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
     </row>
     <row r="44" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="32"/>
@@ -13003,43 +13075,46 @@
       <c r="D44" s="58"/>
       <c r="E44" s="56"/>
       <c r="F44" s="144" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="165"/>
       <c r="J44" s="166"/>
       <c r="K44" s="167"/>
-      <c r="L44" s="178" t="s">
-        <v>415</v>
+      <c r="L44" s="171" t="s">
+        <v>393</v>
       </c>
       <c r="M44" s="18"/>
       <c r="N44" s="52"/>
       <c r="O44" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="82" t="str">
-        <f t="shared" ref="S44:S61" si="2">IF(TRIM(L44)="","",L44)</f>
-        <v>게시글 목록</v>
+        <v>324</v>
+      </c>
+      <c r="P44" s="232" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q44" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="R44" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="S44" s="82" t="s">
+        <v>393</v>
       </c>
       <c r="T44" s="60"/>
-      <c r="U44" s="64" t="s">
-        <v>288</v>
+      <c r="U44" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="V44" s="64"/>
-      <c r="W44" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="X44" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y44" s="65" t="s">
-        <v>287</v>
+      <c r="W44" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="X44" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y44" s="63" t="s">
+        <v>396</v>
       </c>
       <c r="Z44" s="145">
         <v>43707</v>
@@ -13053,12 +13128,12 @@
       <c r="AE44" s="145"/>
       <c r="AF44" s="187"/>
       <c r="AG44" s="186"/>
-      <c r="AH44" s="146"/>
-      <c r="AI44" s="146"/>
+      <c r="AH44" s="188"/>
+      <c r="AI44" s="188"/>
       <c r="AJ44" s="188"/>
-      <c r="AK44" s="161"/>
+      <c r="AK44" s="188"/>
       <c r="AL44" s="188"/>
-      <c r="AM44" s="161"/>
+      <c r="AM44" s="78"/>
       <c r="AN44" s="146"/>
       <c r="AO44" s="79"/>
       <c r="AP44" s="62"/>
@@ -13066,75 +13141,52 @@
       <c r="AR44" s="62"/>
       <c r="AS44" s="62"/>
     </row>
-    <row r="45" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:45" s="66" customFormat="1" ht="5.0999999999999996" customHeight="1">
       <c r="A45" s="32"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="144" t="s">
-        <v>408</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="167"/>
-      <c r="L45" s="178" t="s">
-        <v>416</v>
-      </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P45" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>게시글 상세</v>
-      </c>
-      <c r="T45" s="60"/>
-      <c r="U45" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="X45" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y45" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z45" s="145">
-        <v>43707</v>
-      </c>
-      <c r="AA45" s="145">
-        <v>43767</v>
-      </c>
-      <c r="AB45" s="145"/>
-      <c r="AC45" s="145"/>
-      <c r="AD45" s="145"/>
-      <c r="AE45" s="145"/>
-      <c r="AF45" s="187"/>
-      <c r="AG45" s="186"/>
-      <c r="AH45" s="146"/>
-      <c r="AI45" s="146"/>
-      <c r="AJ45" s="188"/>
-      <c r="AK45" s="161"/>
-      <c r="AL45" s="188"/>
-      <c r="AM45" s="161"/>
-      <c r="AN45" s="146"/>
-      <c r="AO45" s="79"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="134"/>
+      <c r="P45" s="134"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="143"/>
+      <c r="U45" s="139"/>
+      <c r="V45" s="139"/>
+      <c r="W45" s="139"/>
+      <c r="X45" s="139"/>
+      <c r="Y45" s="140"/>
+      <c r="Z45" s="141"/>
+      <c r="AA45" s="142"/>
+      <c r="AB45" s="141"/>
+      <c r="AC45" s="142"/>
+      <c r="AD45" s="141"/>
+      <c r="AE45" s="142"/>
+      <c r="AF45" s="141"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="175"/>
+      <c r="AI45" s="176"/>
+      <c r="AJ45" s="175"/>
+      <c r="AK45" s="177"/>
+      <c r="AL45" s="191"/>
+      <c r="AM45" s="177"/>
+      <c r="AN45" s="175"/>
+      <c r="AO45" s="176"/>
+      <c r="AP45" s="138"/>
+      <c r="AQ45" s="139"/>
+      <c r="AR45" s="139"/>
+      <c r="AS45" s="139"/>
     </row>
     <row r="46" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="32"/>
@@ -13143,7 +13195,7 @@
       <c r="D46" s="58"/>
       <c r="E46" s="56"/>
       <c r="F46" s="144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -13151,7 +13203,7 @@
       <c r="J46" s="166"/>
       <c r="K46" s="167"/>
       <c r="L46" s="178" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M46" s="18"/>
       <c r="N46" s="52"/>
@@ -13159,13 +13211,13 @@
         <v>226</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
       <c r="S46" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>게시글 등록 및 수정</v>
+        <f t="shared" ref="S46:S62" si="3">IF(TRIM(L46)="","",L46)</f>
+        <v>게시글 목록</v>
       </c>
       <c r="T46" s="60"/>
       <c r="U46" s="64" t="s">
@@ -13178,7 +13230,7 @@
       <c r="X46" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="Y46" s="64" t="s">
+      <c r="Y46" s="65" t="s">
         <v>287</v>
       </c>
       <c r="Z46" s="145">
@@ -13213,7 +13265,7 @@
       <c r="D47" s="58"/>
       <c r="E47" s="56"/>
       <c r="F47" s="144" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -13221,7 +13273,7 @@
       <c r="J47" s="166"/>
       <c r="K47" s="167"/>
       <c r="L47" s="178" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="52"/>
@@ -13229,17 +13281,17 @@
         <v>226</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
       <c r="S47" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>공지 목록</v>
+        <f t="shared" si="3"/>
+        <v>게시글 상세</v>
       </c>
       <c r="T47" s="60"/>
       <c r="U47" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="64" t="s">
@@ -13283,7 +13335,7 @@
       <c r="D48" s="58"/>
       <c r="E48" s="56"/>
       <c r="F48" s="144" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -13291,7 +13343,7 @@
       <c r="J48" s="166"/>
       <c r="K48" s="167"/>
       <c r="L48" s="178" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="M48" s="18"/>
       <c r="N48" s="52"/>
@@ -13299,17 +13351,17 @@
         <v>226</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
       <c r="S48" s="82" t="str">
-        <f>IF(TRIM(L48)="","",L48)</f>
-        <v>공지 상세</v>
+        <f t="shared" si="3"/>
+        <v>게시글 등록 및 수정</v>
       </c>
       <c r="T48" s="60"/>
       <c r="U48" s="64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V48" s="64"/>
       <c r="W48" s="64" t="s">
@@ -13318,7 +13370,7 @@
       <c r="X48" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="Y48" s="65" t="s">
+      <c r="Y48" s="64" t="s">
         <v>287</v>
       </c>
       <c r="Z48" s="145">
@@ -13353,7 +13405,7 @@
       <c r="D49" s="58"/>
       <c r="E49" s="56"/>
       <c r="F49" s="144" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -13361,7 +13413,7 @@
       <c r="J49" s="166"/>
       <c r="K49" s="167"/>
       <c r="L49" s="178" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="52"/>
@@ -13369,13 +13421,13 @@
         <v>226</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>공지 등록 및 수정</v>
+        <f t="shared" si="3"/>
+        <v>공지 목록</v>
       </c>
       <c r="T49" s="60"/>
       <c r="U49" s="64" t="s">
@@ -13388,7 +13440,7 @@
       <c r="X49" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="Y49" s="64" t="s">
+      <c r="Y49" s="65" t="s">
         <v>287</v>
       </c>
       <c r="Z49" s="145">
@@ -13406,7 +13458,7 @@
       <c r="AH49" s="146"/>
       <c r="AI49" s="146"/>
       <c r="AJ49" s="188"/>
-      <c r="AK49" s="78"/>
+      <c r="AK49" s="161"/>
       <c r="AL49" s="188"/>
       <c r="AM49" s="161"/>
       <c r="AN49" s="146"/>
@@ -13423,15 +13475,15 @@
       <c r="D50" s="58"/>
       <c r="E50" s="56"/>
       <c r="F50" s="144" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="14"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="166"/>
       <c r="K50" s="167"/>
       <c r="L50" s="178" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="M50" s="18"/>
       <c r="N50" s="52"/>
@@ -13439,27 +13491,27 @@
         <v>226</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
       <c r="S50" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>장바구니 목록</v>
+        <f>IF(TRIM(L50)="","",L50)</f>
+        <v>공지 상세</v>
       </c>
       <c r="T50" s="60"/>
       <c r="U50" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V50" s="64"/>
       <c r="W50" s="64" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="X50" s="64" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Y50" s="65" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Z50" s="145">
         <v>43707</v>
@@ -13473,14 +13525,14 @@
       <c r="AE50" s="145"/>
       <c r="AF50" s="187"/>
       <c r="AG50" s="186"/>
-      <c r="AH50" s="145"/>
-      <c r="AI50" s="145"/>
-      <c r="AJ50" s="187"/>
-      <c r="AK50" s="61"/>
-      <c r="AL50" s="187"/>
-      <c r="AM50" s="186"/>
-      <c r="AN50" s="145"/>
-      <c r="AO50" s="228"/>
+      <c r="AH50" s="146"/>
+      <c r="AI50" s="146"/>
+      <c r="AJ50" s="188"/>
+      <c r="AK50" s="161"/>
+      <c r="AL50" s="188"/>
+      <c r="AM50" s="161"/>
+      <c r="AN50" s="146"/>
+      <c r="AO50" s="79"/>
       <c r="AP50" s="62"/>
       <c r="AQ50" s="62"/>
       <c r="AR50" s="62"/>
@@ -13501,7 +13553,7 @@
       <c r="J51" s="166"/>
       <c r="K51" s="167"/>
       <c r="L51" s="178" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="52"/>
@@ -13509,13 +13561,13 @@
         <v>226</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
       <c r="S51" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>결제목록</v>
+        <f t="shared" si="3"/>
+        <v>공지 등록 및 수정</v>
       </c>
       <c r="T51" s="60"/>
       <c r="U51" s="64" t="s">
@@ -13523,13 +13575,13 @@
       </c>
       <c r="V51" s="64"/>
       <c r="W51" s="64" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="X51" s="64" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Y51" s="64" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Z51" s="145">
         <v>43707</v>
@@ -13546,7 +13598,7 @@
       <c r="AH51" s="146"/>
       <c r="AI51" s="146"/>
       <c r="AJ51" s="188"/>
-      <c r="AK51" s="161"/>
+      <c r="AK51" s="78"/>
       <c r="AL51" s="188"/>
       <c r="AM51" s="161"/>
       <c r="AN51" s="146"/>
@@ -13563,15 +13615,15 @@
       <c r="D52" s="58"/>
       <c r="E52" s="56"/>
       <c r="F52" s="144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="166"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="14"/>
       <c r="K52" s="167"/>
       <c r="L52" s="178" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="52"/>
@@ -13579,17 +13631,17 @@
         <v>226</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
       <c r="S52" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>결제완료</v>
+        <f t="shared" si="3"/>
+        <v>장바구니 목록</v>
       </c>
       <c r="T52" s="60"/>
       <c r="U52" s="64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V52" s="64"/>
       <c r="W52" s="64" t="s">
@@ -13598,7 +13650,7 @@
       <c r="X52" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="Y52" s="64" t="s">
+      <c r="Y52" s="65" t="s">
         <v>306</v>
       </c>
       <c r="Z52" s="145">
@@ -13613,14 +13665,14 @@
       <c r="AE52" s="145"/>
       <c r="AF52" s="187"/>
       <c r="AG52" s="186"/>
-      <c r="AH52" s="146"/>
-      <c r="AI52" s="146"/>
-      <c r="AJ52" s="188"/>
-      <c r="AK52" s="161"/>
-      <c r="AL52" s="188"/>
-      <c r="AM52" s="161"/>
-      <c r="AN52" s="146"/>
-      <c r="AO52" s="79"/>
+      <c r="AH52" s="145"/>
+      <c r="AI52" s="145"/>
+      <c r="AJ52" s="187"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="187"/>
+      <c r="AM52" s="186"/>
+      <c r="AN52" s="145"/>
+      <c r="AO52" s="228"/>
       <c r="AP52" s="62"/>
       <c r="AQ52" s="62"/>
       <c r="AR52" s="62"/>
@@ -13633,7 +13685,7 @@
       <c r="D53" s="58"/>
       <c r="E53" s="56"/>
       <c r="F53" s="144" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -13641,7 +13693,7 @@
       <c r="J53" s="166"/>
       <c r="K53" s="167"/>
       <c r="L53" s="178" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M53" s="18"/>
       <c r="N53" s="52"/>
@@ -13649,13 +13701,13 @@
         <v>226</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
       <c r="S53" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>좋아요 목록</v>
+        <f t="shared" si="3"/>
+        <v>결제목록</v>
       </c>
       <c r="T53" s="60"/>
       <c r="U53" s="64" t="s">
@@ -13663,13 +13715,13 @@
       </c>
       <c r="V53" s="64"/>
       <c r="W53" s="64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="X53" s="64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Y53" s="64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Z53" s="145">
         <v>43707</v>
@@ -13703,15 +13755,15 @@
       <c r="D54" s="58"/>
       <c r="E54" s="56"/>
       <c r="F54" s="144" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="165"/>
       <c r="J54" s="166"/>
       <c r="K54" s="167"/>
-      <c r="L54" s="179" t="s">
-        <v>319</v>
+      <c r="L54" s="178" t="s">
+        <v>355</v>
       </c>
       <c r="M54" s="18"/>
       <c r="N54" s="52"/>
@@ -13719,27 +13771,27 @@
         <v>226</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
       <c r="S54" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>내 질문</v>
+        <f t="shared" si="3"/>
+        <v>결제완료</v>
       </c>
       <c r="T54" s="60"/>
       <c r="U54" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V54" s="64"/>
       <c r="W54" s="64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="X54" s="64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Y54" s="64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Z54" s="145">
         <v>43707</v>
@@ -13752,7 +13804,7 @@
       <c r="AD54" s="145"/>
       <c r="AE54" s="145"/>
       <c r="AF54" s="187"/>
-      <c r="AG54" s="61"/>
+      <c r="AG54" s="186"/>
       <c r="AH54" s="146"/>
       <c r="AI54" s="146"/>
       <c r="AJ54" s="188"/>
@@ -13776,12 +13828,12 @@
         <v>309</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="18"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="165"/>
       <c r="J55" s="166"/>
       <c r="K55" s="167"/>
-      <c r="L55" s="179" t="s">
-        <v>320</v>
+      <c r="L55" s="178" t="s">
+        <v>318</v>
       </c>
       <c r="M55" s="18"/>
       <c r="N55" s="52"/>
@@ -13789,17 +13841,17 @@
         <v>226</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
       <c r="S55" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>내 답변</v>
+        <f t="shared" si="3"/>
+        <v>좋아요 목록</v>
       </c>
       <c r="T55" s="60"/>
       <c r="U55" s="64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V55" s="64"/>
       <c r="W55" s="64" t="s">
@@ -13822,11 +13874,11 @@
       <c r="AD55" s="145"/>
       <c r="AE55" s="145"/>
       <c r="AF55" s="187"/>
-      <c r="AG55" s="226"/>
+      <c r="AG55" s="186"/>
       <c r="AH55" s="146"/>
       <c r="AI55" s="146"/>
       <c r="AJ55" s="188"/>
-      <c r="AK55" s="227"/>
+      <c r="AK55" s="161"/>
       <c r="AL55" s="188"/>
       <c r="AM55" s="161"/>
       <c r="AN55" s="146"/>
@@ -13846,12 +13898,12 @@
         <v>309</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="18"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="165"/>
       <c r="J56" s="166"/>
       <c r="K56" s="167"/>
       <c r="L56" s="179" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M56" s="18"/>
       <c r="N56" s="52"/>
@@ -13859,17 +13911,17 @@
         <v>226</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
       <c r="S56" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>내 구매내역</v>
+        <f t="shared" si="3"/>
+        <v>내 질문</v>
       </c>
       <c r="T56" s="60"/>
       <c r="U56" s="64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V56" s="64"/>
       <c r="W56" s="64" t="s">
@@ -13892,11 +13944,11 @@
       <c r="AD56" s="145"/>
       <c r="AE56" s="145"/>
       <c r="AF56" s="187"/>
-      <c r="AG56" s="226"/>
+      <c r="AG56" s="61"/>
       <c r="AH56" s="146"/>
       <c r="AI56" s="146"/>
       <c r="AJ56" s="188"/>
-      <c r="AK56" s="227"/>
+      <c r="AK56" s="161"/>
       <c r="AL56" s="188"/>
       <c r="AM56" s="161"/>
       <c r="AN56" s="146"/>
@@ -13921,7 +13973,7 @@
       <c r="J57" s="166"/>
       <c r="K57" s="167"/>
       <c r="L57" s="179" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M57" s="18"/>
       <c r="N57" s="52"/>
@@ -13929,13 +13981,13 @@
         <v>226</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
       <c r="S57" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v>구매 등급</v>
+        <f t="shared" si="3"/>
+        <v>내 답변</v>
       </c>
       <c r="T57" s="60"/>
       <c r="U57" s="64" t="s">
@@ -13976,145 +14028,145 @@
       <c r="AR57" s="62"/>
       <c r="AS57" s="62"/>
     </row>
-    <row r="58" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="250"/>
-      <c r="B58" s="251"/>
-      <c r="C58" s="252"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="252"/>
-      <c r="F58" s="254" t="s">
-        <v>323</v>
-      </c>
-      <c r="G58" s="255"/>
-      <c r="H58" s="256"/>
-      <c r="I58" s="257"/>
-      <c r="J58" s="255"/>
-      <c r="K58" s="257"/>
-      <c r="L58" s="271" t="s">
-        <v>345</v>
-      </c>
-      <c r="M58" s="256"/>
-      <c r="N58" s="259"/>
-      <c r="O58" s="255" t="s">
-        <v>344</v>
-      </c>
-      <c r="P58" s="293" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q58" s="251"/>
-      <c r="R58" s="251"/>
-      <c r="S58" s="260" t="str">
-        <f t="shared" si="2"/>
-        <v>상품 상세</v>
-      </c>
-      <c r="T58" s="261"/>
-      <c r="U58" s="263" t="s">
+    <row r="58" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="144" t="s">
+        <v>309</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="M58" s="18"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P58" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>내 구매내역</v>
+      </c>
+      <c r="T58" s="60"/>
+      <c r="U58" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="V58" s="263"/>
-      <c r="W58" s="263" t="s">
+      <c r="V58" s="64"/>
+      <c r="W58" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="X58" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y58" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z58" s="145">
+        <v>43707</v>
+      </c>
+      <c r="AA58" s="145">
+        <v>43767</v>
+      </c>
+      <c r="AB58" s="145"/>
+      <c r="AC58" s="145"/>
+      <c r="AD58" s="145"/>
+      <c r="AE58" s="145"/>
+      <c r="AF58" s="187"/>
+      <c r="AG58" s="226"/>
+      <c r="AH58" s="146"/>
+      <c r="AI58" s="146"/>
+      <c r="AJ58" s="188"/>
+      <c r="AK58" s="227"/>
+      <c r="AL58" s="188"/>
+      <c r="AM58" s="161"/>
+      <c r="AN58" s="146"/>
+      <c r="AO58" s="79"/>
+      <c r="AP58" s="62"/>
+      <c r="AQ58" s="62"/>
+      <c r="AR58" s="62"/>
+      <c r="AS58" s="62"/>
+    </row>
+    <row r="59" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="144" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="166"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="M59" s="18"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P59" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="82" t="str">
+        <f t="shared" si="3"/>
+        <v>구매 등급</v>
+      </c>
+      <c r="T59" s="60"/>
+      <c r="U59" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="X58" s="263" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y58" s="263" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z58" s="264">
+      <c r="V59" s="64"/>
+      <c r="W59" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="X59" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y59" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z59" s="145">
         <v>43707</v>
       </c>
-      <c r="AA58" s="264">
+      <c r="AA59" s="145">
         <v>43767</v>
       </c>
-      <c r="AB58" s="264"/>
-      <c r="AC58" s="264"/>
-      <c r="AD58" s="264"/>
-      <c r="AE58" s="264"/>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="272"/>
-      <c r="AH58" s="264"/>
-      <c r="AI58" s="264"/>
-      <c r="AJ58" s="265"/>
-      <c r="AK58" s="272"/>
-      <c r="AL58" s="265"/>
-      <c r="AM58" s="266"/>
-      <c r="AN58" s="264"/>
-      <c r="AO58" s="268"/>
-      <c r="AP58" s="269"/>
-      <c r="AQ58" s="269"/>
-      <c r="AR58" s="269"/>
-      <c r="AS58" s="269"/>
-    </row>
-    <row r="59" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="250"/>
-      <c r="B59" s="251"/>
-      <c r="C59" s="252"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="252"/>
-      <c r="F59" s="254" t="s">
-        <v>323</v>
-      </c>
-      <c r="G59" s="255"/>
-      <c r="H59" s="256"/>
-      <c r="I59" s="257"/>
-      <c r="J59" s="255"/>
-      <c r="K59" s="257"/>
-      <c r="L59" s="271" t="s">
-        <v>392</v>
-      </c>
-      <c r="M59" s="256"/>
-      <c r="N59" s="259"/>
-      <c r="O59" s="255" t="s">
-        <v>344</v>
-      </c>
-      <c r="P59" s="293" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q59" s="251"/>
-      <c r="R59" s="251"/>
-      <c r="S59" s="260" t="str">
-        <f>IF(TRIM(L59)="","",L59)</f>
-        <v>상품 등록 및 수정</v>
-      </c>
-      <c r="T59" s="261"/>
-      <c r="U59" s="263" t="s">
-        <v>286</v>
-      </c>
-      <c r="V59" s="263"/>
-      <c r="W59" s="263" t="s">
-        <v>286</v>
-      </c>
-      <c r="X59" s="263" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y59" s="263" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z59" s="264">
-        <v>43707</v>
-      </c>
-      <c r="AA59" s="264">
-        <v>43767</v>
-      </c>
-      <c r="AB59" s="264"/>
-      <c r="AC59" s="264"/>
-      <c r="AD59" s="264"/>
-      <c r="AE59" s="264"/>
-      <c r="AF59" s="265"/>
-      <c r="AG59" s="272"/>
-      <c r="AH59" s="264"/>
-      <c r="AI59" s="264"/>
-      <c r="AJ59" s="265"/>
-      <c r="AK59" s="272"/>
-      <c r="AL59" s="265"/>
-      <c r="AM59" s="266"/>
-      <c r="AN59" s="264"/>
-      <c r="AO59" s="268"/>
-      <c r="AP59" s="269"/>
-      <c r="AQ59" s="269"/>
-      <c r="AR59" s="269"/>
-      <c r="AS59" s="269"/>
+      <c r="AB59" s="145"/>
+      <c r="AC59" s="145"/>
+      <c r="AD59" s="145"/>
+      <c r="AE59" s="145"/>
+      <c r="AF59" s="187"/>
+      <c r="AG59" s="226"/>
+      <c r="AH59" s="146"/>
+      <c r="AI59" s="146"/>
+      <c r="AJ59" s="188"/>
+      <c r="AK59" s="227"/>
+      <c r="AL59" s="188"/>
+      <c r="AM59" s="161"/>
+      <c r="AN59" s="146"/>
+      <c r="AO59" s="79"/>
+      <c r="AP59" s="62"/>
+      <c r="AQ59" s="62"/>
+      <c r="AR59" s="62"/>
+      <c r="AS59" s="62"/>
     </row>
     <row r="60" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="250"/>
@@ -14131,27 +14183,29 @@
       <c r="J60" s="255"/>
       <c r="K60" s="257"/>
       <c r="L60" s="271" t="s">
-        <v>433</v>
+        <v>344</v>
       </c>
       <c r="M60" s="256"/>
       <c r="N60" s="259"/>
       <c r="O60" s="255" t="s">
-        <v>344</v>
-      </c>
-      <c r="P60" s="255" t="s">
-        <v>432</v>
+        <v>343</v>
+      </c>
+      <c r="P60" s="293" t="s">
+        <v>354</v>
       </c>
       <c r="Q60" s="251"/>
       <c r="R60" s="251"/>
       <c r="S60" s="260" t="str">
-        <f t="shared" ref="S60" si="3">IF(TRIM(L60)="","",L60)</f>
-        <v>사진업로드</v>
+        <f t="shared" si="3"/>
+        <v>상품 상세</v>
       </c>
       <c r="T60" s="261"/>
       <c r="U60" s="263" t="s">
         <v>286</v>
       </c>
-      <c r="V60" s="263"/>
+      <c r="V60" s="263" t="s">
+        <v>286</v>
+      </c>
       <c r="W60" s="263" t="s">
         <v>286</v>
       </c>
@@ -14201,27 +14255,29 @@
       <c r="J61" s="255"/>
       <c r="K61" s="257"/>
       <c r="L61" s="271" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="M61" s="256"/>
       <c r="N61" s="259"/>
       <c r="O61" s="255" t="s">
-        <v>344</v>
-      </c>
-      <c r="P61" s="255" t="s">
-        <v>434</v>
+        <v>343</v>
+      </c>
+      <c r="P61" s="293" t="s">
+        <v>426</v>
       </c>
       <c r="Q61" s="251"/>
       <c r="R61" s="251"/>
       <c r="S61" s="260" t="str">
-        <f t="shared" si="2"/>
-        <v>옵션추가</v>
+        <f>IF(TRIM(L61)="","",L61)</f>
+        <v>상품 등록 및 수정</v>
       </c>
       <c r="T61" s="261"/>
       <c r="U61" s="263" t="s">
         <v>286</v>
       </c>
-      <c r="V61" s="263"/>
+      <c r="V61" s="263" t="s">
+        <v>286</v>
+      </c>
       <c r="W61" s="263" t="s">
         <v>286</v>
       </c>
@@ -14256,74 +14312,77 @@
       <c r="AR61" s="269"/>
       <c r="AS61" s="269"/>
     </row>
-    <row r="62" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="144" t="s">
-        <v>389</v>
-      </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="166"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="178" t="s">
-        <v>379</v>
-      </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="P62" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="T62" s="60"/>
-      <c r="U62" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="V62" s="64"/>
-      <c r="W62" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="X62" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y62" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z62" s="145">
+    <row r="62" spans="1:45" s="270" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="250"/>
+      <c r="B62" s="251"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="252"/>
+      <c r="F62" s="254" t="s">
+        <v>323</v>
+      </c>
+      <c r="G62" s="255"/>
+      <c r="H62" s="256"/>
+      <c r="I62" s="257"/>
+      <c r="J62" s="255"/>
+      <c r="K62" s="257"/>
+      <c r="L62" s="271" t="s">
+        <v>431</v>
+      </c>
+      <c r="M62" s="256"/>
+      <c r="N62" s="259"/>
+      <c r="O62" s="255" t="s">
+        <v>343</v>
+      </c>
+      <c r="P62" s="293" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q62" s="251"/>
+      <c r="R62" s="251"/>
+      <c r="S62" s="260" t="str">
+        <f t="shared" si="3"/>
+        <v>옵션추가</v>
+      </c>
+      <c r="T62" s="261"/>
+      <c r="U62" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="V62" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="W62" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="X62" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y62" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z62" s="264">
         <v>43707</v>
       </c>
-      <c r="AA62" s="145">
+      <c r="AA62" s="264">
         <v>43767</v>
       </c>
-      <c r="AB62" s="145"/>
-      <c r="AC62" s="226"/>
-      <c r="AD62" s="145"/>
-      <c r="AE62" s="226"/>
-      <c r="AF62" s="230"/>
-      <c r="AG62" s="186"/>
-      <c r="AH62" s="146"/>
-      <c r="AI62" s="227"/>
-      <c r="AJ62" s="231"/>
-      <c r="AK62" s="227"/>
-      <c r="AL62" s="231"/>
-      <c r="AM62" s="161"/>
-      <c r="AN62" s="146"/>
-      <c r="AO62" s="79"/>
-      <c r="AP62" s="62"/>
-      <c r="AQ62" s="62"/>
-      <c r="AR62" s="62"/>
-      <c r="AS62" s="62"/>
+      <c r="AB62" s="264"/>
+      <c r="AC62" s="264"/>
+      <c r="AD62" s="264"/>
+      <c r="AE62" s="264"/>
+      <c r="AF62" s="265"/>
+      <c r="AG62" s="272"/>
+      <c r="AH62" s="264"/>
+      <c r="AI62" s="264"/>
+      <c r="AJ62" s="265"/>
+      <c r="AK62" s="272"/>
+      <c r="AL62" s="265"/>
+      <c r="AM62" s="266"/>
+      <c r="AN62" s="264"/>
+      <c r="AO62" s="268"/>
+      <c r="AP62" s="269"/>
+      <c r="AQ62" s="269"/>
+      <c r="AR62" s="269"/>
+      <c r="AS62" s="269"/>
     </row>
     <row r="63" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="32"/>
@@ -14332,7 +14391,7 @@
       <c r="D63" s="58"/>
       <c r="E63" s="56"/>
       <c r="F63" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="18"/>
@@ -14340,34 +14399,34 @@
       <c r="J63" s="166"/>
       <c r="K63" s="167"/>
       <c r="L63" s="178" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M63" s="18"/>
       <c r="N63" s="52"/>
       <c r="O63" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P63" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="82" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="T63" s="60"/>
       <c r="U63" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V63" s="64"/>
       <c r="W63" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X63" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y63" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z63" s="145">
         <v>43707</v>
@@ -14401,7 +14460,7 @@
       <c r="D64" s="58"/>
       <c r="E64" s="56"/>
       <c r="F64" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="18"/>
@@ -14409,34 +14468,34 @@
       <c r="J64" s="166"/>
       <c r="K64" s="167"/>
       <c r="L64" s="178" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M64" s="18"/>
       <c r="N64" s="52"/>
       <c r="O64" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="82" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="T64" s="60"/>
       <c r="U64" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V64" s="64"/>
       <c r="W64" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X64" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y64" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z64" s="145">
         <v>43707</v>
@@ -14470,7 +14529,7 @@
       <c r="D65" s="58"/>
       <c r="E65" s="56"/>
       <c r="F65" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="18"/>
@@ -14478,34 +14537,34 @@
       <c r="J65" s="166"/>
       <c r="K65" s="167"/>
       <c r="L65" s="178" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="52"/>
       <c r="O65" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
       <c r="S65" s="82" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="T65" s="60"/>
       <c r="U65" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V65" s="64"/>
       <c r="W65" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X65" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y65" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z65" s="145">
         <v>43707</v>
@@ -14539,7 +14598,7 @@
       <c r="D66" s="58"/>
       <c r="E66" s="56"/>
       <c r="F66" s="144" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="18"/>
@@ -14547,34 +14606,34 @@
       <c r="J66" s="166"/>
       <c r="K66" s="167"/>
       <c r="L66" s="178" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M66" s="18"/>
       <c r="N66" s="52"/>
       <c r="O66" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="82" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="T66" s="60"/>
       <c r="U66" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V66" s="64"/>
       <c r="W66" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X66" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z66" s="145">
         <v>43707</v>
@@ -14608,7 +14667,7 @@
       <c r="D67" s="58"/>
       <c r="E67" s="56"/>
       <c r="F67" s="144" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="18"/>
@@ -14616,34 +14675,34 @@
       <c r="J67" s="166"/>
       <c r="K67" s="167"/>
       <c r="L67" s="178" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="M67" s="18"/>
       <c r="N67" s="52"/>
       <c r="O67" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="82" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="T67" s="60"/>
       <c r="U67" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V67" s="64"/>
       <c r="W67" s="64" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="X67" s="64" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="Y67" s="63" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="Z67" s="145">
         <v>43707</v>
@@ -14656,7 +14715,7 @@
       <c r="AD67" s="145"/>
       <c r="AE67" s="226"/>
       <c r="AF67" s="230"/>
-      <c r="AG67" s="226"/>
+      <c r="AG67" s="186"/>
       <c r="AH67" s="146"/>
       <c r="AI67" s="227"/>
       <c r="AJ67" s="231"/>
@@ -14677,42 +14736,42 @@
       <c r="D68" s="58"/>
       <c r="E68" s="56"/>
       <c r="F68" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="18"/>
       <c r="I68" s="165"/>
       <c r="J68" s="166"/>
       <c r="K68" s="167"/>
-      <c r="L68" s="179" t="s">
-        <v>401</v>
+      <c r="L68" s="178" t="s">
+        <v>398</v>
       </c>
       <c r="M68" s="18"/>
       <c r="N68" s="52"/>
       <c r="O68" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="82" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="T68" s="60"/>
       <c r="U68" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V68" s="64"/>
       <c r="W68" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X68" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y68" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z68" s="145">
         <v>43707</v>
@@ -14721,16 +14780,16 @@
         <v>43767</v>
       </c>
       <c r="AB68" s="145"/>
-      <c r="AC68" s="145"/>
+      <c r="AC68" s="226"/>
       <c r="AD68" s="145"/>
-      <c r="AE68" s="145"/>
-      <c r="AF68" s="187"/>
+      <c r="AE68" s="226"/>
+      <c r="AF68" s="230"/>
       <c r="AG68" s="226"/>
       <c r="AH68" s="146"/>
-      <c r="AI68" s="146"/>
-      <c r="AJ68" s="188"/>
+      <c r="AI68" s="227"/>
+      <c r="AJ68" s="231"/>
       <c r="AK68" s="227"/>
-      <c r="AL68" s="188"/>
+      <c r="AL68" s="231"/>
       <c r="AM68" s="161"/>
       <c r="AN68" s="146"/>
       <c r="AO68" s="79"/>
@@ -14746,7 +14805,7 @@
       <c r="D69" s="58"/>
       <c r="E69" s="56"/>
       <c r="F69" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="18"/>
@@ -14754,34 +14813,34 @@
       <c r="J69" s="166"/>
       <c r="K69" s="167"/>
       <c r="L69" s="179" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M69" s="18"/>
       <c r="N69" s="52"/>
       <c r="O69" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="82" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="T69" s="60"/>
       <c r="U69" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V69" s="64"/>
       <c r="W69" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X69" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y69" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z69" s="145">
         <v>43707</v>
@@ -14815,42 +14874,42 @@
       <c r="D70" s="58"/>
       <c r="E70" s="56"/>
       <c r="F70" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="18"/>
       <c r="I70" s="165"/>
       <c r="J70" s="166"/>
       <c r="K70" s="167"/>
-      <c r="L70" s="178" t="s">
-        <v>405</v>
+      <c r="L70" s="179" t="s">
+        <v>402</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="52"/>
       <c r="O70" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="82" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T70" s="60"/>
       <c r="U70" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V70" s="64"/>
       <c r="W70" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X70" s="64" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y70" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="Y70" s="63" t="s">
+        <v>396</v>
       </c>
       <c r="Z70" s="145">
         <v>43707</v>
@@ -14863,11 +14922,11 @@
       <c r="AD70" s="145"/>
       <c r="AE70" s="145"/>
       <c r="AF70" s="187"/>
-      <c r="AG70" s="186"/>
+      <c r="AG70" s="226"/>
       <c r="AH70" s="146"/>
       <c r="AI70" s="146"/>
       <c r="AJ70" s="188"/>
-      <c r="AK70" s="78"/>
+      <c r="AK70" s="227"/>
       <c r="AL70" s="188"/>
       <c r="AM70" s="161"/>
       <c r="AN70" s="146"/>
@@ -14877,229 +14936,266 @@
       <c r="AR70" s="62"/>
       <c r="AS70" s="62"/>
     </row>
-    <row r="71" spans="1:45" s="66" customFormat="1" ht="4.5" customHeight="1">
+    <row r="71" spans="1:45" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="131"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="132"/>
-      <c r="F71" s="133"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="134"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="134"/>
-      <c r="N71" s="137"/>
-      <c r="O71" s="134"/>
-      <c r="P71" s="134"/>
-      <c r="Q71" s="134"/>
-      <c r="R71" s="134"/>
-      <c r="S71" s="137"/>
-      <c r="T71" s="143"/>
-      <c r="U71" s="139"/>
-      <c r="V71" s="139"/>
-      <c r="W71" s="139"/>
-      <c r="X71" s="139"/>
-      <c r="Y71" s="140"/>
-      <c r="Z71" s="141"/>
-      <c r="AA71" s="142"/>
-      <c r="AB71" s="141"/>
-      <c r="AC71" s="142"/>
-      <c r="AD71" s="141"/>
-      <c r="AE71" s="142"/>
-      <c r="AF71" s="141"/>
-      <c r="AG71" s="142"/>
-      <c r="AH71" s="141"/>
-      <c r="AI71" s="142"/>
-      <c r="AJ71" s="141"/>
-      <c r="AK71" s="162"/>
-      <c r="AL71" s="141"/>
-      <c r="AM71" s="142"/>
-      <c r="AN71" s="141"/>
-      <c r="AO71" s="142"/>
-      <c r="AP71" s="138"/>
-      <c r="AQ71" s="139"/>
-      <c r="AR71" s="139"/>
-      <c r="AS71" s="139"/>
-    </row>
-    <row r="72" spans="1:45" ht="15" customHeight="1">
-      <c r="B72" s="14" t="s">
+      <c r="B71" s="35"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="144" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="166"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="178" t="s">
+        <v>404</v>
+      </c>
+      <c r="M71" s="18"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="P71" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="T71" s="60"/>
+      <c r="U71" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="X71" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y71" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z71" s="145">
+        <v>43707</v>
+      </c>
+      <c r="AA71" s="145">
+        <v>43767</v>
+      </c>
+      <c r="AB71" s="145"/>
+      <c r="AC71" s="145"/>
+      <c r="AD71" s="145"/>
+      <c r="AE71" s="145"/>
+      <c r="AF71" s="187"/>
+      <c r="AG71" s="186"/>
+      <c r="AH71" s="146"/>
+      <c r="AI71" s="146"/>
+      <c r="AJ71" s="188"/>
+      <c r="AK71" s="78"/>
+      <c r="AL71" s="188"/>
+      <c r="AM71" s="161"/>
+      <c r="AN71" s="146"/>
+      <c r="AO71" s="79"/>
+      <c r="AP71" s="62"/>
+      <c r="AQ71" s="62"/>
+      <c r="AR71" s="62"/>
+      <c r="AS71" s="62"/>
+    </row>
+    <row r="72" spans="1:45" s="66" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A72" s="32"/>
+      <c r="B72" s="131"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
+      <c r="L72" s="135"/>
+      <c r="M72" s="134"/>
+      <c r="N72" s="137"/>
+      <c r="O72" s="134"/>
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134"/>
+      <c r="R72" s="134"/>
+      <c r="S72" s="137"/>
+      <c r="T72" s="143"/>
+      <c r="U72" s="139"/>
+      <c r="V72" s="139"/>
+      <c r="W72" s="139"/>
+      <c r="X72" s="139"/>
+      <c r="Y72" s="140"/>
+      <c r="Z72" s="141"/>
+      <c r="AA72" s="142"/>
+      <c r="AB72" s="141"/>
+      <c r="AC72" s="142"/>
+      <c r="AD72" s="141"/>
+      <c r="AE72" s="142"/>
+      <c r="AF72" s="141"/>
+      <c r="AG72" s="142"/>
+      <c r="AH72" s="141"/>
+      <c r="AI72" s="142"/>
+      <c r="AJ72" s="141"/>
+      <c r="AK72" s="162"/>
+      <c r="AL72" s="141"/>
+      <c r="AM72" s="142"/>
+      <c r="AN72" s="141"/>
+      <c r="AO72" s="142"/>
+      <c r="AP72" s="138"/>
+      <c r="AQ72" s="139"/>
+      <c r="AR72" s="139"/>
+      <c r="AS72" s="139"/>
+    </row>
+    <row r="73" spans="1:45" ht="15" customHeight="1">
+      <c r="B73" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="15" customHeight="1">
-      <c r="B75" s="71" t="s">
+    <row r="76" spans="1:45" ht="15" customHeight="1">
+      <c r="B76" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="12" t="s">
+      <c r="C76" s="72"/>
+      <c r="D76" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E76" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="12" t="s">
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="N75" s="73"/>
-      <c r="O75" s="33" t="s">
+      <c r="N76" s="73"/>
+      <c r="O76" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="P75" s="73"/>
-      <c r="Q75" s="73"/>
-      <c r="R75" s="73"/>
-      <c r="S75" s="73"/>
-      <c r="T75" s="73"/>
-      <c r="U75" s="72"/>
-      <c r="V75" s="72"/>
-      <c r="W75" s="72"/>
-      <c r="X75" s="72"/>
-      <c r="Y75" s="72"/>
-      <c r="Z75" s="72"/>
-      <c r="AA75" s="72"/>
-      <c r="AB75" s="72"/>
-      <c r="AC75" s="72"/>
-      <c r="AD75" s="72"/>
-      <c r="AE75" s="72"/>
-      <c r="AF75" s="72"/>
-      <c r="AG75" s="72"/>
-      <c r="AH75" s="72"/>
-      <c r="AI75" s="72"/>
-      <c r="AJ75" s="72"/>
-      <c r="AK75" s="72"/>
-      <c r="AL75" s="72"/>
-      <c r="AM75" s="72"/>
-      <c r="AN75" s="72"/>
-      <c r="AO75" s="12" t="s">
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="72"/>
+      <c r="Y76" s="72"/>
+      <c r="Z76" s="72"/>
+      <c r="AA76" s="72"/>
+      <c r="AB76" s="72"/>
+      <c r="AC76" s="72"/>
+      <c r="AD76" s="72"/>
+      <c r="AE76" s="72"/>
+      <c r="AF76" s="72"/>
+      <c r="AG76" s="72"/>
+      <c r="AH76" s="72"/>
+      <c r="AI76" s="72"/>
+      <c r="AJ76" s="72"/>
+      <c r="AK76" s="72"/>
+      <c r="AL76" s="72"/>
+      <c r="AM76" s="72"/>
+      <c r="AN76" s="72"/>
+      <c r="AO76" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="AP75" s="12" t="s">
+      <c r="AP76" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AQ75" s="12" t="s">
+      <c r="AQ76" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AR75" s="12" t="s">
+      <c r="AR76" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AS75" s="12" t="s">
+      <c r="AS76" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="15" customHeight="1">
-      <c r="C76" s="74" t="s">
+    <row r="77" spans="1:45" ht="15" customHeight="1">
+      <c r="C77" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="E76" s="75">
-        <f>COUNTIF($O$8:$O$71,D76)</f>
-        <v>35</v>
-      </c>
-      <c r="L76" s="74" t="s">
+      <c r="D77" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="E77" s="75">
+        <f>COUNTIF($O$8:$O$72,D77)</f>
+        <v>37</v>
+      </c>
+      <c r="L77" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="M76" s="76" t="s">
+      <c r="M77" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="O76" s="76" t="s">
+      <c r="O77" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="AO76" s="76" t="s">
+      <c r="AO77" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="AP76" s="75">
-        <f t="shared" ref="AP76:AP81" si="4">COUNTIF(AP$8:AP$71,AO76)</f>
+      <c r="AP77" s="75">
+        <f>COUNTIF(AP$8:AP$72,AO77)</f>
         <v>0</v>
       </c>
-      <c r="AQ76" s="75">
-        <f t="shared" ref="AQ76:AQ81" si="5">COUNTIF(AQ$8:AQ$71,AO76)</f>
+      <c r="AQ77" s="75">
+        <f>COUNTIF(AQ$8:AQ$72,AO77)</f>
         <v>0</v>
       </c>
-      <c r="AR76" s="75">
-        <f t="shared" ref="AR76:AR81" si="6">COUNTIF(AR$8:AR$71,AO76)</f>
+      <c r="AR77" s="75">
+        <f>COUNTIF(AR$8:AR$72,AO77)</f>
         <v>0</v>
       </c>
-      <c r="AS76" s="75">
-        <f t="shared" ref="AS76:AS81" si="7">COUNTIF(AS$8:AS$71,AO76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:45" ht="15" customHeight="1">
-      <c r="C77" s="70"/>
-      <c r="D77" s="76" t="s">
-        <v>422</v>
-      </c>
-      <c r="E77" s="75">
-        <f>COUNTIF($O$8:$O$71,D77)</f>
-        <v>27</v>
-      </c>
-      <c r="L77" s="74"/>
-      <c r="M77" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="O77" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO77" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP77" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ77" s="75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR77" s="75">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AS77" s="75">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(AS$8:AS$72,AO77)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:45" ht="15" customHeight="1">
       <c r="C78" s="70"/>
-      <c r="D78" s="76"/>
+      <c r="D78" s="76" t="s">
+        <v>421</v>
+      </c>
       <c r="E78" s="75">
-        <f>COUNTIF($O$8:$O$71,D78)</f>
+        <f>COUNTIF($O$8:$O$72,D78)</f>
+        <v>26</v>
+      </c>
+      <c r="L78" s="74"/>
+      <c r="M78" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="O78" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO78" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP78" s="75">
+        <f>COUNTIF(AP$8:AP$72,AO78)</f>
         <v>0</v>
       </c>
-      <c r="L78" s="70"/>
-      <c r="M78" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="O78" s="76"/>
-      <c r="AO78" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP78" s="75">
-        <f t="shared" si="4"/>
+      <c r="AQ78" s="75">
+        <f>COUNTIF(AQ$8:AQ$72,AO78)</f>
         <v>0</v>
       </c>
-      <c r="AQ78" s="75">
-        <f t="shared" si="5"/>
+      <c r="AR78" s="75">
+        <f>COUNTIF(AR$8:AR$72,AO78)</f>
         <v>0</v>
       </c>
-      <c r="AR78" s="75">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AS78" s="75">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(AS$8:AS$72,AO78)</f>
         <v>0</v>
       </c>
     </row>
@@ -15107,31 +15203,31 @@
       <c r="C79" s="70"/>
       <c r="D79" s="76"/>
       <c r="E79" s="75">
-        <f>COUNTIF($O$8:$O$71,D79)</f>
+        <f>COUNTIF($O$8:$O$72,D79)</f>
         <v>0</v>
       </c>
       <c r="L79" s="70"/>
       <c r="M79" s="76" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="O79" s="76"/>
       <c r="AO79" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP79" s="75">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AP$8:AP$72,AO79)</f>
         <v>0</v>
       </c>
       <c r="AQ79" s="75">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(AQ$8:AQ$72,AO79)</f>
         <v>0</v>
       </c>
       <c r="AR79" s="75">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(AR$8:AR$72,AO79)</f>
         <v>0</v>
       </c>
       <c r="AS79" s="75">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(AS$8:AS$72,AO79)</f>
         <v>0</v>
       </c>
     </row>
@@ -15139,86 +15235,118 @@
       <c r="C80" s="70"/>
       <c r="D80" s="76"/>
       <c r="E80" s="75">
-        <f>COUNTIF($O$8:$O$71,D80)</f>
+        <f>COUNTIF($O$8:$O$72,D80)</f>
         <v>0</v>
       </c>
       <c r="L80" s="70"/>
-      <c r="M80" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="O80" s="77"/>
+      <c r="M80" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="O80" s="76"/>
       <c r="AO80" s="76" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AP80" s="75">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AP$8:AP$72,AO80)</f>
         <v>0</v>
       </c>
       <c r="AQ80" s="75">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(AQ$8:AQ$72,AO80)</f>
         <v>0</v>
       </c>
       <c r="AR80" s="75">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(AR$8:AR$72,AO80)</f>
         <v>0</v>
       </c>
       <c r="AS80" s="75">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(AS$8:AS$72,AO80)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="3:45" ht="15" customHeight="1">
       <c r="C81" s="70"/>
-      <c r="D81" s="77" t="s">
+      <c r="D81" s="76"/>
+      <c r="E81" s="75">
+        <f>COUNTIF($O$8:$O$72,D81)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="70"/>
+      <c r="M81" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="E81" s="75">
-        <f>SUM(E76:E80)</f>
-        <v>62</v>
-      </c>
-      <c r="M81" s="70"/>
-      <c r="N81" s="70"/>
+      <c r="O81" s="77"/>
       <c r="AO81" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP81" s="75">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(AP$8:AP$72,AO81)</f>
         <v>0</v>
       </c>
       <c r="AQ81" s="75">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(AQ$8:AQ$72,AO81)</f>
         <v>0</v>
       </c>
       <c r="AR81" s="75">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(AR$8:AR$72,AO81)</f>
         <v>0</v>
       </c>
       <c r="AS81" s="75">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(AS$8:AS$72,AO81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="3:45" ht="15" customHeight="1">
       <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="AO82" s="77" t="s">
+      <c r="D82" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="AP82" s="83">
-        <f>SUM(AP76:AP81)</f>
+      <c r="E82" s="75">
+        <f>SUM(E77:E81)</f>
+        <v>63</v>
+      </c>
+      <c r="M82" s="70"/>
+      <c r="N82" s="70"/>
+      <c r="AO82" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP82" s="75">
+        <f>COUNTIF(AP$8:AP$72,AO82)</f>
         <v>0</v>
       </c>
-      <c r="AQ82" s="83">
-        <f>SUM(AQ76:AQ81)</f>
+      <c r="AQ82" s="75">
+        <f>COUNTIF(AQ$8:AQ$72,AO82)</f>
         <v>0</v>
       </c>
-      <c r="AR82" s="83">
-        <f>SUM(AR76:AR81)</f>
+      <c r="AR82" s="75">
+        <f>COUNTIF(AR$8:AR$72,AO82)</f>
         <v>0</v>
       </c>
-      <c r="AS82" s="83">
-        <f>SUM(AS76:AS81)</f>
+      <c r="AS82" s="75">
+        <f>COUNTIF(AS$8:AS$72,AO82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:45" ht="15" customHeight="1">
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="AO83" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP83" s="83">
+        <f>SUM(AP77:AP82)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="83">
+        <f>SUM(AQ77:AQ82)</f>
+        <v>0</v>
+      </c>
+      <c r="AR83" s="83">
+        <f>SUM(AR77:AR82)</f>
+        <v>0</v>
+      </c>
+      <c r="AS83" s="83">
+        <f>SUM(AS77:AS82)</f>
         <v>0</v>
       </c>
     </row>
@@ -15227,7 +15355,7 @@
     <mergeCell ref="A1:A5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="AP8:AS71">
+  <conditionalFormatting sqref="AP8:AS72">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"미진행"</formula>
     </cfRule>
@@ -15239,20 +15367,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M72">
       <formula1>프로그램구분</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O72">
       <formula1>프로그램유형</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D72">
       <formula1>모듈코드</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1:A5" location="Navigation!A1" display="Navigation"/>
-    <hyperlink ref="P58" location="프로그램사양서_product_detail.jsp!A1" display="product_detail"/>
-    <hyperlink ref="P59" location="프로그램사양서_product_mng.jsp!A1" display="product_mng"/>
+    <hyperlink ref="P60" location="프로그램사양서_product_detail.jsp!A1" display="product_detail"/>
+    <hyperlink ref="P61" location="프로그램사양서_product_mng.jsp!A1" display="product_mng"/>
+    <hyperlink ref="P62" location="프로그램사양서_product_option.jsp!A1" display="product_option"/>
   </hyperlinks>
   <pageMargins left="0.17" right="0.17" top="0.38" bottom="0.38" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
@@ -15264,8 +15393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -15335,12 +15464,12 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="360" t="s">
+      <c r="C6" s="376" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="361"/>
+      <c r="D6" s="377"/>
       <c r="E6" s="150" t="str">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE))</f>
         <v>상품 상세</v>
       </c>
       <c r="F6" s="148"/>
@@ -15349,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="150" t="str">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,6,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,6,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,6,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,6,FALSE))</f>
         <v>노명진</v>
       </c>
       <c r="J6" s="149"/>
@@ -15357,7 +15486,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="150">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$70,11,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$70,11,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$71,11,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$71,11,FALSE))</f>
         <v>43707</v>
       </c>
       <c r="M6" s="151"/>
@@ -15438,7 +15567,7 @@
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="343" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C12" s="201"/>
       <c r="D12" s="222" t="s">
@@ -15446,7 +15575,7 @@
       </c>
       <c r="E12" s="199"/>
       <c r="F12" s="344" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>271</v>
@@ -15582,11 +15711,11 @@
       <c r="E19" s="208"/>
       <c r="F19" s="209"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="362"/>
-      <c r="I19" s="362"/>
+      <c r="H19" s="378"/>
+      <c r="I19" s="378"/>
       <c r="J19" s="16"/>
       <c r="K19" s="106" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="147"/>
@@ -15712,10 +15841,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="219"/>
       <c r="C28" s="32"/>
-      <c r="E28" s="374" t="s">
+      <c r="E28" s="371" t="s">
         <v>265</v>
       </c>
-      <c r="F28" s="375"/>
+      <c r="F28" s="372"/>
       <c r="H28" s="210"/>
       <c r="J28" s="32"/>
       <c r="L28" s="16"/>
@@ -15842,17 +15971,17 @@
       <c r="B37" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="363"/>
-      <c r="D37" s="364"/>
-      <c r="E37" s="364"/>
-      <c r="F37" s="364"/>
-      <c r="G37" s="364"/>
-      <c r="H37" s="364"/>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="364"/>
-      <c r="M37" s="364"/>
+      <c r="C37" s="379"/>
+      <c r="D37" s="380"/>
+      <c r="E37" s="380"/>
+      <c r="F37" s="380"/>
+      <c r="G37" s="380"/>
+      <c r="H37" s="380"/>
+      <c r="I37" s="380"/>
+      <c r="J37" s="380"/>
+      <c r="K37" s="380"/>
+      <c r="L37" s="380"/>
+      <c r="M37" s="380"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="13"/>
@@ -15860,7 +15989,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="297" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D38" s="298"/>
       <c r="E38" s="298"/>
@@ -15879,7 +16008,7 @@
         <v>231</v>
       </c>
       <c r="C39" s="297" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D39" s="298"/>
       <c r="E39" s="298"/>
@@ -15895,10 +16024,10 @@
     <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="75" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C40" s="297" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D40" s="298"/>
       <c r="E40" s="298"/>
@@ -15914,10 +16043,10 @@
     <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="75" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C41" s="297" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D41" s="298"/>
       <c r="E41" s="298"/>
@@ -15932,10 +16061,10 @@
     </row>
     <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B42" s="75" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C42" s="297" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D42" s="298"/>
       <c r="E42" s="298"/>
@@ -15950,10 +16079,10 @@
     </row>
     <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B43" s="81" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C43" s="297" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D43" s="298"/>
       <c r="E43" s="298"/>
@@ -15968,7 +16097,7 @@
     </row>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B44" s="81" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C44" s="297" t="s">
         <v>278</v>
@@ -15986,10 +16115,10 @@
     </row>
     <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B45" s="81" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C45" s="297" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D45" s="298"/>
       <c r="E45" s="298"/>
@@ -16004,10 +16133,10 @@
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B46" s="75" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C46" s="297" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D46" s="298"/>
       <c r="E46" s="298"/>
@@ -16047,13 +16176,13 @@
       <c r="B49" s="339" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="377" t="s">
+      <c r="C49" s="353" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="378"/>
-      <c r="E49" s="378"/>
-      <c r="F49" s="378"/>
-      <c r="G49" s="379"/>
+      <c r="D49" s="354"/>
+      <c r="E49" s="354"/>
+      <c r="F49" s="354"/>
+      <c r="G49" s="355"/>
       <c r="H49" s="25" t="s">
         <v>234</v>
       </c>
@@ -16063,22 +16192,22 @@
       <c r="J49" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="K49" s="371"/>
-      <c r="L49" s="372"/>
-      <c r="M49" s="373"/>
+      <c r="K49" s="368"/>
+      <c r="L49" s="369"/>
+      <c r="M49" s="370"/>
     </row>
     <row r="50" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="341" t="s">
-        <v>473</v>
-      </c>
-      <c r="C50" s="365" t="s">
-        <v>488</v>
-      </c>
-      <c r="D50" s="366"/>
-      <c r="E50" s="366"/>
-      <c r="F50" s="366"/>
-      <c r="G50" s="367"/>
+        <v>467</v>
+      </c>
+      <c r="C50" s="352" t="s">
+        <v>482</v>
+      </c>
+      <c r="D50" s="359"/>
+      <c r="E50" s="359"/>
+      <c r="F50" s="359"/>
+      <c r="G50" s="360"/>
       <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
@@ -16088,22 +16217,22 @@
       <c r="J50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K50" s="380"/>
-      <c r="L50" s="381"/>
-      <c r="M50" s="382"/>
+      <c r="K50" s="373"/>
+      <c r="L50" s="374"/>
+      <c r="M50" s="375"/>
     </row>
     <row r="51" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="342" t="s">
-        <v>485</v>
-      </c>
-      <c r="C51" s="368" t="s">
-        <v>486</v>
-      </c>
-      <c r="D51" s="369"/>
-      <c r="E51" s="369"/>
-      <c r="F51" s="369"/>
-      <c r="G51" s="370"/>
+        <v>479</v>
+      </c>
+      <c r="C51" s="349" t="s">
+        <v>480</v>
+      </c>
+      <c r="D51" s="350"/>
+      <c r="E51" s="350"/>
+      <c r="F51" s="350"/>
+      <c r="G51" s="351"/>
       <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
@@ -16113,22 +16242,22 @@
       <c r="J51" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K51" s="380"/>
-      <c r="L51" s="381"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="373"/>
+      <c r="L51" s="374"/>
+      <c r="M51" s="375"/>
     </row>
     <row r="52" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="342" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="368" t="s">
-        <v>487</v>
-      </c>
-      <c r="D52" s="369"/>
-      <c r="E52" s="369"/>
-      <c r="F52" s="369"/>
-      <c r="G52" s="370"/>
+      <c r="C52" s="349" t="s">
+        <v>481</v>
+      </c>
+      <c r="D52" s="350"/>
+      <c r="E52" s="350"/>
+      <c r="F52" s="350"/>
+      <c r="G52" s="351"/>
       <c r="H52" s="12" t="s">
         <v>234</v>
       </c>
@@ -16138,11 +16267,11 @@
       <c r="J52" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K52" s="380">
+      <c r="K52" s="373">
         <v>1</v>
       </c>
-      <c r="L52" s="381"/>
-      <c r="M52" s="382"/>
+      <c r="L52" s="374"/>
+      <c r="M52" s="375"/>
     </row>
     <row r="53" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
@@ -16190,24 +16319,24 @@
         <v>1</v>
       </c>
       <c r="C56" s="294" t="s">
-        <v>510</v>
-      </c>
-      <c r="D56" s="349" t="s">
-        <v>483</v>
-      </c>
-      <c r="E56" s="356"/>
-      <c r="F56" s="356"/>
-      <c r="G56" s="356"/>
-      <c r="H56" s="356"/>
-      <c r="I56" s="357"/>
-      <c r="J56" s="352" t="s">
-        <v>484</v>
-      </c>
-      <c r="K56" s="355"/>
-      <c r="L56" s="349" t="s">
-        <v>472</v>
-      </c>
-      <c r="M56" s="355"/>
+        <v>504</v>
+      </c>
+      <c r="D56" s="356" t="s">
+        <v>477</v>
+      </c>
+      <c r="E56" s="365"/>
+      <c r="F56" s="365"/>
+      <c r="G56" s="365"/>
+      <c r="H56" s="365"/>
+      <c r="I56" s="366"/>
+      <c r="J56" s="363" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" s="364"/>
+      <c r="L56" s="356" t="s">
+        <v>466</v>
+      </c>
+      <c r="M56" s="364"/>
     </row>
     <row r="57" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="13"/>
@@ -16215,18 +16344,18 @@
         <v>2</v>
       </c>
       <c r="C57" s="294" t="s">
-        <v>511</v>
-      </c>
-      <c r="D57" s="365" t="s">
+        <v>505</v>
+      </c>
+      <c r="D57" s="352" t="s">
         <v>277</v>
       </c>
-      <c r="E57" s="366"/>
-      <c r="F57" s="366"/>
-      <c r="G57" s="366"/>
-      <c r="H57" s="366"/>
-      <c r="I57" s="367"/>
-      <c r="J57" s="352"/>
-      <c r="K57" s="355"/>
+      <c r="E57" s="359"/>
+      <c r="F57" s="359"/>
+      <c r="G57" s="359"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="360"/>
+      <c r="J57" s="363"/>
+      <c r="K57" s="364"/>
       <c r="L57" s="300"/>
       <c r="M57" s="303"/>
     </row>
@@ -16236,22 +16365,22 @@
         <v>3</v>
       </c>
       <c r="C58" s="294" t="s">
-        <v>460</v>
-      </c>
-      <c r="D58" s="349" t="s">
-        <v>522</v>
-      </c>
-      <c r="E58" s="356"/>
-      <c r="F58" s="356"/>
-      <c r="G58" s="356"/>
-      <c r="H58" s="356"/>
-      <c r="I58" s="357"/>
-      <c r="J58" s="352"/>
-      <c r="K58" s="355"/>
-      <c r="L58" s="349" t="s">
-        <v>479</v>
-      </c>
-      <c r="M58" s="354"/>
+        <v>454</v>
+      </c>
+      <c r="D58" s="356" t="s">
+        <v>516</v>
+      </c>
+      <c r="E58" s="365"/>
+      <c r="F58" s="365"/>
+      <c r="G58" s="365"/>
+      <c r="H58" s="365"/>
+      <c r="I58" s="366"/>
+      <c r="J58" s="363"/>
+      <c r="K58" s="364"/>
+      <c r="L58" s="356" t="s">
+        <v>473</v>
+      </c>
+      <c r="M58" s="367"/>
       <c r="N58" s="70"/>
     </row>
     <row r="59" spans="1:21" ht="17.100000000000001" customHeight="1">
@@ -16260,30 +16389,30 @@
         <v>4</v>
       </c>
       <c r="C59" s="294" t="s">
-        <v>463</v>
-      </c>
-      <c r="D59" s="349" t="s">
+        <v>457</v>
+      </c>
+      <c r="D59" s="356" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="350"/>
-      <c r="F59" s="350"/>
-      <c r="G59" s="350"/>
-      <c r="H59" s="350"/>
-      <c r="I59" s="351"/>
-      <c r="J59" s="352" t="s">
-        <v>471</v>
-      </c>
-      <c r="K59" s="355"/>
-      <c r="L59" s="349" t="s">
-        <v>480</v>
-      </c>
-      <c r="M59" s="354"/>
-      <c r="P59" s="358"/>
-      <c r="Q59" s="359"/>
-      <c r="R59" s="359"/>
-      <c r="S59" s="359"/>
-      <c r="T59" s="359"/>
-      <c r="U59" s="359"/>
+      <c r="E59" s="357"/>
+      <c r="F59" s="357"/>
+      <c r="G59" s="357"/>
+      <c r="H59" s="357"/>
+      <c r="I59" s="358"/>
+      <c r="J59" s="363" t="s">
+        <v>465</v>
+      </c>
+      <c r="K59" s="364"/>
+      <c r="L59" s="356" t="s">
+        <v>474</v>
+      </c>
+      <c r="M59" s="367"/>
+      <c r="P59" s="381"/>
+      <c r="Q59" s="382"/>
+      <c r="R59" s="382"/>
+      <c r="S59" s="382"/>
+      <c r="T59" s="382"/>
+      <c r="U59" s="382"/>
     </row>
     <row r="60" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13"/>
@@ -16291,22 +16420,22 @@
         <v>5</v>
       </c>
       <c r="C60" s="294" t="s">
-        <v>512</v>
-      </c>
-      <c r="D60" s="349" t="s">
-        <v>498</v>
-      </c>
-      <c r="E60" s="376"/>
-      <c r="F60" s="376"/>
-      <c r="G60" s="376"/>
-      <c r="H60" s="376"/>
-      <c r="I60" s="353"/>
+        <v>506</v>
+      </c>
+      <c r="D60" s="356" t="s">
+        <v>492</v>
+      </c>
+      <c r="E60" s="361"/>
+      <c r="F60" s="361"/>
+      <c r="G60" s="361"/>
+      <c r="H60" s="361"/>
+      <c r="I60" s="362"/>
       <c r="J60" s="302" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K60" s="173"/>
       <c r="L60" s="300" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M60" s="172"/>
     </row>
@@ -16316,24 +16445,24 @@
         <v>6</v>
       </c>
       <c r="C61" s="294" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D61" s="300" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E61" s="305"/>
       <c r="F61" s="305"/>
       <c r="G61" s="305"/>
       <c r="H61" s="305"/>
       <c r="I61" s="306"/>
-      <c r="J61" s="352" t="s">
-        <v>491</v>
-      </c>
-      <c r="K61" s="353"/>
-      <c r="L61" s="349" t="s">
-        <v>472</v>
-      </c>
-      <c r="M61" s="355"/>
+      <c r="J61" s="363" t="s">
+        <v>485</v>
+      </c>
+      <c r="K61" s="362"/>
+      <c r="L61" s="356" t="s">
+        <v>466</v>
+      </c>
+      <c r="M61" s="364"/>
     </row>
     <row r="62" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13"/>
@@ -16341,24 +16470,24 @@
         <v>7</v>
       </c>
       <c r="C62" s="294" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D62" s="300" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E62" s="305"/>
       <c r="F62" s="305"/>
       <c r="G62" s="305"/>
       <c r="H62" s="305"/>
       <c r="I62" s="306"/>
-      <c r="J62" s="352" t="s">
-        <v>496</v>
-      </c>
-      <c r="K62" s="353"/>
-      <c r="L62" s="349" t="s">
-        <v>472</v>
-      </c>
-      <c r="M62" s="355"/>
+      <c r="J62" s="363" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" s="362"/>
+      <c r="L62" s="356" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" s="364"/>
     </row>
     <row r="63" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
@@ -16366,24 +16495,24 @@
         <v>8</v>
       </c>
       <c r="C63" s="294" t="s">
-        <v>515</v>
-      </c>
-      <c r="D63" s="349" t="s">
-        <v>495</v>
-      </c>
-      <c r="E63" s="350"/>
-      <c r="F63" s="350"/>
-      <c r="G63" s="350"/>
-      <c r="H63" s="350"/>
-      <c r="I63" s="351"/>
-      <c r="J63" s="352" t="s">
-        <v>497</v>
-      </c>
-      <c r="K63" s="353"/>
-      <c r="L63" s="349" t="s">
-        <v>472</v>
-      </c>
-      <c r="M63" s="355"/>
+        <v>509</v>
+      </c>
+      <c r="D63" s="356" t="s">
+        <v>489</v>
+      </c>
+      <c r="E63" s="357"/>
+      <c r="F63" s="357"/>
+      <c r="G63" s="357"/>
+      <c r="H63" s="357"/>
+      <c r="I63" s="358"/>
+      <c r="J63" s="363" t="s">
+        <v>491</v>
+      </c>
+      <c r="K63" s="362"/>
+      <c r="L63" s="356" t="s">
+        <v>466</v>
+      </c>
+      <c r="M63" s="364"/>
     </row>
     <row r="64" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
@@ -16391,16 +16520,16 @@
         <v>9</v>
       </c>
       <c r="C64" s="294" t="s">
-        <v>516</v>
-      </c>
-      <c r="D64" s="349" t="s">
-        <v>474</v>
-      </c>
-      <c r="E64" s="356"/>
-      <c r="F64" s="356"/>
-      <c r="G64" s="356"/>
-      <c r="H64" s="356"/>
-      <c r="I64" s="357"/>
+        <v>510</v>
+      </c>
+      <c r="D64" s="356" t="s">
+        <v>468</v>
+      </c>
+      <c r="E64" s="365"/>
+      <c r="F64" s="365"/>
+      <c r="G64" s="365"/>
+      <c r="H64" s="365"/>
+      <c r="I64" s="366"/>
       <c r="J64" s="302"/>
       <c r="K64" s="304"/>
       <c r="L64" s="300"/>
@@ -16412,24 +16541,24 @@
         <v>10</v>
       </c>
       <c r="C65" s="294" t="s">
-        <v>467</v>
-      </c>
-      <c r="D65" s="349" t="s">
-        <v>476</v>
-      </c>
-      <c r="E65" s="350"/>
-      <c r="F65" s="350"/>
-      <c r="G65" s="350"/>
-      <c r="H65" s="350"/>
-      <c r="I65" s="351"/>
-      <c r="J65" s="352" t="s">
+        <v>461</v>
+      </c>
+      <c r="D65" s="356" t="s">
+        <v>470</v>
+      </c>
+      <c r="E65" s="357"/>
+      <c r="F65" s="357"/>
+      <c r="G65" s="357"/>
+      <c r="H65" s="357"/>
+      <c r="I65" s="358"/>
+      <c r="J65" s="363" t="s">
+        <v>469</v>
+      </c>
+      <c r="K65" s="362"/>
+      <c r="L65" s="356" t="s">
         <v>475</v>
       </c>
-      <c r="K65" s="353"/>
-      <c r="L65" s="349" t="s">
-        <v>481</v>
-      </c>
-      <c r="M65" s="354"/>
+      <c r="M65" s="367"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
@@ -16437,24 +16566,24 @@
         <v>11</v>
       </c>
       <c r="C66" s="294" t="s">
-        <v>517</v>
-      </c>
-      <c r="D66" s="349" t="s">
-        <v>490</v>
-      </c>
-      <c r="E66" s="350"/>
-      <c r="F66" s="350"/>
-      <c r="G66" s="350"/>
-      <c r="H66" s="350"/>
-      <c r="I66" s="351"/>
-      <c r="J66" s="352" t="s">
-        <v>492</v>
-      </c>
-      <c r="K66" s="353"/>
-      <c r="L66" s="349" t="s">
-        <v>493</v>
-      </c>
-      <c r="M66" s="355"/>
+        <v>511</v>
+      </c>
+      <c r="D66" s="356" t="s">
+        <v>484</v>
+      </c>
+      <c r="E66" s="357"/>
+      <c r="F66" s="357"/>
+      <c r="G66" s="357"/>
+      <c r="H66" s="357"/>
+      <c r="I66" s="358"/>
+      <c r="J66" s="363" t="s">
+        <v>486</v>
+      </c>
+      <c r="K66" s="362"/>
+      <c r="L66" s="356" t="s">
+        <v>487</v>
+      </c>
+      <c r="M66" s="364"/>
     </row>
     <row r="67" spans="1:15" ht="30" customHeight="1">
       <c r="A67" s="13"/>
@@ -16462,24 +16591,24 @@
         <v>12</v>
       </c>
       <c r="C67" s="294" t="s">
-        <v>468</v>
-      </c>
-      <c r="D67" s="349" t="s">
+        <v>462</v>
+      </c>
+      <c r="D67" s="356" t="s">
         <v>274</v>
       </c>
-      <c r="E67" s="350"/>
-      <c r="F67" s="350"/>
-      <c r="G67" s="350"/>
-      <c r="H67" s="350"/>
-      <c r="I67" s="351"/>
-      <c r="J67" s="352" t="s">
-        <v>477</v>
-      </c>
-      <c r="K67" s="353"/>
-      <c r="L67" s="349" t="s">
-        <v>478</v>
-      </c>
-      <c r="M67" s="354"/>
+      <c r="E67" s="357"/>
+      <c r="F67" s="357"/>
+      <c r="G67" s="357"/>
+      <c r="H67" s="357"/>
+      <c r="I67" s="358"/>
+      <c r="J67" s="363" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" s="362"/>
+      <c r="L67" s="356" t="s">
+        <v>472</v>
+      </c>
+      <c r="M67" s="367"/>
     </row>
     <row r="68" spans="1:15" ht="24" customHeight="1">
       <c r="A68" s="13"/>
@@ -16487,24 +16616,24 @@
         <v>13</v>
       </c>
       <c r="C68" s="294" t="s">
-        <v>518</v>
-      </c>
-      <c r="D68" s="349" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68" s="356" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="350"/>
-      <c r="F68" s="350"/>
-      <c r="G68" s="350"/>
-      <c r="H68" s="350"/>
-      <c r="I68" s="351"/>
-      <c r="J68" s="352" t="s">
-        <v>477</v>
-      </c>
-      <c r="K68" s="353"/>
-      <c r="L68" s="349" t="s">
-        <v>482</v>
-      </c>
-      <c r="M68" s="354"/>
+      <c r="E68" s="357"/>
+      <c r="F68" s="357"/>
+      <c r="G68" s="357"/>
+      <c r="H68" s="357"/>
+      <c r="I68" s="358"/>
+      <c r="J68" s="363" t="s">
+        <v>471</v>
+      </c>
+      <c r="K68" s="362"/>
+      <c r="L68" s="356" t="s">
+        <v>476</v>
+      </c>
+      <c r="M68" s="367"/>
     </row>
     <row r="69" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -16544,17 +16673,17 @@
     <row r="72" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="C72" s="368" t="s">
-        <v>533</v>
-      </c>
-      <c r="D72" s="369"/>
-      <c r="E72" s="369"/>
-      <c r="F72" s="369"/>
-      <c r="G72" s="369"/>
-      <c r="H72" s="369"/>
-      <c r="I72" s="370"/>
+        <v>523</v>
+      </c>
+      <c r="C72" s="349" t="s">
+        <v>527</v>
+      </c>
+      <c r="D72" s="350"/>
+      <c r="E72" s="350"/>
+      <c r="F72" s="350"/>
+      <c r="G72" s="350"/>
+      <c r="H72" s="350"/>
+      <c r="I72" s="351"/>
       <c r="J72" s="75"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
@@ -16567,17 +16696,17 @@
         <v>250</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>510</v>
-      </c>
-      <c r="C73" s="368" t="s">
-        <v>534</v>
-      </c>
-      <c r="D73" s="369"/>
-      <c r="E73" s="369"/>
-      <c r="F73" s="369"/>
-      <c r="G73" s="369"/>
-      <c r="H73" s="369"/>
-      <c r="I73" s="370"/>
+        <v>504</v>
+      </c>
+      <c r="C73" s="349" t="s">
+        <v>528</v>
+      </c>
+      <c r="D73" s="350"/>
+      <c r="E73" s="350"/>
+      <c r="F73" s="350"/>
+      <c r="G73" s="350"/>
+      <c r="H73" s="350"/>
+      <c r="I73" s="351"/>
       <c r="J73" s="75"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -16588,17 +16717,17 @@
     <row r="74" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="75" t="s">
-        <v>535</v>
-      </c>
-      <c r="C74" s="365" t="s">
-        <v>536</v>
-      </c>
-      <c r="D74" s="369"/>
-      <c r="E74" s="369"/>
-      <c r="F74" s="369"/>
-      <c r="G74" s="369"/>
-      <c r="H74" s="369"/>
-      <c r="I74" s="370"/>
+        <v>529</v>
+      </c>
+      <c r="C74" s="352" t="s">
+        <v>530</v>
+      </c>
+      <c r="D74" s="350"/>
+      <c r="E74" s="350"/>
+      <c r="F74" s="350"/>
+      <c r="G74" s="350"/>
+      <c r="H74" s="350"/>
+      <c r="I74" s="351"/>
       <c r="J74" s="75"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -17001,44 +17130,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C37:M37"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
     <mergeCell ref="J65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="D67:I67"/>
@@ -17050,6 +17141,44 @@
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="L67:M67"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="C73:I73"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
@@ -17084,7 +17213,7 @@
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:A5"/>
       <selection pane="topRight" sqref="A1:A5"/>
       <selection pane="bottomLeft" sqref="A1:A5"/>
@@ -17158,12 +17287,12 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="360" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="361"/>
+      <c r="C6" s="376" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="377"/>
       <c r="E6" s="150" t="str">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE))</f>
         <v>상품 등록 및 수정</v>
       </c>
       <c r="F6" s="148"/>
@@ -17172,7 +17301,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="150" t="str">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,6,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,6,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,6,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,6,FALSE))</f>
         <v>노명진</v>
       </c>
       <c r="J6" s="149"/>
@@ -17180,7 +17309,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="150">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$70,11,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$70,11,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$71,11,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$71,11,FALSE))</f>
         <v>43707</v>
       </c>
       <c r="M6" s="151"/>
@@ -17202,7 +17331,7 @@
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B8" s="284"/>
       <c r="C8" s="292" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" s="288"/>
       <c r="E8" s="281"/>
@@ -17259,7 +17388,7 @@
       <c r="A12" s="13"/>
       <c r="B12" s="273"/>
       <c r="C12" s="314" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="317"/>
       <c r="E12" s="318"/>
@@ -17284,7 +17413,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="273"/>
       <c r="C14" s="315" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="322"/>
       <c r="E14" s="323"/>
@@ -17383,7 +17512,7 @@
       <c r="A21" s="13"/>
       <c r="B21" s="273"/>
       <c r="C21" s="316" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D21" s="317"/>
       <c r="E21" s="318"/>
@@ -17417,7 +17546,7 @@
       <c r="A23" s="13"/>
       <c r="B23" s="273"/>
       <c r="C23" s="316" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D23" s="317"/>
       <c r="E23" s="318"/>
@@ -17485,7 +17614,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="273"/>
       <c r="C27" s="316" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D27" s="317"/>
       <c r="E27" s="318"/>
@@ -17519,10 +17648,10 @@
       <c r="A29" s="13"/>
       <c r="B29" s="273"/>
       <c r="C29" s="316" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D29" s="317" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E29" s="318"/>
       <c r="F29" s="318"/>
@@ -17540,7 +17669,7 @@
       <c r="B30" s="273"/>
       <c r="C30" s="274"/>
       <c r="D30" s="317" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E30" s="318"/>
       <c r="F30" s="318"/>
@@ -17558,7 +17687,7 @@
       <c r="B31" s="273"/>
       <c r="C31" s="274"/>
       <c r="D31" s="317" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E31" s="318"/>
       <c r="F31" s="318"/>
@@ -17576,7 +17705,7 @@
       <c r="B32" s="273"/>
       <c r="C32" s="274"/>
       <c r="D32" s="317" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E32" s="318"/>
       <c r="F32" s="318"/>
@@ -17704,17 +17833,17 @@
       <c r="B40" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="363"/>
-      <c r="D40" s="364"/>
-      <c r="E40" s="364"/>
-      <c r="F40" s="364"/>
-      <c r="G40" s="364"/>
-      <c r="H40" s="364"/>
-      <c r="I40" s="364"/>
-      <c r="J40" s="364"/>
-      <c r="K40" s="364"/>
-      <c r="L40" s="364"/>
-      <c r="M40" s="364"/>
+      <c r="C40" s="379"/>
+      <c r="D40" s="380"/>
+      <c r="E40" s="380"/>
+      <c r="F40" s="380"/>
+      <c r="G40" s="380"/>
+      <c r="H40" s="380"/>
+      <c r="I40" s="380"/>
+      <c r="J40" s="380"/>
+      <c r="K40" s="380"/>
+      <c r="L40" s="380"/>
+      <c r="M40" s="380"/>
     </row>
     <row r="41" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13"/>
@@ -17722,7 +17851,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D41" s="235"/>
       <c r="E41" s="235"/>
@@ -17738,10 +17867,10 @@
     <row r="42" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="75" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C42" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D42" s="235"/>
       <c r="E42" s="235"/>
@@ -17757,10 +17886,10 @@
     <row r="43" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="75" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C43" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D43" s="235"/>
       <c r="E43" s="235"/>
@@ -17776,10 +17905,10 @@
     <row r="44" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="75" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C44" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D44" s="235"/>
       <c r="E44" s="235"/>
@@ -17819,13 +17948,13 @@
       <c r="B47" s="233" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="368" t="s">
+      <c r="C47" s="349" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="369"/>
-      <c r="E47" s="369"/>
-      <c r="F47" s="369"/>
-      <c r="G47" s="370"/>
+      <c r="D47" s="350"/>
+      <c r="E47" s="350"/>
+      <c r="F47" s="350"/>
+      <c r="G47" s="351"/>
       <c r="H47" s="12" t="s">
         <v>18</v>
       </c>
@@ -17835,22 +17964,22 @@
       <c r="J47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="380"/>
-      <c r="L47" s="381"/>
+      <c r="K47" s="373"/>
+      <c r="L47" s="374"/>
       <c r="M47" s="383"/>
     </row>
     <row r="48" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="296" t="s">
-        <v>503</v>
-      </c>
-      <c r="C48" s="368" t="s">
-        <v>523</v>
-      </c>
-      <c r="D48" s="369"/>
-      <c r="E48" s="369"/>
-      <c r="F48" s="369"/>
-      <c r="G48" s="370"/>
+        <v>497</v>
+      </c>
+      <c r="C48" s="349" t="s">
+        <v>517</v>
+      </c>
+      <c r="D48" s="350"/>
+      <c r="E48" s="350"/>
+      <c r="F48" s="350"/>
+      <c r="G48" s="351"/>
       <c r="H48" s="12" t="s">
         <v>18</v>
       </c>
@@ -17860,22 +17989,22 @@
       <c r="J48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="380"/>
-      <c r="L48" s="381"/>
+      <c r="K48" s="373"/>
+      <c r="L48" s="374"/>
       <c r="M48" s="383"/>
     </row>
     <row r="49" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="296" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49" s="368" t="s">
-        <v>526</v>
-      </c>
-      <c r="D49" s="369"/>
-      <c r="E49" s="369"/>
-      <c r="F49" s="369"/>
-      <c r="G49" s="370"/>
+        <v>499</v>
+      </c>
+      <c r="C49" s="349" t="s">
+        <v>520</v>
+      </c>
+      <c r="D49" s="350"/>
+      <c r="E49" s="350"/>
+      <c r="F49" s="350"/>
+      <c r="G49" s="351"/>
       <c r="H49" s="12" t="s">
         <v>18</v>
       </c>
@@ -17885,22 +18014,22 @@
       <c r="J49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="380"/>
-      <c r="L49" s="381"/>
+      <c r="K49" s="373"/>
+      <c r="L49" s="374"/>
       <c r="M49" s="383"/>
     </row>
     <row r="50" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="296" t="s">
-        <v>504</v>
-      </c>
-      <c r="C50" s="368" t="s">
-        <v>523</v>
-      </c>
-      <c r="D50" s="369"/>
-      <c r="E50" s="369"/>
-      <c r="F50" s="369"/>
-      <c r="G50" s="370"/>
+        <v>498</v>
+      </c>
+      <c r="C50" s="349" t="s">
+        <v>517</v>
+      </c>
+      <c r="D50" s="350"/>
+      <c r="E50" s="350"/>
+      <c r="F50" s="350"/>
+      <c r="G50" s="351"/>
       <c r="H50" s="12" t="s">
         <v>18</v>
       </c>
@@ -17910,22 +18039,22 @@
       <c r="J50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="380"/>
-      <c r="L50" s="381"/>
+      <c r="K50" s="373"/>
+      <c r="L50" s="374"/>
       <c r="M50" s="383"/>
     </row>
     <row r="51" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="296" t="s">
-        <v>506</v>
-      </c>
-      <c r="C51" s="368" t="s">
-        <v>523</v>
-      </c>
-      <c r="D51" s="369"/>
-      <c r="E51" s="369"/>
-      <c r="F51" s="369"/>
-      <c r="G51" s="370"/>
+        <v>500</v>
+      </c>
+      <c r="C51" s="349" t="s">
+        <v>517</v>
+      </c>
+      <c r="D51" s="350"/>
+      <c r="E51" s="350"/>
+      <c r="F51" s="350"/>
+      <c r="G51" s="351"/>
       <c r="H51" s="12" t="s">
         <v>18</v>
       </c>
@@ -17935,24 +18064,24 @@
       <c r="J51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="380">
+      <c r="K51" s="373">
         <v>0</v>
       </c>
-      <c r="L51" s="381"/>
+      <c r="L51" s="374"/>
       <c r="M51" s="383"/>
     </row>
     <row r="52" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="296" t="s">
-        <v>507</v>
-      </c>
-      <c r="C52" s="368" t="s">
-        <v>523</v>
-      </c>
-      <c r="D52" s="369"/>
-      <c r="E52" s="369"/>
-      <c r="F52" s="369"/>
-      <c r="G52" s="370"/>
+        <v>501</v>
+      </c>
+      <c r="C52" s="349" t="s">
+        <v>517</v>
+      </c>
+      <c r="D52" s="350"/>
+      <c r="E52" s="350"/>
+      <c r="F52" s="350"/>
+      <c r="G52" s="351"/>
       <c r="H52" s="12" t="s">
         <v>18</v>
       </c>
@@ -17962,24 +18091,24 @@
       <c r="J52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="380">
+      <c r="K52" s="373">
         <v>0</v>
       </c>
-      <c r="L52" s="381"/>
+      <c r="L52" s="374"/>
       <c r="M52" s="383"/>
     </row>
     <row r="53" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="296" t="s">
-        <v>508</v>
-      </c>
-      <c r="C53" s="368" t="s">
-        <v>523</v>
-      </c>
-      <c r="D53" s="369"/>
-      <c r="E53" s="369"/>
-      <c r="F53" s="369"/>
-      <c r="G53" s="370"/>
+        <v>502</v>
+      </c>
+      <c r="C53" s="349" t="s">
+        <v>517</v>
+      </c>
+      <c r="D53" s="350"/>
+      <c r="E53" s="350"/>
+      <c r="F53" s="350"/>
+      <c r="G53" s="351"/>
       <c r="H53" s="12" t="s">
         <v>18</v>
       </c>
@@ -17989,22 +18118,22 @@
       <c r="J53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="380"/>
-      <c r="L53" s="381"/>
+      <c r="K53" s="373"/>
+      <c r="L53" s="374"/>
       <c r="M53" s="383"/>
     </row>
     <row r="54" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="C54" s="368" t="s">
-        <v>527</v>
-      </c>
-      <c r="D54" s="369"/>
-      <c r="E54" s="369"/>
-      <c r="F54" s="369"/>
-      <c r="G54" s="370"/>
+        <v>518</v>
+      </c>
+      <c r="C54" s="349" t="s">
+        <v>521</v>
+      </c>
+      <c r="D54" s="350"/>
+      <c r="E54" s="350"/>
+      <c r="F54" s="350"/>
+      <c r="G54" s="351"/>
       <c r="H54" s="12" t="s">
         <v>18</v>
       </c>
@@ -18014,8 +18143,8 @@
       <c r="J54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="380"/>
-      <c r="L54" s="381"/>
+      <c r="K54" s="373"/>
+      <c r="L54" s="374"/>
       <c r="M54" s="383"/>
     </row>
     <row r="55" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -18064,22 +18193,22 @@
         <v>1</v>
       </c>
       <c r="C58" s="294" t="s">
-        <v>519</v>
-      </c>
-      <c r="D58" s="349" t="s">
-        <v>539</v>
-      </c>
-      <c r="E58" s="356"/>
-      <c r="F58" s="356"/>
-      <c r="G58" s="356"/>
-      <c r="H58" s="356"/>
-      <c r="I58" s="357"/>
-      <c r="J58" s="352"/>
-      <c r="K58" s="355"/>
-      <c r="L58" s="349" t="s">
-        <v>540</v>
-      </c>
-      <c r="M58" s="355"/>
+        <v>513</v>
+      </c>
+      <c r="D58" s="356" t="s">
+        <v>533</v>
+      </c>
+      <c r="E58" s="365"/>
+      <c r="F58" s="365"/>
+      <c r="G58" s="365"/>
+      <c r="H58" s="365"/>
+      <c r="I58" s="366"/>
+      <c r="J58" s="363"/>
+      <c r="K58" s="364"/>
+      <c r="L58" s="356" t="s">
+        <v>534</v>
+      </c>
+      <c r="M58" s="364"/>
     </row>
     <row r="59" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="13"/>
@@ -18087,24 +18216,24 @@
         <v>2</v>
       </c>
       <c r="C59" s="294" t="s">
-        <v>520</v>
-      </c>
-      <c r="D59" s="349" t="s">
-        <v>521</v>
-      </c>
-      <c r="E59" s="350"/>
-      <c r="F59" s="350"/>
-      <c r="G59" s="350"/>
-      <c r="H59" s="350"/>
-      <c r="I59" s="351"/>
-      <c r="J59" s="352" t="s">
-        <v>525</v>
-      </c>
-      <c r="K59" s="355"/>
-      <c r="L59" s="349" t="s">
-        <v>541</v>
-      </c>
-      <c r="M59" s="354"/>
+        <v>514</v>
+      </c>
+      <c r="D59" s="356" t="s">
+        <v>515</v>
+      </c>
+      <c r="E59" s="357"/>
+      <c r="F59" s="357"/>
+      <c r="G59" s="357"/>
+      <c r="H59" s="357"/>
+      <c r="I59" s="358"/>
+      <c r="J59" s="363" t="s">
+        <v>519</v>
+      </c>
+      <c r="K59" s="364"/>
+      <c r="L59" s="356" t="s">
+        <v>535</v>
+      </c>
+      <c r="M59" s="367"/>
     </row>
     <row r="60" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="61" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -18144,17 +18273,17 @@
     <row r="63" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="75" t="s">
-        <v>505</v>
-      </c>
-      <c r="C63" s="368" t="s">
-        <v>537</v>
-      </c>
-      <c r="D63" s="369"/>
-      <c r="E63" s="369"/>
-      <c r="F63" s="369"/>
-      <c r="G63" s="369"/>
-      <c r="H63" s="369"/>
-      <c r="I63" s="370"/>
+        <v>499</v>
+      </c>
+      <c r="C63" s="349" t="s">
+        <v>531</v>
+      </c>
+      <c r="D63" s="350"/>
+      <c r="E63" s="350"/>
+      <c r="F63" s="350"/>
+      <c r="G63" s="350"/>
+      <c r="H63" s="350"/>
+      <c r="I63" s="351"/>
       <c r="J63" s="75"/>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
@@ -18167,17 +18296,17 @@
         <v>13</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>524</v>
-      </c>
-      <c r="C64" s="368" t="s">
-        <v>528</v>
-      </c>
-      <c r="D64" s="369"/>
-      <c r="E64" s="369"/>
-      <c r="F64" s="369"/>
-      <c r="G64" s="369"/>
-      <c r="H64" s="369"/>
-      <c r="I64" s="370"/>
+        <v>518</v>
+      </c>
+      <c r="C64" s="349" t="s">
+        <v>522</v>
+      </c>
+      <c r="D64" s="350"/>
+      <c r="E64" s="350"/>
+      <c r="F64" s="350"/>
+      <c r="G64" s="350"/>
+      <c r="H64" s="350"/>
+      <c r="I64" s="351"/>
       <c r="J64" s="75"/>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
@@ -18188,17 +18317,17 @@
     <row r="65" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="C65" s="365" t="s">
-        <v>530</v>
-      </c>
-      <c r="D65" s="369"/>
-      <c r="E65" s="369"/>
-      <c r="F65" s="369"/>
-      <c r="G65" s="369"/>
-      <c r="H65" s="369"/>
-      <c r="I65" s="370"/>
+        <v>523</v>
+      </c>
+      <c r="C65" s="352" t="s">
+        <v>524</v>
+      </c>
+      <c r="D65" s="350"/>
+      <c r="E65" s="350"/>
+      <c r="F65" s="350"/>
+      <c r="G65" s="350"/>
+      <c r="H65" s="350"/>
+      <c r="I65" s="351"/>
       <c r="J65" s="75"/>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
@@ -18601,35 +18730,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:M50"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C40:M40"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18662,7 +18791,7 @@
       <selection sqref="A1:A5"/>
       <selection pane="topRight" sqref="A1:A5"/>
       <selection pane="bottomLeft" sqref="A1:A5"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -18732,12 +18861,12 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="360" t="s">
-        <v>434</v>
-      </c>
-      <c r="D6" s="361"/>
+      <c r="C6" s="376" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="377"/>
       <c r="E6" s="150" t="str">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,4,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE))</f>
         <v>옵션추가</v>
       </c>
       <c r="F6" s="148"/>
@@ -18746,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="150" t="str">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,6,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$70,6,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,6,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,6,FALSE))</f>
         <v>노명진</v>
       </c>
       <c r="J6" s="149"/>
@@ -18754,7 +18883,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="150">
-        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$70,11,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$70,11,FALSE))</f>
+        <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$71,11,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$Z$71,11,FALSE))</f>
         <v>43707</v>
       </c>
       <c r="M6" s="151"/>
@@ -18821,7 +18950,7 @@
       <c r="B11" s="87"/>
       <c r="C11" s="307"/>
       <c r="D11" s="333" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
@@ -18853,18 +18982,18 @@
       <c r="B13" s="87"/>
       <c r="C13" s="308"/>
       <c r="D13" s="327" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E13" s="328"/>
       <c r="F13" s="329"/>
       <c r="G13" s="330" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H13" s="331" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I13" s="332" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -18875,18 +19004,18 @@
       <c r="B14" s="87"/>
       <c r="C14" s="308"/>
       <c r="D14" s="327" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E14" s="328"/>
       <c r="F14" s="329"/>
       <c r="G14" s="330" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H14" s="331" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I14" s="332" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -18898,18 +19027,18 @@
       <c r="B15" s="87"/>
       <c r="C15" s="308"/>
       <c r="D15" s="327" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E15" s="328"/>
       <c r="F15" s="329"/>
       <c r="G15" s="330" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H15" s="331" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I15" s="332" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
@@ -18979,8 +19108,8 @@
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="362"/>
-      <c r="I19" s="362"/>
+      <c r="H19" s="378"/>
+      <c r="I19" s="378"/>
       <c r="J19" s="16"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -19197,17 +19326,17 @@
       <c r="B35" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="363"/>
-      <c r="D35" s="364"/>
-      <c r="E35" s="364"/>
-      <c r="F35" s="364"/>
-      <c r="G35" s="364"/>
-      <c r="H35" s="364"/>
-      <c r="I35" s="364"/>
-      <c r="J35" s="364"/>
-      <c r="K35" s="364"/>
-      <c r="L35" s="364"/>
-      <c r="M35" s="364"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="380"/>
+      <c r="G35" s="380"/>
+      <c r="H35" s="380"/>
+      <c r="I35" s="380"/>
+      <c r="J35" s="380"/>
+      <c r="K35" s="380"/>
+      <c r="L35" s="380"/>
+      <c r="M35" s="380"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
@@ -19215,7 +19344,7 @@
         <v>231</v>
       </c>
       <c r="C36" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D36" s="241"/>
       <c r="E36" s="241"/>
@@ -19231,10 +19360,10 @@
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="75" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C37" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D37" s="298"/>
       <c r="E37" s="298"/>
@@ -19250,10 +19379,10 @@
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="75" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C38" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D38" s="241"/>
       <c r="E38" s="241"/>
@@ -19269,10 +19398,10 @@
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="75" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C39" s="297" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D39" s="241"/>
       <c r="E39" s="241"/>
@@ -19312,13 +19441,13 @@
       <c r="B42" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="368" t="s">
+      <c r="C42" s="349" t="s">
         <v>272</v>
       </c>
-      <c r="D42" s="369"/>
-      <c r="E42" s="369"/>
-      <c r="F42" s="369"/>
-      <c r="G42" s="370"/>
+      <c r="D42" s="350"/>
+      <c r="E42" s="350"/>
+      <c r="F42" s="350"/>
+      <c r="G42" s="351"/>
       <c r="H42" s="12" t="s">
         <v>234</v>
       </c>
@@ -19328,22 +19457,22 @@
       <c r="J42" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K42" s="380"/>
-      <c r="L42" s="381"/>
+      <c r="K42" s="373"/>
+      <c r="L42" s="374"/>
       <c r="M42" s="383"/>
     </row>
     <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="296" t="s">
-        <v>544</v>
-      </c>
-      <c r="C43" s="365" t="s">
-        <v>523</v>
-      </c>
-      <c r="D43" s="366"/>
-      <c r="E43" s="366"/>
-      <c r="F43" s="366"/>
-      <c r="G43" s="367"/>
+        <v>538</v>
+      </c>
+      <c r="C43" s="352" t="s">
+        <v>517</v>
+      </c>
+      <c r="D43" s="359"/>
+      <c r="E43" s="359"/>
+      <c r="F43" s="359"/>
+      <c r="G43" s="360"/>
       <c r="H43" s="12" t="s">
         <v>234</v>
       </c>
@@ -19353,22 +19482,22 @@
       <c r="J43" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K43" s="380"/>
-      <c r="L43" s="381"/>
+      <c r="K43" s="373"/>
+      <c r="L43" s="374"/>
       <c r="M43" s="383"/>
     </row>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="296" t="s">
-        <v>545</v>
-      </c>
-      <c r="C44" s="365" t="s">
-        <v>523</v>
-      </c>
-      <c r="D44" s="366"/>
-      <c r="E44" s="366"/>
-      <c r="F44" s="366"/>
-      <c r="G44" s="367"/>
+        <v>539</v>
+      </c>
+      <c r="C44" s="352" t="s">
+        <v>517</v>
+      </c>
+      <c r="D44" s="359"/>
+      <c r="E44" s="359"/>
+      <c r="F44" s="359"/>
+      <c r="G44" s="360"/>
       <c r="H44" s="12" t="s">
         <v>234</v>
       </c>
@@ -19378,22 +19507,22 @@
       <c r="J44" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K44" s="380"/>
-      <c r="L44" s="381"/>
+      <c r="K44" s="373"/>
+      <c r="L44" s="374"/>
       <c r="M44" s="383"/>
     </row>
     <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="296" t="s">
-        <v>473</v>
-      </c>
-      <c r="C45" s="368" t="s">
-        <v>546</v>
-      </c>
-      <c r="D45" s="369"/>
-      <c r="E45" s="369"/>
-      <c r="F45" s="369"/>
-      <c r="G45" s="370"/>
+        <v>467</v>
+      </c>
+      <c r="C45" s="349" t="s">
+        <v>540</v>
+      </c>
+      <c r="D45" s="350"/>
+      <c r="E45" s="350"/>
+      <c r="F45" s="350"/>
+      <c r="G45" s="351"/>
       <c r="H45" s="12" t="s">
         <v>234</v>
       </c>
@@ -19403,43 +19532,43 @@
       <c r="J45" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K45" s="380"/>
-      <c r="L45" s="381"/>
+      <c r="K45" s="373"/>
+      <c r="L45" s="374"/>
       <c r="M45" s="383"/>
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="336" t="s">
-        <v>555</v>
-      </c>
-      <c r="C46" s="368" t="s">
-        <v>556</v>
-      </c>
-      <c r="D46" s="369"/>
-      <c r="E46" s="369"/>
-      <c r="F46" s="369"/>
-      <c r="G46" s="370"/>
+        <v>549</v>
+      </c>
+      <c r="C46" s="349" t="s">
+        <v>550</v>
+      </c>
+      <c r="D46" s="350"/>
+      <c r="E46" s="350"/>
+      <c r="F46" s="350"/>
+      <c r="G46" s="351"/>
       <c r="H46" s="12" t="s">
         <v>234</v>
       </c>
       <c r="I46" s="335" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K46" s="380"/>
-      <c r="L46" s="381"/>
+      <c r="K46" s="373"/>
+      <c r="L46" s="374"/>
       <c r="M46" s="383"/>
     </row>
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="240"/>
-      <c r="C47" s="368"/>
-      <c r="D47" s="369"/>
-      <c r="E47" s="369"/>
-      <c r="F47" s="369"/>
-      <c r="G47" s="370"/>
+      <c r="C47" s="349"/>
+      <c r="D47" s="350"/>
+      <c r="E47" s="350"/>
+      <c r="F47" s="350"/>
+      <c r="G47" s="351"/>
       <c r="H47" s="12" t="s">
         <v>234</v>
       </c>
@@ -19447,18 +19576,18 @@
       <c r="J47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K47" s="380"/>
-      <c r="L47" s="381"/>
+      <c r="K47" s="373"/>
+      <c r="L47" s="374"/>
       <c r="M47" s="383"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="240"/>
-      <c r="C48" s="368"/>
-      <c r="D48" s="369"/>
-      <c r="E48" s="369"/>
-      <c r="F48" s="369"/>
-      <c r="G48" s="370"/>
+      <c r="C48" s="349"/>
+      <c r="D48" s="350"/>
+      <c r="E48" s="350"/>
+      <c r="F48" s="350"/>
+      <c r="G48" s="351"/>
       <c r="H48" s="12" t="s">
         <v>234</v>
       </c>
@@ -19466,18 +19595,18 @@
       <c r="J48" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K48" s="380"/>
-      <c r="L48" s="381"/>
+      <c r="K48" s="373"/>
+      <c r="L48" s="374"/>
       <c r="M48" s="383"/>
     </row>
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="84"/>
-      <c r="C49" s="368"/>
-      <c r="D49" s="369"/>
-      <c r="E49" s="369"/>
-      <c r="F49" s="369"/>
-      <c r="G49" s="370"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="350"/>
+      <c r="E49" s="350"/>
+      <c r="F49" s="350"/>
+      <c r="G49" s="351"/>
       <c r="H49" s="12" t="s">
         <v>234</v>
       </c>
@@ -19485,18 +19614,18 @@
       <c r="J49" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K49" s="380"/>
-      <c r="L49" s="381"/>
+      <c r="K49" s="373"/>
+      <c r="L49" s="374"/>
       <c r="M49" s="383"/>
     </row>
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="365"/>
-      <c r="D50" s="366"/>
-      <c r="E50" s="366"/>
-      <c r="F50" s="366"/>
-      <c r="G50" s="367"/>
+      <c r="C50" s="352"/>
+      <c r="D50" s="359"/>
+      <c r="E50" s="359"/>
+      <c r="F50" s="359"/>
+      <c r="G50" s="360"/>
       <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
@@ -19504,18 +19633,18 @@
       <c r="J50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K50" s="380"/>
-      <c r="L50" s="381"/>
+      <c r="K50" s="373"/>
+      <c r="L50" s="374"/>
       <c r="M50" s="383"/>
     </row>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="224"/>
-      <c r="C51" s="368"/>
-      <c r="D51" s="369"/>
-      <c r="E51" s="369"/>
-      <c r="F51" s="369"/>
-      <c r="G51" s="370"/>
+      <c r="C51" s="349"/>
+      <c r="D51" s="350"/>
+      <c r="E51" s="350"/>
+      <c r="F51" s="350"/>
+      <c r="G51" s="351"/>
       <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
@@ -19523,18 +19652,18 @@
       <c r="J51" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K51" s="380"/>
-      <c r="L51" s="381"/>
+      <c r="K51" s="373"/>
+      <c r="L51" s="374"/>
       <c r="M51" s="383"/>
     </row>
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="224"/>
-      <c r="C52" s="368"/>
-      <c r="D52" s="369"/>
-      <c r="E52" s="369"/>
-      <c r="F52" s="369"/>
-      <c r="G52" s="370"/>
+      <c r="C52" s="349"/>
+      <c r="D52" s="350"/>
+      <c r="E52" s="350"/>
+      <c r="F52" s="350"/>
+      <c r="G52" s="351"/>
       <c r="H52" s="12" t="s">
         <v>234</v>
       </c>
@@ -19542,18 +19671,18 @@
       <c r="J52" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K52" s="380"/>
-      <c r="L52" s="381"/>
+      <c r="K52" s="373"/>
+      <c r="L52" s="374"/>
       <c r="M52" s="383"/>
     </row>
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="224"/>
-      <c r="C53" s="368"/>
-      <c r="D53" s="369"/>
-      <c r="E53" s="369"/>
-      <c r="F53" s="369"/>
-      <c r="G53" s="370"/>
+      <c r="C53" s="349"/>
+      <c r="D53" s="350"/>
+      <c r="E53" s="350"/>
+      <c r="F53" s="350"/>
+      <c r="G53" s="351"/>
       <c r="H53" s="12" t="s">
         <v>234</v>
       </c>
@@ -19561,8 +19690,8 @@
       <c r="J53" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K53" s="380"/>
-      <c r="L53" s="381"/>
+      <c r="K53" s="373"/>
+      <c r="L53" s="374"/>
       <c r="M53" s="383"/>
     </row>
     <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
@@ -19611,22 +19740,22 @@
         <v>1</v>
       </c>
       <c r="C57" s="334" t="s">
-        <v>547</v>
-      </c>
-      <c r="D57" s="349" t="s">
-        <v>551</v>
-      </c>
-      <c r="E57" s="356"/>
-      <c r="F57" s="356"/>
-      <c r="G57" s="356"/>
-      <c r="H57" s="356"/>
-      <c r="I57" s="357"/>
-      <c r="J57" s="352"/>
-      <c r="K57" s="355"/>
-      <c r="L57" s="349" t="s">
-        <v>552</v>
-      </c>
-      <c r="M57" s="355"/>
+        <v>541</v>
+      </c>
+      <c r="D57" s="356" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57" s="365"/>
+      <c r="F57" s="365"/>
+      <c r="G57" s="365"/>
+      <c r="H57" s="365"/>
+      <c r="I57" s="366"/>
+      <c r="J57" s="363"/>
+      <c r="K57" s="364"/>
+      <c r="L57" s="356" t="s">
+        <v>546</v>
+      </c>
+      <c r="M57" s="364"/>
     </row>
     <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13"/>
@@ -19634,20 +19763,20 @@
         <v>2</v>
       </c>
       <c r="C58" s="334" t="s">
+        <v>542</v>
+      </c>
+      <c r="D58" s="356" t="s">
         <v>548</v>
       </c>
-      <c r="D58" s="349" t="s">
-        <v>554</v>
-      </c>
-      <c r="E58" s="350"/>
-      <c r="F58" s="350"/>
-      <c r="G58" s="350"/>
-      <c r="H58" s="350"/>
-      <c r="I58" s="351"/>
-      <c r="J58" s="352"/>
-      <c r="K58" s="355"/>
-      <c r="L58" s="349"/>
-      <c r="M58" s="354"/>
+      <c r="E58" s="357"/>
+      <c r="F58" s="357"/>
+      <c r="G58" s="357"/>
+      <c r="H58" s="357"/>
+      <c r="I58" s="358"/>
+      <c r="J58" s="363"/>
+      <c r="K58" s="364"/>
+      <c r="L58" s="356"/>
+      <c r="M58" s="367"/>
     </row>
     <row r="59" spans="1:13" ht="50.25" customHeight="1">
       <c r="A59" s="13"/>
@@ -19655,48 +19784,48 @@
         <v>3</v>
       </c>
       <c r="C59" s="334" t="s">
-        <v>549</v>
-      </c>
-      <c r="D59" s="365" t="s">
-        <v>550</v>
-      </c>
-      <c r="E59" s="366"/>
-      <c r="F59" s="366"/>
-      <c r="G59" s="366"/>
-      <c r="H59" s="366"/>
-      <c r="I59" s="367"/>
-      <c r="J59" s="352"/>
-      <c r="K59" s="355"/>
-      <c r="L59" s="349" t="s">
-        <v>553</v>
-      </c>
-      <c r="M59" s="355"/>
+        <v>543</v>
+      </c>
+      <c r="D59" s="352" t="s">
+        <v>544</v>
+      </c>
+      <c r="E59" s="359"/>
+      <c r="F59" s="359"/>
+      <c r="G59" s="359"/>
+      <c r="H59" s="359"/>
+      <c r="I59" s="360"/>
+      <c r="J59" s="363"/>
+      <c r="K59" s="364"/>
+      <c r="L59" s="356" t="s">
+        <v>547</v>
+      </c>
+      <c r="M59" s="364"/>
     </row>
     <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="84"/>
       <c r="C60" s="238"/>
-      <c r="D60" s="349"/>
-      <c r="E60" s="356"/>
-      <c r="F60" s="356"/>
-      <c r="G60" s="356"/>
-      <c r="H60" s="356"/>
-      <c r="I60" s="357"/>
-      <c r="J60" s="352"/>
-      <c r="K60" s="355"/>
-      <c r="L60" s="349"/>
-      <c r="M60" s="354"/>
+      <c r="D60" s="356"/>
+      <c r="E60" s="365"/>
+      <c r="F60" s="365"/>
+      <c r="G60" s="365"/>
+      <c r="H60" s="365"/>
+      <c r="I60" s="366"/>
+      <c r="J60" s="363"/>
+      <c r="K60" s="364"/>
+      <c r="L60" s="356"/>
+      <c r="M60" s="367"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="84"/>
       <c r="C61" s="238"/>
-      <c r="D61" s="349"/>
-      <c r="E61" s="376"/>
-      <c r="F61" s="376"/>
-      <c r="G61" s="376"/>
-      <c r="H61" s="376"/>
-      <c r="I61" s="353"/>
+      <c r="D61" s="356"/>
+      <c r="E61" s="361"/>
+      <c r="F61" s="361"/>
+      <c r="G61" s="361"/>
+      <c r="H61" s="361"/>
+      <c r="I61" s="362"/>
       <c r="J61" s="243"/>
       <c r="K61" s="245"/>
       <c r="L61" s="246"/>
@@ -19706,72 +19835,72 @@
       <c r="A62" s="13"/>
       <c r="B62" s="84"/>
       <c r="C62" s="238"/>
-      <c r="D62" s="349"/>
-      <c r="E62" s="350"/>
-      <c r="F62" s="350"/>
-      <c r="G62" s="350"/>
-      <c r="H62" s="350"/>
-      <c r="I62" s="351"/>
+      <c r="D62" s="356"/>
+      <c r="E62" s="357"/>
+      <c r="F62" s="357"/>
+      <c r="G62" s="357"/>
+      <c r="H62" s="357"/>
+      <c r="I62" s="358"/>
       <c r="J62" s="243"/>
       <c r="K62" s="245"/>
-      <c r="L62" s="365"/>
-      <c r="M62" s="367"/>
+      <c r="L62" s="352"/>
+      <c r="M62" s="360"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="84"/>
       <c r="C63" s="238"/>
-      <c r="D63" s="349"/>
-      <c r="E63" s="356"/>
-      <c r="F63" s="356"/>
-      <c r="G63" s="356"/>
-      <c r="H63" s="356"/>
-      <c r="I63" s="357"/>
-      <c r="J63" s="352"/>
-      <c r="K63" s="357"/>
-      <c r="L63" s="349"/>
-      <c r="M63" s="357"/>
+      <c r="D63" s="356"/>
+      <c r="E63" s="365"/>
+      <c r="F63" s="365"/>
+      <c r="G63" s="365"/>
+      <c r="H63" s="365"/>
+      <c r="I63" s="366"/>
+      <c r="J63" s="363"/>
+      <c r="K63" s="366"/>
+      <c r="L63" s="356"/>
+      <c r="M63" s="366"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="84"/>
       <c r="C64" s="238"/>
-      <c r="D64" s="349"/>
-      <c r="E64" s="350"/>
-      <c r="F64" s="350"/>
-      <c r="G64" s="350"/>
-      <c r="H64" s="350"/>
-      <c r="I64" s="351"/>
-      <c r="J64" s="352"/>
-      <c r="K64" s="353"/>
-      <c r="L64" s="349"/>
-      <c r="M64" s="354"/>
+      <c r="D64" s="356"/>
+      <c r="E64" s="357"/>
+      <c r="F64" s="357"/>
+      <c r="G64" s="357"/>
+      <c r="H64" s="357"/>
+      <c r="I64" s="358"/>
+      <c r="J64" s="363"/>
+      <c r="K64" s="362"/>
+      <c r="L64" s="356"/>
+      <c r="M64" s="367"/>
     </row>
     <row r="65" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="84"/>
       <c r="C65" s="238"/>
-      <c r="D65" s="349"/>
-      <c r="E65" s="350"/>
-      <c r="F65" s="350"/>
-      <c r="G65" s="350"/>
-      <c r="H65" s="350"/>
-      <c r="I65" s="351"/>
-      <c r="J65" s="352"/>
-      <c r="K65" s="353"/>
-      <c r="L65" s="352"/>
-      <c r="M65" s="353"/>
+      <c r="D65" s="356"/>
+      <c r="E65" s="357"/>
+      <c r="F65" s="357"/>
+      <c r="G65" s="357"/>
+      <c r="H65" s="357"/>
+      <c r="I65" s="358"/>
+      <c r="J65" s="363"/>
+      <c r="K65" s="362"/>
+      <c r="L65" s="363"/>
+      <c r="M65" s="362"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="84"/>
       <c r="C66" s="238"/>
-      <c r="D66" s="365"/>
-      <c r="E66" s="366"/>
-      <c r="F66" s="366"/>
-      <c r="G66" s="366"/>
-      <c r="H66" s="366"/>
-      <c r="I66" s="367"/>
+      <c r="D66" s="352"/>
+      <c r="E66" s="359"/>
+      <c r="F66" s="359"/>
+      <c r="G66" s="359"/>
+      <c r="H66" s="359"/>
+      <c r="I66" s="360"/>
       <c r="J66" s="243"/>
       <c r="K66" s="244"/>
       <c r="L66" s="243"/>
@@ -19781,12 +19910,12 @@
       <c r="A67" s="13"/>
       <c r="B67" s="84"/>
       <c r="C67" s="238"/>
-      <c r="D67" s="365"/>
-      <c r="E67" s="366"/>
-      <c r="F67" s="366"/>
-      <c r="G67" s="366"/>
-      <c r="H67" s="366"/>
-      <c r="I67" s="367"/>
+      <c r="D67" s="352"/>
+      <c r="E67" s="359"/>
+      <c r="F67" s="359"/>
+      <c r="G67" s="359"/>
+      <c r="H67" s="359"/>
+      <c r="I67" s="360"/>
       <c r="J67" s="243"/>
       <c r="K67" s="244"/>
       <c r="L67" s="243"/>
@@ -19796,16 +19925,16 @@
       <c r="A68" s="13"/>
       <c r="B68" s="84"/>
       <c r="C68" s="225"/>
-      <c r="D68" s="349"/>
-      <c r="E68" s="376"/>
-      <c r="F68" s="376"/>
-      <c r="G68" s="376"/>
-      <c r="H68" s="376"/>
-      <c r="I68" s="353"/>
-      <c r="J68" s="352"/>
-      <c r="K68" s="355"/>
-      <c r="L68" s="349"/>
-      <c r="M68" s="351"/>
+      <c r="D68" s="356"/>
+      <c r="E68" s="361"/>
+      <c r="F68" s="361"/>
+      <c r="G68" s="361"/>
+      <c r="H68" s="361"/>
+      <c r="I68" s="362"/>
+      <c r="J68" s="363"/>
+      <c r="K68" s="364"/>
+      <c r="L68" s="356"/>
+      <c r="M68" s="358"/>
     </row>
     <row r="69" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -19845,13 +19974,13 @@
     <row r="72" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="75"/>
-      <c r="C72" s="368"/>
-      <c r="D72" s="369"/>
-      <c r="E72" s="369"/>
-      <c r="F72" s="369"/>
-      <c r="G72" s="369"/>
-      <c r="H72" s="369"/>
-      <c r="I72" s="370"/>
+      <c r="C72" s="349"/>
+      <c r="D72" s="350"/>
+      <c r="E72" s="350"/>
+      <c r="F72" s="350"/>
+      <c r="G72" s="350"/>
+      <c r="H72" s="350"/>
+      <c r="I72" s="351"/>
       <c r="J72" s="75"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
@@ -19864,13 +19993,13 @@
         <v>13</v>
       </c>
       <c r="B73" s="75"/>
-      <c r="C73" s="368"/>
-      <c r="D73" s="369"/>
-      <c r="E73" s="369"/>
-      <c r="F73" s="369"/>
-      <c r="G73" s="369"/>
-      <c r="H73" s="369"/>
-      <c r="I73" s="370"/>
+      <c r="C73" s="349"/>
+      <c r="D73" s="350"/>
+      <c r="E73" s="350"/>
+      <c r="F73" s="350"/>
+      <c r="G73" s="350"/>
+      <c r="H73" s="350"/>
+      <c r="I73" s="351"/>
       <c r="J73" s="75"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -19881,13 +20010,13 @@
     <row r="74" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="75"/>
-      <c r="C74" s="365"/>
-      <c r="D74" s="369"/>
-      <c r="E74" s="369"/>
-      <c r="F74" s="369"/>
-      <c r="G74" s="369"/>
-      <c r="H74" s="369"/>
-      <c r="I74" s="370"/>
+      <c r="C74" s="352"/>
+      <c r="D74" s="350"/>
+      <c r="E74" s="350"/>
+      <c r="F74" s="350"/>
+      <c r="G74" s="350"/>
+      <c r="H74" s="350"/>
+      <c r="I74" s="351"/>
       <c r="J74" s="75"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -20051,13 +20180,13 @@
     <row r="84" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="75"/>
-      <c r="C84" s="368"/>
-      <c r="D84" s="369"/>
-      <c r="E84" s="369"/>
-      <c r="F84" s="369"/>
-      <c r="G84" s="369"/>
-      <c r="H84" s="369"/>
-      <c r="I84" s="370"/>
+      <c r="C84" s="349"/>
+      <c r="D84" s="350"/>
+      <c r="E84" s="350"/>
+      <c r="F84" s="350"/>
+      <c r="G84" s="350"/>
+      <c r="H84" s="350"/>
+      <c r="I84" s="351"/>
       <c r="J84" s="75"/>
       <c r="K84" s="84"/>
       <c r="L84" s="84"/>
@@ -20068,13 +20197,13 @@
     <row r="85" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="75"/>
-      <c r="C85" s="368"/>
-      <c r="D85" s="369"/>
-      <c r="E85" s="369"/>
-      <c r="F85" s="369"/>
-      <c r="G85" s="369"/>
-      <c r="H85" s="369"/>
-      <c r="I85" s="370"/>
+      <c r="C85" s="349"/>
+      <c r="D85" s="350"/>
+      <c r="E85" s="350"/>
+      <c r="F85" s="350"/>
+      <c r="G85" s="350"/>
+      <c r="H85" s="350"/>
+      <c r="I85" s="351"/>
       <c r="J85" s="75"/>
       <c r="K85" s="84"/>
       <c r="L85" s="84"/>
@@ -20494,11 +20623,49 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="L62:M62"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="L68:M68"/>
@@ -20513,49 +20680,11 @@
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="D66:I66"/>
     <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="C73:I73"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="C85:I85"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">

--- a/doc/sfs/rmj/기본설계서_REDBULL_노명진_20190920.xlsx
+++ b/doc/sfs/rmj/기본설계서_REDBULL_노명진_20190920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12120" tabRatio="875" activeTab="2"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12120" tabRatio="875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation" sheetId="19" r:id="rId1"/>
@@ -4476,6 +4476,83 @@
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4484,9 +4561,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4496,81 +4570,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4620,28 +4620,7 @@
     <cellStyle name="하이퍼링크" xfId="35" builtinId="8"/>
     <cellStyle name="하이퍼링크 2" xfId="37"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -10177,13 +10156,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="M7:M11">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"미진행"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"지연"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"완료(지연)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10208,8 +10187,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AS83"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -11604,7 +11583,7 @@
       <c r="Q23" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="R23" s="251" t="s">
+      <c r="R23" s="35" t="s">
         <v>328</v>
       </c>
       <c r="S23" s="260" t="str">
@@ -11676,7 +11655,7 @@
       <c r="Q24" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="R24" s="251" t="s">
+      <c r="R24" s="35" t="s">
         <v>330</v>
       </c>
       <c r="S24" s="260" t="str">
@@ -15147,19 +15126,19 @@
         <v>209</v>
       </c>
       <c r="AP77" s="75">
-        <f>COUNTIF(AP$8:AP$72,AO77)</f>
+        <f t="shared" ref="AP77:AP82" si="4">COUNTIF(AP$8:AP$72,AO77)</f>
         <v>0</v>
       </c>
       <c r="AQ77" s="75">
-        <f>COUNTIF(AQ$8:AQ$72,AO77)</f>
+        <f t="shared" ref="AQ77:AQ82" si="5">COUNTIF(AQ$8:AQ$72,AO77)</f>
         <v>0</v>
       </c>
       <c r="AR77" s="75">
-        <f>COUNTIF(AR$8:AR$72,AO77)</f>
+        <f t="shared" ref="AR77:AR82" si="6">COUNTIF(AR$8:AR$72,AO77)</f>
         <v>0</v>
       </c>
       <c r="AS77" s="75">
-        <f>COUNTIF(AS$8:AS$72,AO77)</f>
+        <f t="shared" ref="AS77:AS82" si="7">COUNTIF(AS$8:AS$72,AO77)</f>
         <v>0</v>
       </c>
     </row>
@@ -15183,19 +15162,19 @@
         <v>211</v>
       </c>
       <c r="AP78" s="75">
-        <f>COUNTIF(AP$8:AP$72,AO78)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ78" s="75">
-        <f>COUNTIF(AQ$8:AQ$72,AO78)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR78" s="75">
-        <f>COUNTIF(AR$8:AR$72,AO78)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS78" s="75">
-        <f>COUNTIF(AS$8:AS$72,AO78)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15215,19 +15194,19 @@
         <v>213</v>
       </c>
       <c r="AP79" s="75">
-        <f>COUNTIF(AP$8:AP$72,AO79)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ79" s="75">
-        <f>COUNTIF(AQ$8:AQ$72,AO79)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR79" s="75">
-        <f>COUNTIF(AR$8:AR$72,AO79)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS79" s="75">
-        <f>COUNTIF(AS$8:AS$72,AO79)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15247,19 +15226,19 @@
         <v>214</v>
       </c>
       <c r="AP80" s="75">
-        <f>COUNTIF(AP$8:AP$72,AO80)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ80" s="75">
-        <f>COUNTIF(AQ$8:AQ$72,AO80)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR80" s="75">
-        <f>COUNTIF(AR$8:AR$72,AO80)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS80" s="75">
-        <f>COUNTIF(AS$8:AS$72,AO80)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15279,19 +15258,19 @@
         <v>216</v>
       </c>
       <c r="AP81" s="75">
-        <f>COUNTIF(AP$8:AP$72,AO81)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ81" s="75">
-        <f>COUNTIF(AQ$8:AQ$72,AO81)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR81" s="75">
-        <f>COUNTIF(AR$8:AR$72,AO81)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS81" s="75">
-        <f>COUNTIF(AS$8:AS$72,AO81)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15310,19 +15289,19 @@
         <v>217</v>
       </c>
       <c r="AP82" s="75">
-        <f>COUNTIF(AP$8:AP$72,AO82)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ82" s="75">
-        <f>COUNTIF(AQ$8:AQ$72,AO82)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR82" s="75">
-        <f>COUNTIF(AR$8:AR$72,AO82)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS82" s="75">
-        <f>COUNTIF(AS$8:AS$72,AO82)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15393,8 +15372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -15464,10 +15443,10 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="376" t="s">
+      <c r="C6" s="358" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="377"/>
+      <c r="D6" s="359"/>
       <c r="E6" s="150" t="str">
         <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE))</f>
         <v>상품 상세</v>
@@ -15711,8 +15690,8 @@
       <c r="E19" s="208"/>
       <c r="F19" s="209"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="378"/>
-      <c r="I19" s="378"/>
+      <c r="H19" s="360"/>
+      <c r="I19" s="360"/>
       <c r="J19" s="16"/>
       <c r="K19" s="106" t="s">
         <v>456</v>
@@ -15841,10 +15820,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="219"/>
       <c r="C28" s="32"/>
-      <c r="E28" s="371" t="s">
+      <c r="E28" s="369" t="s">
         <v>265</v>
       </c>
-      <c r="F28" s="372"/>
+      <c r="F28" s="370"/>
       <c r="H28" s="210"/>
       <c r="J28" s="32"/>
       <c r="L28" s="16"/>
@@ -15971,17 +15950,17 @@
       <c r="B37" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="379"/>
-      <c r="D37" s="380"/>
-      <c r="E37" s="380"/>
-      <c r="F37" s="380"/>
-      <c r="G37" s="380"/>
-      <c r="H37" s="380"/>
-      <c r="I37" s="380"/>
-      <c r="J37" s="380"/>
-      <c r="K37" s="380"/>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
+      <c r="C37" s="361"/>
+      <c r="D37" s="362"/>
+      <c r="E37" s="362"/>
+      <c r="F37" s="362"/>
+      <c r="G37" s="362"/>
+      <c r="H37" s="362"/>
+      <c r="I37" s="362"/>
+      <c r="J37" s="362"/>
+      <c r="K37" s="362"/>
+      <c r="L37" s="362"/>
+      <c r="M37" s="362"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="13"/>
@@ -16176,13 +16155,13 @@
       <c r="B49" s="339" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="353" t="s">
+      <c r="C49" s="379" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="354"/>
-      <c r="E49" s="354"/>
-      <c r="F49" s="354"/>
-      <c r="G49" s="355"/>
+      <c r="D49" s="380"/>
+      <c r="E49" s="380"/>
+      <c r="F49" s="380"/>
+      <c r="G49" s="381"/>
       <c r="H49" s="25" t="s">
         <v>234</v>
       </c>
@@ -16192,22 +16171,22 @@
       <c r="J49" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="K49" s="368"/>
-      <c r="L49" s="369"/>
-      <c r="M49" s="370"/>
+      <c r="K49" s="366"/>
+      <c r="L49" s="367"/>
+      <c r="M49" s="368"/>
     </row>
     <row r="50" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="341" t="s">
         <v>467</v>
       </c>
-      <c r="C50" s="352" t="s">
+      <c r="C50" s="363" t="s">
         <v>482</v>
       </c>
-      <c r="D50" s="359"/>
-      <c r="E50" s="359"/>
-      <c r="F50" s="359"/>
-      <c r="G50" s="360"/>
+      <c r="D50" s="364"/>
+      <c r="E50" s="364"/>
+      <c r="F50" s="364"/>
+      <c r="G50" s="365"/>
       <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
@@ -16226,13 +16205,13 @@
       <c r="B51" s="342" t="s">
         <v>479</v>
       </c>
-      <c r="C51" s="349" t="s">
+      <c r="C51" s="376" t="s">
         <v>480</v>
       </c>
-      <c r="D51" s="350"/>
-      <c r="E51" s="350"/>
-      <c r="F51" s="350"/>
-      <c r="G51" s="351"/>
+      <c r="D51" s="377"/>
+      <c r="E51" s="377"/>
+      <c r="F51" s="377"/>
+      <c r="G51" s="378"/>
       <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
@@ -16251,13 +16230,13 @@
       <c r="B52" s="342" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="349" t="s">
+      <c r="C52" s="376" t="s">
         <v>481</v>
       </c>
-      <c r="D52" s="350"/>
-      <c r="E52" s="350"/>
-      <c r="F52" s="350"/>
-      <c r="G52" s="351"/>
+      <c r="D52" s="377"/>
+      <c r="E52" s="377"/>
+      <c r="F52" s="377"/>
+      <c r="G52" s="378"/>
       <c r="H52" s="12" t="s">
         <v>234</v>
       </c>
@@ -16321,22 +16300,22 @@
       <c r="C56" s="294" t="s">
         <v>504</v>
       </c>
-      <c r="D56" s="356" t="s">
+      <c r="D56" s="351" t="s">
         <v>477</v>
       </c>
-      <c r="E56" s="365"/>
-      <c r="F56" s="365"/>
-      <c r="G56" s="365"/>
-      <c r="H56" s="365"/>
-      <c r="I56" s="366"/>
-      <c r="J56" s="363" t="s">
+      <c r="E56" s="371"/>
+      <c r="F56" s="371"/>
+      <c r="G56" s="371"/>
+      <c r="H56" s="371"/>
+      <c r="I56" s="372"/>
+      <c r="J56" s="349" t="s">
         <v>478</v>
       </c>
-      <c r="K56" s="364"/>
-      <c r="L56" s="356" t="s">
+      <c r="K56" s="355"/>
+      <c r="L56" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="M56" s="364"/>
+      <c r="M56" s="355"/>
     </row>
     <row r="57" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="13"/>
@@ -16346,16 +16325,16 @@
       <c r="C57" s="294" t="s">
         <v>505</v>
       </c>
-      <c r="D57" s="352" t="s">
+      <c r="D57" s="363" t="s">
         <v>277</v>
       </c>
-      <c r="E57" s="359"/>
-      <c r="F57" s="359"/>
-      <c r="G57" s="359"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="360"/>
-      <c r="J57" s="363"/>
-      <c r="K57" s="364"/>
+      <c r="E57" s="364"/>
+      <c r="F57" s="364"/>
+      <c r="G57" s="364"/>
+      <c r="H57" s="364"/>
+      <c r="I57" s="365"/>
+      <c r="J57" s="349"/>
+      <c r="K57" s="355"/>
       <c r="L57" s="300"/>
       <c r="M57" s="303"/>
     </row>
@@ -16367,20 +16346,20 @@
       <c r="C58" s="294" t="s">
         <v>454</v>
       </c>
-      <c r="D58" s="356" t="s">
+      <c r="D58" s="351" t="s">
         <v>516</v>
       </c>
-      <c r="E58" s="365"/>
-      <c r="F58" s="365"/>
-      <c r="G58" s="365"/>
-      <c r="H58" s="365"/>
-      <c r="I58" s="366"/>
-      <c r="J58" s="363"/>
-      <c r="K58" s="364"/>
-      <c r="L58" s="356" t="s">
+      <c r="E58" s="371"/>
+      <c r="F58" s="371"/>
+      <c r="G58" s="371"/>
+      <c r="H58" s="371"/>
+      <c r="I58" s="372"/>
+      <c r="J58" s="349"/>
+      <c r="K58" s="355"/>
+      <c r="L58" s="351" t="s">
         <v>473</v>
       </c>
-      <c r="M58" s="367"/>
+      <c r="M58" s="352"/>
       <c r="N58" s="70"/>
     </row>
     <row r="59" spans="1:21" ht="17.100000000000001" customHeight="1">
@@ -16391,28 +16370,28 @@
       <c r="C59" s="294" t="s">
         <v>457</v>
       </c>
-      <c r="D59" s="356" t="s">
+      <c r="D59" s="351" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="357"/>
-      <c r="F59" s="357"/>
-      <c r="G59" s="357"/>
-      <c r="H59" s="357"/>
-      <c r="I59" s="358"/>
-      <c r="J59" s="363" t="s">
+      <c r="E59" s="353"/>
+      <c r="F59" s="353"/>
+      <c r="G59" s="353"/>
+      <c r="H59" s="353"/>
+      <c r="I59" s="354"/>
+      <c r="J59" s="349" t="s">
         <v>465</v>
       </c>
-      <c r="K59" s="364"/>
-      <c r="L59" s="356" t="s">
+      <c r="K59" s="355"/>
+      <c r="L59" s="351" t="s">
         <v>474</v>
       </c>
-      <c r="M59" s="367"/>
-      <c r="P59" s="381"/>
-      <c r="Q59" s="382"/>
-      <c r="R59" s="382"/>
-      <c r="S59" s="382"/>
-      <c r="T59" s="382"/>
-      <c r="U59" s="382"/>
+      <c r="M59" s="352"/>
+      <c r="P59" s="356"/>
+      <c r="Q59" s="357"/>
+      <c r="R59" s="357"/>
+      <c r="S59" s="357"/>
+      <c r="T59" s="357"/>
+      <c r="U59" s="357"/>
     </row>
     <row r="60" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13"/>
@@ -16422,14 +16401,14 @@
       <c r="C60" s="294" t="s">
         <v>506</v>
       </c>
-      <c r="D60" s="356" t="s">
+      <c r="D60" s="351" t="s">
         <v>492</v>
       </c>
-      <c r="E60" s="361"/>
-      <c r="F60" s="361"/>
-      <c r="G60" s="361"/>
-      <c r="H60" s="361"/>
-      <c r="I60" s="362"/>
+      <c r="E60" s="382"/>
+      <c r="F60" s="382"/>
+      <c r="G60" s="382"/>
+      <c r="H60" s="382"/>
+      <c r="I60" s="350"/>
       <c r="J60" s="302" t="s">
         <v>493</v>
       </c>
@@ -16455,14 +16434,14 @@
       <c r="G61" s="305"/>
       <c r="H61" s="305"/>
       <c r="I61" s="306"/>
-      <c r="J61" s="363" t="s">
+      <c r="J61" s="349" t="s">
         <v>485</v>
       </c>
-      <c r="K61" s="362"/>
-      <c r="L61" s="356" t="s">
+      <c r="K61" s="350"/>
+      <c r="L61" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="M61" s="364"/>
+      <c r="M61" s="355"/>
     </row>
     <row r="62" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13"/>
@@ -16480,14 +16459,14 @@
       <c r="G62" s="305"/>
       <c r="H62" s="305"/>
       <c r="I62" s="306"/>
-      <c r="J62" s="363" t="s">
+      <c r="J62" s="349" t="s">
         <v>490</v>
       </c>
-      <c r="K62" s="362"/>
-      <c r="L62" s="356" t="s">
+      <c r="K62" s="350"/>
+      <c r="L62" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="M62" s="364"/>
+      <c r="M62" s="355"/>
     </row>
     <row r="63" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
@@ -16497,22 +16476,22 @@
       <c r="C63" s="294" t="s">
         <v>509</v>
       </c>
-      <c r="D63" s="356" t="s">
+      <c r="D63" s="351" t="s">
         <v>489</v>
       </c>
-      <c r="E63" s="357"/>
-      <c r="F63" s="357"/>
-      <c r="G63" s="357"/>
-      <c r="H63" s="357"/>
-      <c r="I63" s="358"/>
-      <c r="J63" s="363" t="s">
+      <c r="E63" s="353"/>
+      <c r="F63" s="353"/>
+      <c r="G63" s="353"/>
+      <c r="H63" s="353"/>
+      <c r="I63" s="354"/>
+      <c r="J63" s="349" t="s">
         <v>491</v>
       </c>
-      <c r="K63" s="362"/>
-      <c r="L63" s="356" t="s">
+      <c r="K63" s="350"/>
+      <c r="L63" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="M63" s="364"/>
+      <c r="M63" s="355"/>
     </row>
     <row r="64" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
@@ -16522,14 +16501,14 @@
       <c r="C64" s="294" t="s">
         <v>510</v>
       </c>
-      <c r="D64" s="356" t="s">
+      <c r="D64" s="351" t="s">
         <v>468</v>
       </c>
-      <c r="E64" s="365"/>
-      <c r="F64" s="365"/>
-      <c r="G64" s="365"/>
-      <c r="H64" s="365"/>
-      <c r="I64" s="366"/>
+      <c r="E64" s="371"/>
+      <c r="F64" s="371"/>
+      <c r="G64" s="371"/>
+      <c r="H64" s="371"/>
+      <c r="I64" s="372"/>
       <c r="J64" s="302"/>
       <c r="K64" s="304"/>
       <c r="L64" s="300"/>
@@ -16543,22 +16522,22 @@
       <c r="C65" s="294" t="s">
         <v>461</v>
       </c>
-      <c r="D65" s="356" t="s">
+      <c r="D65" s="351" t="s">
         <v>470</v>
       </c>
-      <c r="E65" s="357"/>
-      <c r="F65" s="357"/>
-      <c r="G65" s="357"/>
-      <c r="H65" s="357"/>
-      <c r="I65" s="358"/>
-      <c r="J65" s="363" t="s">
+      <c r="E65" s="353"/>
+      <c r="F65" s="353"/>
+      <c r="G65" s="353"/>
+      <c r="H65" s="353"/>
+      <c r="I65" s="354"/>
+      <c r="J65" s="349" t="s">
         <v>469</v>
       </c>
-      <c r="K65" s="362"/>
-      <c r="L65" s="356" t="s">
+      <c r="K65" s="350"/>
+      <c r="L65" s="351" t="s">
         <v>475</v>
       </c>
-      <c r="M65" s="367"/>
+      <c r="M65" s="352"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
@@ -16568,22 +16547,22 @@
       <c r="C66" s="294" t="s">
         <v>511</v>
       </c>
-      <c r="D66" s="356" t="s">
+      <c r="D66" s="351" t="s">
         <v>484</v>
       </c>
-      <c r="E66" s="357"/>
-      <c r="F66" s="357"/>
-      <c r="G66" s="357"/>
-      <c r="H66" s="357"/>
-      <c r="I66" s="358"/>
-      <c r="J66" s="363" t="s">
+      <c r="E66" s="353"/>
+      <c r="F66" s="353"/>
+      <c r="G66" s="353"/>
+      <c r="H66" s="353"/>
+      <c r="I66" s="354"/>
+      <c r="J66" s="349" t="s">
         <v>486</v>
       </c>
-      <c r="K66" s="362"/>
-      <c r="L66" s="356" t="s">
+      <c r="K66" s="350"/>
+      <c r="L66" s="351" t="s">
         <v>487</v>
       </c>
-      <c r="M66" s="364"/>
+      <c r="M66" s="355"/>
     </row>
     <row r="67" spans="1:15" ht="30" customHeight="1">
       <c r="A67" s="13"/>
@@ -16593,22 +16572,22 @@
       <c r="C67" s="294" t="s">
         <v>462</v>
       </c>
-      <c r="D67" s="356" t="s">
+      <c r="D67" s="351" t="s">
         <v>274</v>
       </c>
-      <c r="E67" s="357"/>
-      <c r="F67" s="357"/>
-      <c r="G67" s="357"/>
-      <c r="H67" s="357"/>
-      <c r="I67" s="358"/>
-      <c r="J67" s="363" t="s">
+      <c r="E67" s="353"/>
+      <c r="F67" s="353"/>
+      <c r="G67" s="353"/>
+      <c r="H67" s="353"/>
+      <c r="I67" s="354"/>
+      <c r="J67" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="K67" s="362"/>
-      <c r="L67" s="356" t="s">
+      <c r="K67" s="350"/>
+      <c r="L67" s="351" t="s">
         <v>472</v>
       </c>
-      <c r="M67" s="367"/>
+      <c r="M67" s="352"/>
     </row>
     <row r="68" spans="1:15" ht="24" customHeight="1">
       <c r="A68" s="13"/>
@@ -16618,22 +16597,22 @@
       <c r="C68" s="294" t="s">
         <v>512</v>
       </c>
-      <c r="D68" s="356" t="s">
+      <c r="D68" s="351" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="357"/>
-      <c r="F68" s="357"/>
-      <c r="G68" s="357"/>
-      <c r="H68" s="357"/>
-      <c r="I68" s="358"/>
-      <c r="J68" s="363" t="s">
+      <c r="E68" s="353"/>
+      <c r="F68" s="353"/>
+      <c r="G68" s="353"/>
+      <c r="H68" s="353"/>
+      <c r="I68" s="354"/>
+      <c r="J68" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="K68" s="362"/>
-      <c r="L68" s="356" t="s">
+      <c r="K68" s="350"/>
+      <c r="L68" s="351" t="s">
         <v>476</v>
       </c>
-      <c r="M68" s="367"/>
+      <c r="M68" s="352"/>
     </row>
     <row r="69" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -16675,15 +16654,15 @@
       <c r="B72" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="C72" s="349" t="s">
+      <c r="C72" s="376" t="s">
         <v>527</v>
       </c>
-      <c r="D72" s="350"/>
-      <c r="E72" s="350"/>
-      <c r="F72" s="350"/>
-      <c r="G72" s="350"/>
-      <c r="H72" s="350"/>
-      <c r="I72" s="351"/>
+      <c r="D72" s="377"/>
+      <c r="E72" s="377"/>
+      <c r="F72" s="377"/>
+      <c r="G72" s="377"/>
+      <c r="H72" s="377"/>
+      <c r="I72" s="378"/>
       <c r="J72" s="75"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
@@ -16698,15 +16677,15 @@
       <c r="B73" s="75" t="s">
         <v>504</v>
       </c>
-      <c r="C73" s="349" t="s">
+      <c r="C73" s="376" t="s">
         <v>528</v>
       </c>
-      <c r="D73" s="350"/>
-      <c r="E73" s="350"/>
-      <c r="F73" s="350"/>
-      <c r="G73" s="350"/>
-      <c r="H73" s="350"/>
-      <c r="I73" s="351"/>
+      <c r="D73" s="377"/>
+      <c r="E73" s="377"/>
+      <c r="F73" s="377"/>
+      <c r="G73" s="377"/>
+      <c r="H73" s="377"/>
+      <c r="I73" s="378"/>
       <c r="J73" s="75"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -16719,15 +16698,15 @@
       <c r="B74" s="75" t="s">
         <v>529</v>
       </c>
-      <c r="C74" s="352" t="s">
+      <c r="C74" s="363" t="s">
         <v>530</v>
       </c>
-      <c r="D74" s="350"/>
-      <c r="E74" s="350"/>
-      <c r="F74" s="350"/>
-      <c r="G74" s="350"/>
-      <c r="H74" s="350"/>
-      <c r="I74" s="351"/>
+      <c r="D74" s="377"/>
+      <c r="E74" s="377"/>
+      <c r="F74" s="377"/>
+      <c r="G74" s="377"/>
+      <c r="H74" s="377"/>
+      <c r="I74" s="378"/>
       <c r="J74" s="75"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -17130,43 +17109,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C37:M37"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
     <mergeCell ref="C73:I73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="C49:G49"/>
@@ -17179,6 +17121,43 @@
     <mergeCell ref="D63:I63"/>
     <mergeCell ref="D64:I64"/>
     <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
@@ -17287,10 +17266,10 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="376" t="s">
+      <c r="C6" s="358" t="s">
         <v>426</v>
       </c>
-      <c r="D6" s="377"/>
+      <c r="D6" s="359"/>
       <c r="E6" s="150" t="str">
         <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE))</f>
         <v>상품 등록 및 수정</v>
@@ -17833,17 +17812,17 @@
       <c r="B40" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="379"/>
-      <c r="D40" s="380"/>
-      <c r="E40" s="380"/>
-      <c r="F40" s="380"/>
-      <c r="G40" s="380"/>
-      <c r="H40" s="380"/>
-      <c r="I40" s="380"/>
-      <c r="J40" s="380"/>
-      <c r="K40" s="380"/>
-      <c r="L40" s="380"/>
-      <c r="M40" s="380"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="362"/>
+      <c r="E40" s="362"/>
+      <c r="F40" s="362"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="362"/>
+      <c r="L40" s="362"/>
+      <c r="M40" s="362"/>
     </row>
     <row r="41" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13"/>
@@ -17948,13 +17927,13 @@
       <c r="B47" s="233" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="349" t="s">
+      <c r="C47" s="376" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="350"/>
-      <c r="E47" s="350"/>
-      <c r="F47" s="350"/>
-      <c r="G47" s="351"/>
+      <c r="D47" s="377"/>
+      <c r="E47" s="377"/>
+      <c r="F47" s="377"/>
+      <c r="G47" s="378"/>
       <c r="H47" s="12" t="s">
         <v>18</v>
       </c>
@@ -17973,13 +17952,13 @@
       <c r="B48" s="296" t="s">
         <v>497</v>
       </c>
-      <c r="C48" s="349" t="s">
+      <c r="C48" s="376" t="s">
         <v>517</v>
       </c>
-      <c r="D48" s="350"/>
-      <c r="E48" s="350"/>
-      <c r="F48" s="350"/>
-      <c r="G48" s="351"/>
+      <c r="D48" s="377"/>
+      <c r="E48" s="377"/>
+      <c r="F48" s="377"/>
+      <c r="G48" s="378"/>
       <c r="H48" s="12" t="s">
         <v>18</v>
       </c>
@@ -17998,13 +17977,13 @@
       <c r="B49" s="296" t="s">
         <v>499</v>
       </c>
-      <c r="C49" s="349" t="s">
+      <c r="C49" s="376" t="s">
         <v>520</v>
       </c>
-      <c r="D49" s="350"/>
-      <c r="E49" s="350"/>
-      <c r="F49" s="350"/>
-      <c r="G49" s="351"/>
+      <c r="D49" s="377"/>
+      <c r="E49" s="377"/>
+      <c r="F49" s="377"/>
+      <c r="G49" s="378"/>
       <c r="H49" s="12" t="s">
         <v>18</v>
       </c>
@@ -18023,13 +18002,13 @@
       <c r="B50" s="296" t="s">
         <v>498</v>
       </c>
-      <c r="C50" s="349" t="s">
+      <c r="C50" s="376" t="s">
         <v>517</v>
       </c>
-      <c r="D50" s="350"/>
-      <c r="E50" s="350"/>
-      <c r="F50" s="350"/>
-      <c r="G50" s="351"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="377"/>
+      <c r="F50" s="377"/>
+      <c r="G50" s="378"/>
       <c r="H50" s="12" t="s">
         <v>18</v>
       </c>
@@ -18048,13 +18027,13 @@
       <c r="B51" s="296" t="s">
         <v>500</v>
       </c>
-      <c r="C51" s="349" t="s">
+      <c r="C51" s="376" t="s">
         <v>517</v>
       </c>
-      <c r="D51" s="350"/>
-      <c r="E51" s="350"/>
-      <c r="F51" s="350"/>
-      <c r="G51" s="351"/>
+      <c r="D51" s="377"/>
+      <c r="E51" s="377"/>
+      <c r="F51" s="377"/>
+      <c r="G51" s="378"/>
       <c r="H51" s="12" t="s">
         <v>18</v>
       </c>
@@ -18075,13 +18054,13 @@
       <c r="B52" s="296" t="s">
         <v>501</v>
       </c>
-      <c r="C52" s="349" t="s">
+      <c r="C52" s="376" t="s">
         <v>517</v>
       </c>
-      <c r="D52" s="350"/>
-      <c r="E52" s="350"/>
-      <c r="F52" s="350"/>
-      <c r="G52" s="351"/>
+      <c r="D52" s="377"/>
+      <c r="E52" s="377"/>
+      <c r="F52" s="377"/>
+      <c r="G52" s="378"/>
       <c r="H52" s="12" t="s">
         <v>18</v>
       </c>
@@ -18102,13 +18081,13 @@
       <c r="B53" s="296" t="s">
         <v>502</v>
       </c>
-      <c r="C53" s="349" t="s">
+      <c r="C53" s="376" t="s">
         <v>517</v>
       </c>
-      <c r="D53" s="350"/>
-      <c r="E53" s="350"/>
-      <c r="F53" s="350"/>
-      <c r="G53" s="351"/>
+      <c r="D53" s="377"/>
+      <c r="E53" s="377"/>
+      <c r="F53" s="377"/>
+      <c r="G53" s="378"/>
       <c r="H53" s="12" t="s">
         <v>18</v>
       </c>
@@ -18127,13 +18106,13 @@
       <c r="B54" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="C54" s="349" t="s">
+      <c r="C54" s="376" t="s">
         <v>521</v>
       </c>
-      <c r="D54" s="350"/>
-      <c r="E54" s="350"/>
-      <c r="F54" s="350"/>
-      <c r="G54" s="351"/>
+      <c r="D54" s="377"/>
+      <c r="E54" s="377"/>
+      <c r="F54" s="377"/>
+      <c r="G54" s="378"/>
       <c r="H54" s="12" t="s">
         <v>18</v>
       </c>
@@ -18195,20 +18174,20 @@
       <c r="C58" s="294" t="s">
         <v>513</v>
       </c>
-      <c r="D58" s="356" t="s">
+      <c r="D58" s="351" t="s">
         <v>533</v>
       </c>
-      <c r="E58" s="365"/>
-      <c r="F58" s="365"/>
-      <c r="G58" s="365"/>
-      <c r="H58" s="365"/>
-      <c r="I58" s="366"/>
-      <c r="J58" s="363"/>
-      <c r="K58" s="364"/>
-      <c r="L58" s="356" t="s">
+      <c r="E58" s="371"/>
+      <c r="F58" s="371"/>
+      <c r="G58" s="371"/>
+      <c r="H58" s="371"/>
+      <c r="I58" s="372"/>
+      <c r="J58" s="349"/>
+      <c r="K58" s="355"/>
+      <c r="L58" s="351" t="s">
         <v>534</v>
       </c>
-      <c r="M58" s="364"/>
+      <c r="M58" s="355"/>
     </row>
     <row r="59" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="13"/>
@@ -18218,22 +18197,22 @@
       <c r="C59" s="294" t="s">
         <v>514</v>
       </c>
-      <c r="D59" s="356" t="s">
+      <c r="D59" s="351" t="s">
         <v>515</v>
       </c>
-      <c r="E59" s="357"/>
-      <c r="F59" s="357"/>
-      <c r="G59" s="357"/>
-      <c r="H59" s="357"/>
-      <c r="I59" s="358"/>
-      <c r="J59" s="363" t="s">
+      <c r="E59" s="353"/>
+      <c r="F59" s="353"/>
+      <c r="G59" s="353"/>
+      <c r="H59" s="353"/>
+      <c r="I59" s="354"/>
+      <c r="J59" s="349" t="s">
         <v>519</v>
       </c>
-      <c r="K59" s="364"/>
-      <c r="L59" s="356" t="s">
+      <c r="K59" s="355"/>
+      <c r="L59" s="351" t="s">
         <v>535</v>
       </c>
-      <c r="M59" s="367"/>
+      <c r="M59" s="352"/>
     </row>
     <row r="60" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="61" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -18275,15 +18254,15 @@
       <c r="B63" s="75" t="s">
         <v>499</v>
       </c>
-      <c r="C63" s="349" t="s">
+      <c r="C63" s="376" t="s">
         <v>531</v>
       </c>
-      <c r="D63" s="350"/>
-      <c r="E63" s="350"/>
-      <c r="F63" s="350"/>
-      <c r="G63" s="350"/>
-      <c r="H63" s="350"/>
-      <c r="I63" s="351"/>
+      <c r="D63" s="377"/>
+      <c r="E63" s="377"/>
+      <c r="F63" s="377"/>
+      <c r="G63" s="377"/>
+      <c r="H63" s="377"/>
+      <c r="I63" s="378"/>
       <c r="J63" s="75"/>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
@@ -18298,15 +18277,15 @@
       <c r="B64" s="75" t="s">
         <v>518</v>
       </c>
-      <c r="C64" s="349" t="s">
+      <c r="C64" s="376" t="s">
         <v>522</v>
       </c>
-      <c r="D64" s="350"/>
-      <c r="E64" s="350"/>
-      <c r="F64" s="350"/>
-      <c r="G64" s="350"/>
-      <c r="H64" s="350"/>
-      <c r="I64" s="351"/>
+      <c r="D64" s="377"/>
+      <c r="E64" s="377"/>
+      <c r="F64" s="377"/>
+      <c r="G64" s="377"/>
+      <c r="H64" s="377"/>
+      <c r="I64" s="378"/>
       <c r="J64" s="75"/>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
@@ -18319,15 +18298,15 @@
       <c r="B65" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="C65" s="352" t="s">
+      <c r="C65" s="363" t="s">
         <v>524</v>
       </c>
-      <c r="D65" s="350"/>
-      <c r="E65" s="350"/>
-      <c r="F65" s="350"/>
-      <c r="G65" s="350"/>
-      <c r="H65" s="350"/>
-      <c r="I65" s="351"/>
+      <c r="D65" s="377"/>
+      <c r="E65" s="377"/>
+      <c r="F65" s="377"/>
+      <c r="G65" s="377"/>
+      <c r="H65" s="377"/>
+      <c r="I65" s="378"/>
       <c r="J65" s="75"/>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
@@ -18730,35 +18709,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="K53:M53"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="K54:M54"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18861,10 +18840,10 @@
       <c r="B6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="376" t="s">
+      <c r="C6" s="358" t="s">
         <v>430</v>
       </c>
-      <c r="D6" s="377"/>
+      <c r="D6" s="359"/>
       <c r="E6" s="150" t="str">
         <f>IF(ISNA(VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE)),"",VLOOKUP($C$6,'프로그램 목록'!$P$8:$V$71,4,FALSE))</f>
         <v>옵션추가</v>
@@ -19108,8 +19087,8 @@
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="378"/>
-      <c r="I19" s="378"/>
+      <c r="H19" s="360"/>
+      <c r="I19" s="360"/>
       <c r="J19" s="16"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -19326,17 +19305,17 @@
       <c r="B35" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="379"/>
-      <c r="D35" s="380"/>
-      <c r="E35" s="380"/>
-      <c r="F35" s="380"/>
-      <c r="G35" s="380"/>
-      <c r="H35" s="380"/>
-      <c r="I35" s="380"/>
-      <c r="J35" s="380"/>
-      <c r="K35" s="380"/>
-      <c r="L35" s="380"/>
-      <c r="M35" s="380"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="362"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="362"/>
+      <c r="J35" s="362"/>
+      <c r="K35" s="362"/>
+      <c r="L35" s="362"/>
+      <c r="M35" s="362"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
@@ -19441,13 +19420,13 @@
       <c r="B42" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="349" t="s">
+      <c r="C42" s="376" t="s">
         <v>272</v>
       </c>
-      <c r="D42" s="350"/>
-      <c r="E42" s="350"/>
-      <c r="F42" s="350"/>
-      <c r="G42" s="351"/>
+      <c r="D42" s="377"/>
+      <c r="E42" s="377"/>
+      <c r="F42" s="377"/>
+      <c r="G42" s="378"/>
       <c r="H42" s="12" t="s">
         <v>234</v>
       </c>
@@ -19466,13 +19445,13 @@
       <c r="B43" s="296" t="s">
         <v>538</v>
       </c>
-      <c r="C43" s="352" t="s">
+      <c r="C43" s="363" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="359"/>
-      <c r="E43" s="359"/>
-      <c r="F43" s="359"/>
-      <c r="G43" s="360"/>
+      <c r="D43" s="364"/>
+      <c r="E43" s="364"/>
+      <c r="F43" s="364"/>
+      <c r="G43" s="365"/>
       <c r="H43" s="12" t="s">
         <v>234</v>
       </c>
@@ -19491,13 +19470,13 @@
       <c r="B44" s="296" t="s">
         <v>539</v>
       </c>
-      <c r="C44" s="352" t="s">
+      <c r="C44" s="363" t="s">
         <v>517</v>
       </c>
-      <c r="D44" s="359"/>
-      <c r="E44" s="359"/>
-      <c r="F44" s="359"/>
-      <c r="G44" s="360"/>
+      <c r="D44" s="364"/>
+      <c r="E44" s="364"/>
+      <c r="F44" s="364"/>
+      <c r="G44" s="365"/>
       <c r="H44" s="12" t="s">
         <v>234</v>
       </c>
@@ -19516,13 +19495,13 @@
       <c r="B45" s="296" t="s">
         <v>467</v>
       </c>
-      <c r="C45" s="349" t="s">
+      <c r="C45" s="376" t="s">
         <v>540</v>
       </c>
-      <c r="D45" s="350"/>
-      <c r="E45" s="350"/>
-      <c r="F45" s="350"/>
-      <c r="G45" s="351"/>
+      <c r="D45" s="377"/>
+      <c r="E45" s="377"/>
+      <c r="F45" s="377"/>
+      <c r="G45" s="378"/>
       <c r="H45" s="12" t="s">
         <v>234</v>
       </c>
@@ -19541,13 +19520,13 @@
       <c r="B46" s="336" t="s">
         <v>549</v>
       </c>
-      <c r="C46" s="349" t="s">
+      <c r="C46" s="376" t="s">
         <v>550</v>
       </c>
-      <c r="D46" s="350"/>
-      <c r="E46" s="350"/>
-      <c r="F46" s="350"/>
-      <c r="G46" s="351"/>
+      <c r="D46" s="377"/>
+      <c r="E46" s="377"/>
+      <c r="F46" s="377"/>
+      <c r="G46" s="378"/>
       <c r="H46" s="12" t="s">
         <v>234</v>
       </c>
@@ -19564,11 +19543,11 @@
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="240"/>
-      <c r="C47" s="349"/>
-      <c r="D47" s="350"/>
-      <c r="E47" s="350"/>
-      <c r="F47" s="350"/>
-      <c r="G47" s="351"/>
+      <c r="C47" s="376"/>
+      <c r="D47" s="377"/>
+      <c r="E47" s="377"/>
+      <c r="F47" s="377"/>
+      <c r="G47" s="378"/>
       <c r="H47" s="12" t="s">
         <v>234</v>
       </c>
@@ -19583,11 +19562,11 @@
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="240"/>
-      <c r="C48" s="349"/>
-      <c r="D48" s="350"/>
-      <c r="E48" s="350"/>
-      <c r="F48" s="350"/>
-      <c r="G48" s="351"/>
+      <c r="C48" s="376"/>
+      <c r="D48" s="377"/>
+      <c r="E48" s="377"/>
+      <c r="F48" s="377"/>
+      <c r="G48" s="378"/>
       <c r="H48" s="12" t="s">
         <v>234</v>
       </c>
@@ -19602,11 +19581,11 @@
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="84"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="350"/>
-      <c r="E49" s="350"/>
-      <c r="F49" s="350"/>
-      <c r="G49" s="351"/>
+      <c r="C49" s="376"/>
+      <c r="D49" s="377"/>
+      <c r="E49" s="377"/>
+      <c r="F49" s="377"/>
+      <c r="G49" s="378"/>
       <c r="H49" s="12" t="s">
         <v>234</v>
       </c>
@@ -19621,11 +19600,11 @@
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="352"/>
-      <c r="D50" s="359"/>
-      <c r="E50" s="359"/>
-      <c r="F50" s="359"/>
-      <c r="G50" s="360"/>
+      <c r="C50" s="363"/>
+      <c r="D50" s="364"/>
+      <c r="E50" s="364"/>
+      <c r="F50" s="364"/>
+      <c r="G50" s="365"/>
       <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
@@ -19640,11 +19619,11 @@
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="224"/>
-      <c r="C51" s="349"/>
-      <c r="D51" s="350"/>
-      <c r="E51" s="350"/>
-      <c r="F51" s="350"/>
-      <c r="G51" s="351"/>
+      <c r="C51" s="376"/>
+      <c r="D51" s="377"/>
+      <c r="E51" s="377"/>
+      <c r="F51" s="377"/>
+      <c r="G51" s="378"/>
       <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
@@ -19659,11 +19638,11 @@
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="224"/>
-      <c r="C52" s="349"/>
-      <c r="D52" s="350"/>
-      <c r="E52" s="350"/>
-      <c r="F52" s="350"/>
-      <c r="G52" s="351"/>
+      <c r="C52" s="376"/>
+      <c r="D52" s="377"/>
+      <c r="E52" s="377"/>
+      <c r="F52" s="377"/>
+      <c r="G52" s="378"/>
       <c r="H52" s="12" t="s">
         <v>234</v>
       </c>
@@ -19678,11 +19657,11 @@
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="224"/>
-      <c r="C53" s="349"/>
-      <c r="D53" s="350"/>
-      <c r="E53" s="350"/>
-      <c r="F53" s="350"/>
-      <c r="G53" s="351"/>
+      <c r="C53" s="376"/>
+      <c r="D53" s="377"/>
+      <c r="E53" s="377"/>
+      <c r="F53" s="377"/>
+      <c r="G53" s="378"/>
       <c r="H53" s="12" t="s">
         <v>234</v>
       </c>
@@ -19742,20 +19721,20 @@
       <c r="C57" s="334" t="s">
         <v>541</v>
       </c>
-      <c r="D57" s="356" t="s">
+      <c r="D57" s="351" t="s">
         <v>545</v>
       </c>
-      <c r="E57" s="365"/>
-      <c r="F57" s="365"/>
-      <c r="G57" s="365"/>
-      <c r="H57" s="365"/>
-      <c r="I57" s="366"/>
-      <c r="J57" s="363"/>
-      <c r="K57" s="364"/>
-      <c r="L57" s="356" t="s">
+      <c r="E57" s="371"/>
+      <c r="F57" s="371"/>
+      <c r="G57" s="371"/>
+      <c r="H57" s="371"/>
+      <c r="I57" s="372"/>
+      <c r="J57" s="349"/>
+      <c r="K57" s="355"/>
+      <c r="L57" s="351" t="s">
         <v>546</v>
       </c>
-      <c r="M57" s="364"/>
+      <c r="M57" s="355"/>
     </row>
     <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13"/>
@@ -19765,18 +19744,18 @@
       <c r="C58" s="334" t="s">
         <v>542</v>
       </c>
-      <c r="D58" s="356" t="s">
+      <c r="D58" s="351" t="s">
         <v>548</v>
       </c>
-      <c r="E58" s="357"/>
-      <c r="F58" s="357"/>
-      <c r="G58" s="357"/>
-      <c r="H58" s="357"/>
-      <c r="I58" s="358"/>
-      <c r="J58" s="363"/>
-      <c r="K58" s="364"/>
-      <c r="L58" s="356"/>
-      <c r="M58" s="367"/>
+      <c r="E58" s="353"/>
+      <c r="F58" s="353"/>
+      <c r="G58" s="353"/>
+      <c r="H58" s="353"/>
+      <c r="I58" s="354"/>
+      <c r="J58" s="349"/>
+      <c r="K58" s="355"/>
+      <c r="L58" s="351"/>
+      <c r="M58" s="352"/>
     </row>
     <row r="59" spans="1:13" ht="50.25" customHeight="1">
       <c r="A59" s="13"/>
@@ -19786,46 +19765,46 @@
       <c r="C59" s="334" t="s">
         <v>543</v>
       </c>
-      <c r="D59" s="352" t="s">
+      <c r="D59" s="363" t="s">
         <v>544</v>
       </c>
-      <c r="E59" s="359"/>
-      <c r="F59" s="359"/>
-      <c r="G59" s="359"/>
-      <c r="H59" s="359"/>
-      <c r="I59" s="360"/>
-      <c r="J59" s="363"/>
-      <c r="K59" s="364"/>
-      <c r="L59" s="356" t="s">
+      <c r="E59" s="364"/>
+      <c r="F59" s="364"/>
+      <c r="G59" s="364"/>
+      <c r="H59" s="364"/>
+      <c r="I59" s="365"/>
+      <c r="J59" s="349"/>
+      <c r="K59" s="355"/>
+      <c r="L59" s="351" t="s">
         <v>547</v>
       </c>
-      <c r="M59" s="364"/>
+      <c r="M59" s="355"/>
     </row>
     <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="84"/>
       <c r="C60" s="238"/>
-      <c r="D60" s="356"/>
-      <c r="E60" s="365"/>
-      <c r="F60" s="365"/>
-      <c r="G60" s="365"/>
-      <c r="H60" s="365"/>
-      <c r="I60" s="366"/>
-      <c r="J60" s="363"/>
-      <c r="K60" s="364"/>
-      <c r="L60" s="356"/>
-      <c r="M60" s="367"/>
+      <c r="D60" s="351"/>
+      <c r="E60" s="371"/>
+      <c r="F60" s="371"/>
+      <c r="G60" s="371"/>
+      <c r="H60" s="371"/>
+      <c r="I60" s="372"/>
+      <c r="J60" s="349"/>
+      <c r="K60" s="355"/>
+      <c r="L60" s="351"/>
+      <c r="M60" s="352"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="84"/>
       <c r="C61" s="238"/>
-      <c r="D61" s="356"/>
-      <c r="E61" s="361"/>
-      <c r="F61" s="361"/>
-      <c r="G61" s="361"/>
-      <c r="H61" s="361"/>
-      <c r="I61" s="362"/>
+      <c r="D61" s="351"/>
+      <c r="E61" s="382"/>
+      <c r="F61" s="382"/>
+      <c r="G61" s="382"/>
+      <c r="H61" s="382"/>
+      <c r="I61" s="350"/>
       <c r="J61" s="243"/>
       <c r="K61" s="245"/>
       <c r="L61" s="246"/>
@@ -19835,72 +19814,72 @@
       <c r="A62" s="13"/>
       <c r="B62" s="84"/>
       <c r="C62" s="238"/>
-      <c r="D62" s="356"/>
-      <c r="E62" s="357"/>
-      <c r="F62" s="357"/>
-      <c r="G62" s="357"/>
-      <c r="H62" s="357"/>
-      <c r="I62" s="358"/>
+      <c r="D62" s="351"/>
+      <c r="E62" s="353"/>
+      <c r="F62" s="353"/>
+      <c r="G62" s="353"/>
+      <c r="H62" s="353"/>
+      <c r="I62" s="354"/>
       <c r="J62" s="243"/>
       <c r="K62" s="245"/>
-      <c r="L62" s="352"/>
-      <c r="M62" s="360"/>
+      <c r="L62" s="363"/>
+      <c r="M62" s="365"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="84"/>
       <c r="C63" s="238"/>
-      <c r="D63" s="356"/>
-      <c r="E63" s="365"/>
-      <c r="F63" s="365"/>
-      <c r="G63" s="365"/>
-      <c r="H63" s="365"/>
-      <c r="I63" s="366"/>
-      <c r="J63" s="363"/>
-      <c r="K63" s="366"/>
-      <c r="L63" s="356"/>
-      <c r="M63" s="366"/>
+      <c r="D63" s="351"/>
+      <c r="E63" s="371"/>
+      <c r="F63" s="371"/>
+      <c r="G63" s="371"/>
+      <c r="H63" s="371"/>
+      <c r="I63" s="372"/>
+      <c r="J63" s="349"/>
+      <c r="K63" s="372"/>
+      <c r="L63" s="351"/>
+      <c r="M63" s="372"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="84"/>
       <c r="C64" s="238"/>
-      <c r="D64" s="356"/>
-      <c r="E64" s="357"/>
-      <c r="F64" s="357"/>
-      <c r="G64" s="357"/>
-      <c r="H64" s="357"/>
-      <c r="I64" s="358"/>
-      <c r="J64" s="363"/>
-      <c r="K64" s="362"/>
-      <c r="L64" s="356"/>
-      <c r="M64" s="367"/>
+      <c r="D64" s="351"/>
+      <c r="E64" s="353"/>
+      <c r="F64" s="353"/>
+      <c r="G64" s="353"/>
+      <c r="H64" s="353"/>
+      <c r="I64" s="354"/>
+      <c r="J64" s="349"/>
+      <c r="K64" s="350"/>
+      <c r="L64" s="351"/>
+      <c r="M64" s="352"/>
     </row>
     <row r="65" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="84"/>
       <c r="C65" s="238"/>
-      <c r="D65" s="356"/>
-      <c r="E65" s="357"/>
-      <c r="F65" s="357"/>
-      <c r="G65" s="357"/>
-      <c r="H65" s="357"/>
-      <c r="I65" s="358"/>
-      <c r="J65" s="363"/>
-      <c r="K65" s="362"/>
-      <c r="L65" s="363"/>
-      <c r="M65" s="362"/>
+      <c r="D65" s="351"/>
+      <c r="E65" s="353"/>
+      <c r="F65" s="353"/>
+      <c r="G65" s="353"/>
+      <c r="H65" s="353"/>
+      <c r="I65" s="354"/>
+      <c r="J65" s="349"/>
+      <c r="K65" s="350"/>
+      <c r="L65" s="349"/>
+      <c r="M65" s="350"/>
     </row>
     <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="84"/>
       <c r="C66" s="238"/>
-      <c r="D66" s="352"/>
-      <c r="E66" s="359"/>
-      <c r="F66" s="359"/>
-      <c r="G66" s="359"/>
-      <c r="H66" s="359"/>
-      <c r="I66" s="360"/>
+      <c r="D66" s="363"/>
+      <c r="E66" s="364"/>
+      <c r="F66" s="364"/>
+      <c r="G66" s="364"/>
+      <c r="H66" s="364"/>
+      <c r="I66" s="365"/>
       <c r="J66" s="243"/>
       <c r="K66" s="244"/>
       <c r="L66" s="243"/>
@@ -19910,12 +19889,12 @@
       <c r="A67" s="13"/>
       <c r="B67" s="84"/>
       <c r="C67" s="238"/>
-      <c r="D67" s="352"/>
-      <c r="E67" s="359"/>
-      <c r="F67" s="359"/>
-      <c r="G67" s="359"/>
-      <c r="H67" s="359"/>
-      <c r="I67" s="360"/>
+      <c r="D67" s="363"/>
+      <c r="E67" s="364"/>
+      <c r="F67" s="364"/>
+      <c r="G67" s="364"/>
+      <c r="H67" s="364"/>
+      <c r="I67" s="365"/>
       <c r="J67" s="243"/>
       <c r="K67" s="244"/>
       <c r="L67" s="243"/>
@@ -19925,16 +19904,16 @@
       <c r="A68" s="13"/>
       <c r="B68" s="84"/>
       <c r="C68" s="225"/>
-      <c r="D68" s="356"/>
-      <c r="E68" s="361"/>
-      <c r="F68" s="361"/>
-      <c r="G68" s="361"/>
-      <c r="H68" s="361"/>
-      <c r="I68" s="362"/>
-      <c r="J68" s="363"/>
-      <c r="K68" s="364"/>
-      <c r="L68" s="356"/>
-      <c r="M68" s="358"/>
+      <c r="D68" s="351"/>
+      <c r="E68" s="382"/>
+      <c r="F68" s="382"/>
+      <c r="G68" s="382"/>
+      <c r="H68" s="382"/>
+      <c r="I68" s="350"/>
+      <c r="J68" s="349"/>
+      <c r="K68" s="355"/>
+      <c r="L68" s="351"/>
+      <c r="M68" s="354"/>
     </row>
     <row r="69" spans="1:15" s="168" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1">
@@ -19974,13 +19953,13 @@
     <row r="72" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="75"/>
-      <c r="C72" s="349"/>
-      <c r="D72" s="350"/>
-      <c r="E72" s="350"/>
-      <c r="F72" s="350"/>
-      <c r="G72" s="350"/>
-      <c r="H72" s="350"/>
-      <c r="I72" s="351"/>
+      <c r="C72" s="376"/>
+      <c r="D72" s="377"/>
+      <c r="E72" s="377"/>
+      <c r="F72" s="377"/>
+      <c r="G72" s="377"/>
+      <c r="H72" s="377"/>
+      <c r="I72" s="378"/>
       <c r="J72" s="75"/>
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
@@ -19993,13 +19972,13 @@
         <v>13</v>
       </c>
       <c r="B73" s="75"/>
-      <c r="C73" s="349"/>
-      <c r="D73" s="350"/>
-      <c r="E73" s="350"/>
-      <c r="F73" s="350"/>
-      <c r="G73" s="350"/>
-      <c r="H73" s="350"/>
-      <c r="I73" s="351"/>
+      <c r="C73" s="376"/>
+      <c r="D73" s="377"/>
+      <c r="E73" s="377"/>
+      <c r="F73" s="377"/>
+      <c r="G73" s="377"/>
+      <c r="H73" s="377"/>
+      <c r="I73" s="378"/>
       <c r="J73" s="75"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -20010,13 +19989,13 @@
     <row r="74" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="75"/>
-      <c r="C74" s="352"/>
-      <c r="D74" s="350"/>
-      <c r="E74" s="350"/>
-      <c r="F74" s="350"/>
-      <c r="G74" s="350"/>
-      <c r="H74" s="350"/>
-      <c r="I74" s="351"/>
+      <c r="C74" s="363"/>
+      <c r="D74" s="377"/>
+      <c r="E74" s="377"/>
+      <c r="F74" s="377"/>
+      <c r="G74" s="377"/>
+      <c r="H74" s="377"/>
+      <c r="I74" s="378"/>
       <c r="J74" s="75"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -20180,13 +20159,13 @@
     <row r="84" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="75"/>
-      <c r="C84" s="349"/>
-      <c r="D84" s="350"/>
-      <c r="E84" s="350"/>
-      <c r="F84" s="350"/>
-      <c r="G84" s="350"/>
-      <c r="H84" s="350"/>
-      <c r="I84" s="351"/>
+      <c r="C84" s="376"/>
+      <c r="D84" s="377"/>
+      <c r="E84" s="377"/>
+      <c r="F84" s="377"/>
+      <c r="G84" s="377"/>
+      <c r="H84" s="377"/>
+      <c r="I84" s="378"/>
       <c r="J84" s="75"/>
       <c r="K84" s="84"/>
       <c r="L84" s="84"/>
@@ -20197,13 +20176,13 @@
     <row r="85" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="75"/>
-      <c r="C85" s="349"/>
-      <c r="D85" s="350"/>
-      <c r="E85" s="350"/>
-      <c r="F85" s="350"/>
-      <c r="G85" s="350"/>
-      <c r="H85" s="350"/>
-      <c r="I85" s="351"/>
+      <c r="C85" s="376"/>
+      <c r="D85" s="377"/>
+      <c r="E85" s="377"/>
+      <c r="F85" s="377"/>
+      <c r="G85" s="377"/>
+      <c r="H85" s="377"/>
+      <c r="I85" s="378"/>
       <c r="J85" s="75"/>
       <c r="K85" s="84"/>
       <c r="L85" s="84"/>
@@ -20623,49 +20602,11 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="C73:I73"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="C85:I85"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="L68:M68"/>
@@ -20680,11 +20621,49 @@
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="D66:I66"/>
     <mergeCell ref="D67:I67"/>
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="K42:M42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
